--- a/database/industries/felezat/fameli/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/fameli/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9108784-07F3-463B-BDE0-EC07088C9874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6990"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +181,12 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +497,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -508,7 +509,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -555,6 +556,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,6 +608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,17 +776,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -806,7 +841,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +898,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -920,7 +955,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -975,7 +1010,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1032,7 +1067,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1124,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1144,7 +1179,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1356,7 +1391,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1448,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1481,98 +1516,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>25133</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>4451</v>
       </c>
       <c r="AA11" s="11">
-        <v>25133</v>
+        <v>3665</v>
       </c>
       <c r="AB11" s="11">
-        <v>4451</v>
+        <v>22494</v>
       </c>
       <c r="AC11" s="11">
-        <v>3665</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>22494</v>
+        <v>19180</v>
       </c>
       <c r="AE11" s="11">
-        <v>0</v>
+        <v>20466</v>
       </c>
       <c r="AF11" s="11">
-        <v>19180</v>
+        <v>20599</v>
       </c>
       <c r="AG11" s="11">
-        <v>20466</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>20599</v>
+        <v>26092</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11">
-        <v>26092</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
+        <v>6256</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>3912</v>
       </c>
       <c r="AK11" s="11">
-        <v>6256</v>
+        <v>2006</v>
       </c>
       <c r="AL11" s="11">
-        <v>3912</v>
+        <v>31256</v>
       </c>
       <c r="AM11" s="11">
-        <v>2006</v>
+        <v>4534</v>
       </c>
       <c r="AN11" s="11">
-        <v>31256</v>
+        <v>44616</v>
       </c>
       <c r="AO11" s="11">
-        <v>4534</v>
+        <v>22847</v>
       </c>
       <c r="AP11" s="11">
-        <v>44616</v>
+        <v>7833</v>
       </c>
       <c r="AQ11" s="11">
-        <v>22847</v>
+        <v>6670</v>
       </c>
       <c r="AR11" s="11">
-        <v>7833</v>
+        <v>829</v>
       </c>
       <c r="AS11" s="11">
-        <v>6670</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>829</v>
+        <v>9811</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11">
-        <v>9811</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>58</v>
+        <v>4122</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>9397</v>
       </c>
       <c r="AW11" s="11">
-        <v>4246</v>
+        <v>6663</v>
       </c>
       <c r="AX11" s="11">
-        <v>9397</v>
+        <v>17129</v>
       </c>
       <c r="AY11" s="11">
-        <v>6663</v>
+        <v>11467</v>
       </c>
       <c r="AZ11" s="11">
-        <v>17129</v>
+        <v>15009</v>
       </c>
       <c r="BA11" s="11">
-        <v>11467</v>
+        <v>7119</v>
       </c>
       <c r="BB11" s="11">
-        <v>15009</v>
+        <v>24153</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1640,98 +1675,98 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>571</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>423</v>
       </c>
       <c r="AA12" s="13">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="AB12" s="13">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="AC12" s="13">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="AD12" s="13">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="AE12" s="13">
-        <v>563</v>
+        <v>459</v>
       </c>
       <c r="AF12" s="13">
-        <v>474</v>
+        <v>601</v>
       </c>
       <c r="AG12" s="13">
-        <v>459</v>
+        <v>580</v>
       </c>
       <c r="AH12" s="13">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="AI12" s="13">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="AJ12" s="13">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AK12" s="13">
-        <v>663</v>
+        <v>509</v>
       </c>
       <c r="AL12" s="13">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AM12" s="13">
-        <v>509</v>
+        <v>755</v>
       </c>
       <c r="AN12" s="13">
+        <v>735</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>596</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>645</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>804</v>
+      </c>
+      <c r="AR12" s="13">
         <v>686</v>
       </c>
-      <c r="AO12" s="13">
-        <v>755</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>735</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>596</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>645</v>
-      </c>
       <c r="AS12" s="13">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="AT12" s="13">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="AU12" s="13">
-        <v>833</v>
+        <v>589</v>
       </c>
       <c r="AV12" s="13">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="AW12" s="13">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="AX12" s="13">
-        <v>579</v>
+        <v>486</v>
       </c>
       <c r="AY12" s="13">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="AZ12" s="13">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="BA12" s="13">
-        <v>654</v>
+        <v>851</v>
       </c>
       <c r="BB12" s="13">
-        <v>739</v>
+        <v>980</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1799,98 +1834,98 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>4007000</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>4098000</v>
       </c>
       <c r="AA13" s="11">
-        <v>4007000</v>
+        <v>4642000</v>
       </c>
       <c r="AB13" s="11">
-        <v>4098000</v>
+        <v>4716000</v>
       </c>
       <c r="AC13" s="11">
-        <v>4642000</v>
+        <v>4372000</v>
       </c>
       <c r="AD13" s="11">
-        <v>4716000</v>
+        <v>4358000</v>
       </c>
       <c r="AE13" s="11">
-        <v>4372000</v>
+        <v>4028000</v>
       </c>
       <c r="AF13" s="11">
-        <v>4358000</v>
+        <v>4792000</v>
       </c>
       <c r="AG13" s="11">
-        <v>4028000</v>
+        <v>4574000</v>
       </c>
       <c r="AH13" s="11">
-        <v>4792000</v>
+        <v>4847000</v>
       </c>
       <c r="AI13" s="11">
-        <v>4574000</v>
+        <v>4819000</v>
       </c>
       <c r="AJ13" s="11">
-        <v>4847000</v>
+        <v>4893000</v>
       </c>
       <c r="AK13" s="11">
-        <v>4819000</v>
+        <v>3244000</v>
       </c>
       <c r="AL13" s="11">
-        <v>4893000</v>
+        <v>4178000</v>
       </c>
       <c r="AM13" s="11">
-        <v>3244000</v>
+        <v>5118000</v>
       </c>
       <c r="AN13" s="11">
-        <v>4178000</v>
+        <v>4946000</v>
       </c>
       <c r="AO13" s="11">
-        <v>5118000</v>
+        <v>4597000</v>
       </c>
       <c r="AP13" s="11">
-        <v>4946000</v>
+        <v>4329000</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4597000</v>
+        <v>4434000</v>
       </c>
       <c r="AR13" s="11">
-        <v>4329000</v>
+        <v>4225000</v>
       </c>
       <c r="AS13" s="11">
-        <v>4434000</v>
+        <v>4291000</v>
       </c>
       <c r="AT13" s="11">
-        <v>4225000</v>
+        <v>4817</v>
       </c>
       <c r="AU13" s="11">
-        <v>4291000</v>
+        <v>4878000</v>
       </c>
       <c r="AV13" s="11">
-        <v>4817</v>
+        <v>9706183</v>
       </c>
       <c r="AW13" s="11">
-        <v>4878000</v>
+        <v>3736000</v>
       </c>
       <c r="AX13" s="11">
-        <v>9706183</v>
+        <v>4107000</v>
       </c>
       <c r="AY13" s="11">
-        <v>3736000</v>
+        <v>4936000</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4107000</v>
+        <v>4992000</v>
       </c>
       <c r="BA13" s="11">
-        <v>4936000</v>
+        <v>4810000</v>
       </c>
       <c r="BB13" s="11">
-        <v>4992000</v>
+        <v>4724000</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1958,98 +1993,98 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>50995</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>26230</v>
       </c>
       <c r="AA14" s="13">
-        <v>50995</v>
+        <v>30150</v>
       </c>
       <c r="AB14" s="13">
-        <v>26230</v>
+        <v>28070</v>
       </c>
       <c r="AC14" s="13">
-        <v>30150</v>
+        <v>36798</v>
       </c>
       <c r="AD14" s="13">
-        <v>28070</v>
+        <v>39658</v>
       </c>
       <c r="AE14" s="13">
-        <v>36798</v>
+        <v>55295</v>
       </c>
       <c r="AF14" s="13">
-        <v>39658</v>
+        <v>56666</v>
       </c>
       <c r="AG14" s="13">
-        <v>55295</v>
+        <v>69285</v>
       </c>
       <c r="AH14" s="13">
-        <v>56666</v>
+        <v>64076</v>
       </c>
       <c r="AI14" s="13">
-        <v>69285</v>
+        <v>76833</v>
       </c>
       <c r="AJ14" s="13">
-        <v>64076</v>
+        <v>75162</v>
       </c>
       <c r="AK14" s="13">
-        <v>76833</v>
+        <v>53799</v>
       </c>
       <c r="AL14" s="13">
-        <v>75162</v>
+        <v>46597</v>
       </c>
       <c r="AM14" s="13">
-        <v>53799</v>
+        <v>57281</v>
       </c>
       <c r="AN14" s="13">
-        <v>46597</v>
+        <v>82501</v>
       </c>
       <c r="AO14" s="13">
-        <v>57281</v>
+        <v>81444</v>
       </c>
       <c r="AP14" s="13">
-        <v>82501</v>
+        <v>81204</v>
       </c>
       <c r="AQ14" s="13">
-        <v>81444</v>
+        <v>74975</v>
       </c>
       <c r="AR14" s="13">
-        <v>81204</v>
+        <v>53033</v>
       </c>
       <c r="AS14" s="13">
-        <v>74975</v>
+        <v>70913</v>
       </c>
       <c r="AT14" s="13">
-        <v>53033</v>
+        <v>85882</v>
       </c>
       <c r="AU14" s="13">
-        <v>70913</v>
+        <v>87329</v>
       </c>
       <c r="AV14" s="13">
-        <v>85882</v>
+        <v>77336</v>
       </c>
       <c r="AW14" s="13">
-        <v>87329</v>
+        <v>66516</v>
       </c>
       <c r="AX14" s="13">
-        <v>77336</v>
+        <v>46171</v>
       </c>
       <c r="AY14" s="13">
-        <v>66516</v>
+        <v>86903</v>
       </c>
       <c r="AZ14" s="13">
-        <v>46171</v>
+        <v>88329</v>
       </c>
       <c r="BA14" s="13">
-        <v>86903</v>
+        <v>81468</v>
       </c>
       <c r="BB14" s="13">
-        <v>88329</v>
+        <v>76334</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2117,98 +2152,98 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>58</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>63</v>
       </c>
       <c r="AA15" s="11">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AB15" s="11">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AC15" s="11">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AD15" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AE15" s="11">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="AF15" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG15" s="11">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AH15" s="11">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>76</v>
+      </c>
+      <c r="AJ15" s="11">
         <v>72</v>
       </c>
-      <c r="AI15" s="11">
-        <v>53</v>
-      </c>
-      <c r="AJ15" s="11">
+      <c r="AK15" s="11">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>57</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>69</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>77</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>81</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>61</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>50</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>78</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>102</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>54</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>85</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>61</v>
+      </c>
+      <c r="AX15" s="11">
         <v>65</v>
       </c>
-      <c r="AK15" s="11">
-        <v>76</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>72</v>
-      </c>
-      <c r="AM15" s="11">
+      <c r="AY15" s="11">
         <v>66</v>
       </c>
-      <c r="AN15" s="11">
-        <v>57</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>92</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>69</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>77</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>81</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>61</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>50</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>78</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>102</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>54</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>85</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>61</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="BA15" s="11">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="BB15" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2276,98 +2311,98 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>93919</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>89014</v>
       </c>
       <c r="AA16" s="13">
-        <v>93919</v>
+        <v>106617</v>
       </c>
       <c r="AB16" s="13">
-        <v>89014</v>
+        <v>107191</v>
       </c>
       <c r="AC16" s="13">
-        <v>106617</v>
+        <v>97663</v>
       </c>
       <c r="AD16" s="13">
-        <v>107191</v>
+        <v>100965</v>
       </c>
       <c r="AE16" s="13">
-        <v>97663</v>
+        <v>68990</v>
       </c>
       <c r="AF16" s="13">
-        <v>100965</v>
+        <v>100024</v>
       </c>
       <c r="AG16" s="13">
-        <v>68990</v>
+        <v>101913</v>
       </c>
       <c r="AH16" s="13">
-        <v>100024</v>
+        <v>108354</v>
       </c>
       <c r="AI16" s="13">
-        <v>101913</v>
+        <v>108356</v>
       </c>
       <c r="AJ16" s="13">
-        <v>108354</v>
+        <v>106108</v>
       </c>
       <c r="AK16" s="13">
-        <v>108356</v>
+        <v>79658</v>
       </c>
       <c r="AL16" s="13">
-        <v>106108</v>
+        <v>88557</v>
       </c>
       <c r="AM16" s="13">
-        <v>79658</v>
+        <v>115257</v>
       </c>
       <c r="AN16" s="13">
-        <v>88557</v>
+        <v>111829</v>
       </c>
       <c r="AO16" s="13">
-        <v>115257</v>
+        <v>101670</v>
       </c>
       <c r="AP16" s="13">
-        <v>111829</v>
+        <v>104391</v>
       </c>
       <c r="AQ16" s="13">
-        <v>101670</v>
+        <v>105388</v>
       </c>
       <c r="AR16" s="13">
-        <v>104391</v>
+        <v>98269</v>
       </c>
       <c r="AS16" s="13">
-        <v>105388</v>
+        <v>99334</v>
       </c>
       <c r="AT16" s="13">
-        <v>98269</v>
+        <v>111237</v>
       </c>
       <c r="AU16" s="13">
-        <v>99334</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>111237</v>
-      </c>
-      <c r="AW16" s="13" t="s">
-        <v>58</v>
+        <v>216371</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>90273</v>
       </c>
       <c r="AX16" s="13">
-        <v>216371</v>
+        <v>86302</v>
       </c>
       <c r="AY16" s="13">
-        <v>90273</v>
+        <v>110966</v>
       </c>
       <c r="AZ16" s="13">
-        <v>86302</v>
+        <v>-3219</v>
       </c>
       <c r="BA16" s="13">
-        <v>110966</v>
+        <v>89625</v>
       </c>
       <c r="BB16" s="13">
-        <v>100151</v>
+        <v>94606</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2435,98 +2470,98 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>22071</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>4818</v>
       </c>
       <c r="AA17" s="11">
-        <v>22071</v>
+        <v>11808</v>
       </c>
       <c r="AB17" s="11">
-        <v>4818</v>
+        <v>15666</v>
       </c>
       <c r="AC17" s="11">
-        <v>11808</v>
+        <v>11000</v>
       </c>
       <c r="AD17" s="11">
-        <v>15666</v>
+        <v>13553</v>
       </c>
       <c r="AE17" s="11">
-        <v>11000</v>
+        <v>22251</v>
       </c>
       <c r="AF17" s="11">
-        <v>13553</v>
+        <v>17616</v>
       </c>
       <c r="AG17" s="11">
-        <v>22251</v>
+        <v>7057</v>
       </c>
       <c r="AH17" s="11">
-        <v>17616</v>
+        <v>22392</v>
       </c>
       <c r="AI17" s="11">
-        <v>7057</v>
+        <v>13754</v>
       </c>
       <c r="AJ17" s="11">
-        <v>22392</v>
+        <v>16187</v>
       </c>
       <c r="AK17" s="11">
-        <v>13754</v>
+        <v>3993</v>
       </c>
       <c r="AL17" s="11">
-        <v>16187</v>
+        <v>9079</v>
       </c>
       <c r="AM17" s="11">
-        <v>3993</v>
+        <v>10600</v>
       </c>
       <c r="AN17" s="11">
-        <v>9079</v>
+        <v>15468</v>
       </c>
       <c r="AO17" s="11">
-        <v>10600</v>
+        <v>8099</v>
       </c>
       <c r="AP17" s="11">
-        <v>15468</v>
+        <v>11142</v>
       </c>
       <c r="AQ17" s="11">
-        <v>8099</v>
+        <v>3583</v>
       </c>
       <c r="AR17" s="11">
-        <v>11142</v>
+        <v>1781</v>
       </c>
       <c r="AS17" s="11">
-        <v>3583</v>
+        <v>8147</v>
       </c>
       <c r="AT17" s="11">
-        <v>1781</v>
+        <v>17377</v>
       </c>
       <c r="AU17" s="11">
-        <v>8147</v>
+        <v>11987</v>
       </c>
       <c r="AV17" s="11">
-        <v>17377</v>
+        <v>11251</v>
       </c>
       <c r="AW17" s="11">
-        <v>11987</v>
+        <v>19390</v>
       </c>
       <c r="AX17" s="11">
-        <v>11251</v>
+        <v>10966</v>
       </c>
       <c r="AY17" s="11">
-        <v>19390</v>
+        <v>23562</v>
       </c>
       <c r="AZ17" s="11">
-        <v>10966</v>
+        <v>20547</v>
       </c>
       <c r="BA17" s="11">
-        <v>23562</v>
+        <v>17417</v>
       </c>
       <c r="BB17" s="11">
-        <v>20547</v>
+        <v>19064</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2594,17 +2629,17 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>924</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>32</v>
       </c>
       <c r="AA18" s="13">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
         <v>0</v>
@@ -2621,11 +2656,11 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2633,29 +2668,29 @@
       <c r="AK18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
+      <c r="AL18" s="13">
+        <v>0</v>
       </c>
       <c r="AM18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN18" s="13">
-        <v>0</v>
+      <c r="AN18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="13" t="s">
-        <v>58</v>
+      <c r="AP18" s="13">
+        <v>0</v>
       </c>
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>58</v>
@@ -2685,7 +2720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2813,38 +2848,38 @@
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
+      <c r="AS19" s="11">
+        <v>67</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU19" s="11">
-        <v>67</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>98</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>120</v>
       </c>
       <c r="AY19" s="11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="11">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="BA19" s="11">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="BB19" s="11">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2993,17 +3028,17 @@
       <c r="AY20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA20" s="13" t="s">
-        <v>58</v>
+      <c r="AZ20" s="13">
+        <v>513340</v>
+      </c>
+      <c r="BA20" s="13">
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>513340</v>
+        <v>39203</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3070,97 +3105,97 @@
         <v>0</v>
       </c>
       <c r="Y21" s="15">
-        <v>0</v>
+        <v>4200671</v>
       </c>
       <c r="Z21" s="15">
-        <v>0</v>
+        <v>4223031</v>
       </c>
       <c r="AA21" s="15">
-        <v>4200671</v>
+        <v>4794892</v>
       </c>
       <c r="AB21" s="15">
-        <v>4223031</v>
+        <v>4889960</v>
       </c>
       <c r="AC21" s="15">
-        <v>4794892</v>
+        <v>4518076</v>
       </c>
       <c r="AD21" s="15">
-        <v>4889960</v>
+        <v>4531924</v>
       </c>
       <c r="AE21" s="15">
-        <v>4518076</v>
+        <v>4195535</v>
       </c>
       <c r="AF21" s="15">
-        <v>4531924</v>
+        <v>4987578</v>
       </c>
       <c r="AG21" s="15">
-        <v>4195535</v>
+        <v>4778980</v>
       </c>
       <c r="AH21" s="15">
-        <v>4987578</v>
+        <v>5042566</v>
       </c>
       <c r="AI21" s="15">
-        <v>4778980</v>
+        <v>5024938</v>
       </c>
       <c r="AJ21" s="15">
-        <v>5042566</v>
+        <v>5095125</v>
       </c>
       <c r="AK21" s="15">
-        <v>5024938</v>
+        <v>3384031</v>
       </c>
       <c r="AL21" s="15">
-        <v>5095125</v>
+        <v>4354232</v>
       </c>
       <c r="AM21" s="15">
-        <v>3384031</v>
+        <v>5306519</v>
       </c>
       <c r="AN21" s="15">
-        <v>4354232</v>
+        <v>5201218</v>
       </c>
       <c r="AO21" s="15">
-        <v>5306519</v>
+        <v>4811733</v>
       </c>
       <c r="AP21" s="15">
-        <v>5201218</v>
+        <v>4534296</v>
       </c>
       <c r="AQ21" s="15">
-        <v>4811733</v>
+        <v>4625481</v>
       </c>
       <c r="AR21" s="15">
-        <v>4534296</v>
+        <v>4379648</v>
       </c>
       <c r="AS21" s="15">
-        <v>4625481</v>
+        <v>4480183</v>
       </c>
       <c r="AT21" s="15">
-        <v>4379648</v>
+        <v>220085</v>
       </c>
       <c r="AU21" s="15">
-        <v>4480183</v>
+        <v>4982081</v>
       </c>
       <c r="AV21" s="15">
-        <v>220085</v>
+        <v>10021202</v>
       </c>
       <c r="AW21" s="15">
-        <v>4982205</v>
+        <v>3919553</v>
       </c>
       <c r="AX21" s="15">
-        <v>10021202</v>
+        <v>4268239</v>
       </c>
       <c r="AY21" s="15">
-        <v>3919553</v>
+        <v>5169618</v>
       </c>
       <c r="AZ21" s="15">
-        <v>4268239</v>
+        <v>5626927</v>
       </c>
       <c r="BA21" s="15">
-        <v>5169618</v>
+        <v>5006686</v>
       </c>
       <c r="BB21" s="15">
-        <v>5730297</v>
+        <v>4978539</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
@@ -3217,7 +3252,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>61</v>
       </c>
@@ -3309,14 +3344,14 @@
       <c r="AF23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG23" s="11" t="s">
-        <v>58</v>
+      <c r="AG23" s="11">
+        <v>504</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" s="11">
-        <v>504</v>
+      <c r="AI23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ23" s="11" t="s">
         <v>58</v>
@@ -3336,35 +3371,35 @@
       <c r="AO23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>58</v>
+      <c r="AP23" s="11">
+        <v>991</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="11">
-        <v>991</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
+      <c r="AR23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>0</v>
       </c>
       <c r="AT23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU23" s="11">
-        <v>0</v>
+      <c r="AU23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX23" s="11" t="s">
-        <v>58</v>
+      <c r="AW23" s="11">
+        <v>998</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>0</v>
       </c>
       <c r="AY23" s="11">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="11">
         <v>0</v>
@@ -3376,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
@@ -3444,11 +3479,11 @@
       <c r="X24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>58</v>
+      <c r="Y24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0</v>
       </c>
       <c r="AA24" s="13">
         <v>0</v>
@@ -3463,20 +3498,20 @@
         <v>0</v>
       </c>
       <c r="AE24" s="13">
-        <v>0</v>
+        <v>23806</v>
       </c>
       <c r="AF24" s="13">
         <v>0</v>
       </c>
       <c r="AG24" s="13">
-        <v>23806</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="13">
         <v>52</v>
       </c>
+      <c r="AH24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ24" s="13" t="s">
         <v>58</v>
       </c>
@@ -3504,14 +3539,14 @@
       <c r="AR24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
+      <c r="AS24" s="13">
+        <v>0</v>
       </c>
       <c r="AT24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU24" s="13">
-        <v>0</v>
+      <c r="AU24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV24" s="13" t="s">
         <v>58</v>
@@ -3535,7 +3570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>64</v>
       </c>
@@ -3603,98 +3638,98 @@
       <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
+      <c r="Y25" s="11">
+        <v>11271</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>8532</v>
       </c>
       <c r="AA25" s="11">
-        <v>11271</v>
+        <v>12391</v>
       </c>
       <c r="AB25" s="11">
-        <v>8532</v>
+        <v>7164</v>
       </c>
       <c r="AC25" s="11">
-        <v>12391</v>
+        <v>9567</v>
       </c>
       <c r="AD25" s="11">
-        <v>7164</v>
+        <v>9927</v>
       </c>
       <c r="AE25" s="11">
-        <v>9567</v>
+        <v>2090</v>
       </c>
       <c r="AF25" s="11">
-        <v>9927</v>
+        <v>7051</v>
       </c>
       <c r="AG25" s="11">
-        <v>2090</v>
+        <v>17439</v>
       </c>
       <c r="AH25" s="11">
-        <v>7051</v>
+        <v>2223</v>
       </c>
       <c r="AI25" s="11">
-        <v>17439</v>
+        <v>11619</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2223</v>
+        <v>9404</v>
       </c>
       <c r="AK25" s="11">
-        <v>11619</v>
+        <v>17541</v>
       </c>
       <c r="AL25" s="11">
-        <v>9404</v>
+        <v>10319</v>
       </c>
       <c r="AM25" s="11">
-        <v>17541</v>
+        <v>16218</v>
       </c>
       <c r="AN25" s="11">
-        <v>10319</v>
+        <v>7994</v>
       </c>
       <c r="AO25" s="11">
-        <v>16218</v>
+        <v>15896</v>
       </c>
       <c r="AP25" s="11">
-        <v>7994</v>
+        <v>13418</v>
       </c>
       <c r="AQ25" s="11">
-        <v>15896</v>
+        <v>19115</v>
       </c>
       <c r="AR25" s="11">
-        <v>13418</v>
+        <v>18673</v>
       </c>
       <c r="AS25" s="11">
-        <v>19115</v>
+        <v>17368</v>
       </c>
       <c r="AT25" s="11">
-        <v>18673</v>
+        <v>7768</v>
       </c>
       <c r="AU25" s="11">
-        <v>17368</v>
+        <v>12709</v>
       </c>
       <c r="AV25" s="11">
-        <v>7768</v>
+        <v>14392</v>
       </c>
       <c r="AW25" s="11">
-        <v>12709</v>
+        <v>4292</v>
       </c>
       <c r="AX25" s="11">
-        <v>14392</v>
+        <v>5345</v>
       </c>
       <c r="AY25" s="11">
-        <v>4292</v>
+        <v>4391</v>
       </c>
       <c r="AZ25" s="11">
-        <v>5345</v>
+        <v>4661</v>
       </c>
       <c r="BA25" s="11">
-        <v>4391</v>
+        <v>8596</v>
       </c>
       <c r="BB25" s="11">
-        <v>4661</v>
+        <v>6965</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
@@ -3762,98 +3797,98 @@
       <c r="X26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>58</v>
+      <c r="Y26" s="13">
+        <v>148</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0</v>
       </c>
       <c r="AA26" s="13">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AB26" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC26" s="13">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AD26" s="13">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AE26" s="13">
+        <v>90</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>381</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>99</v>
+      </c>
+      <c r="AH26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI26" s="13">
         <v>194</v>
       </c>
-      <c r="AF26" s="13">
-        <v>59</v>
-      </c>
-      <c r="AG26" s="13">
+      <c r="AJ26" s="13">
+        <v>91</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>87</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>92</v>
+      </c>
+      <c r="AM26" s="13">
         <v>90</v>
       </c>
-      <c r="AH26" s="13">
-        <v>381</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>99</v>
-      </c>
-      <c r="AJ26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>194</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>91</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>87</v>
-      </c>
       <c r="AN26" s="13">
+        <v>89</v>
+      </c>
+      <c r="AO26" s="13">
         <v>92</v>
       </c>
-      <c r="AO26" s="13">
-        <v>90</v>
-      </c>
       <c r="AP26" s="13">
+        <v>96</v>
+      </c>
+      <c r="AQ26" s="13">
         <v>89</v>
       </c>
-      <c r="AQ26" s="13">
-        <v>92</v>
-      </c>
       <c r="AR26" s="13">
+        <v>86</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>24</v>
+      </c>
+      <c r="AT26" s="13">
         <v>96</v>
       </c>
-      <c r="AS26" s="13">
-        <v>89</v>
-      </c>
-      <c r="AT26" s="13">
-        <v>86</v>
-      </c>
       <c r="AU26" s="13">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="AV26" s="13">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="13">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="AX26" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="13">
+        <v>127</v>
+      </c>
+      <c r="AZ26" s="13">
         <v>21</v>
       </c>
-      <c r="AZ26" s="13">
-        <v>0</v>
-      </c>
       <c r="BA26" s="13">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
@@ -3920,97 +3955,97 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>11419</v>
       </c>
       <c r="Z27" s="15">
-        <v>0</v>
+        <v>8532</v>
       </c>
       <c r="AA27" s="15">
-        <v>11419</v>
+        <v>12551</v>
       </c>
       <c r="AB27" s="15">
-        <v>8532</v>
+        <v>7204</v>
       </c>
       <c r="AC27" s="15">
-        <v>12551</v>
+        <v>9761</v>
       </c>
       <c r="AD27" s="15">
-        <v>7204</v>
+        <v>9986</v>
       </c>
       <c r="AE27" s="15">
-        <v>9761</v>
+        <v>25986</v>
       </c>
       <c r="AF27" s="15">
-        <v>9986</v>
+        <v>7432</v>
       </c>
       <c r="AG27" s="15">
-        <v>25986</v>
+        <v>18094</v>
       </c>
       <c r="AH27" s="15">
-        <v>7432</v>
+        <v>2223</v>
       </c>
       <c r="AI27" s="15">
-        <v>18094</v>
+        <v>11813</v>
       </c>
       <c r="AJ27" s="15">
-        <v>2223</v>
+        <v>9495</v>
       </c>
       <c r="AK27" s="15">
-        <v>11813</v>
+        <v>17628</v>
       </c>
       <c r="AL27" s="15">
-        <v>9495</v>
+        <v>10411</v>
       </c>
       <c r="AM27" s="15">
-        <v>17628</v>
+        <v>16308</v>
       </c>
       <c r="AN27" s="15">
-        <v>10411</v>
+        <v>8083</v>
       </c>
       <c r="AO27" s="15">
-        <v>16308</v>
+        <v>15988</v>
       </c>
       <c r="AP27" s="15">
-        <v>8083</v>
+        <v>14505</v>
       </c>
       <c r="AQ27" s="15">
-        <v>15988</v>
+        <v>19204</v>
       </c>
       <c r="AR27" s="15">
-        <v>14505</v>
+        <v>18759</v>
       </c>
       <c r="AS27" s="15">
-        <v>19204</v>
+        <v>17392</v>
       </c>
       <c r="AT27" s="15">
-        <v>18759</v>
+        <v>7864</v>
       </c>
       <c r="AU27" s="15">
-        <v>17392</v>
+        <v>12805</v>
       </c>
       <c r="AV27" s="15">
-        <v>7864</v>
+        <v>14396</v>
       </c>
       <c r="AW27" s="15">
-        <v>12805</v>
+        <v>5311</v>
       </c>
       <c r="AX27" s="15">
-        <v>14396</v>
+        <v>5345</v>
       </c>
       <c r="AY27" s="15">
-        <v>5311</v>
+        <v>4518</v>
       </c>
       <c r="AZ27" s="15">
-        <v>5345</v>
+        <v>4682</v>
       </c>
       <c r="BA27" s="15">
-        <v>4518</v>
+        <v>8597</v>
       </c>
       <c r="BB27" s="15">
-        <v>4682</v>
+        <v>6986</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>71</v>
       </c>
@@ -4067,7 +4102,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>72</v>
       </c>
@@ -4133,11 +4168,11 @@
       <c r="X29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>58</v>
+      <c r="Y29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>0</v>
       </c>
       <c r="AA29" s="15">
         <v>0</v>
@@ -4224,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>73</v>
       </c>
@@ -4291,97 +4326,97 @@
         <v>0</v>
       </c>
       <c r="Y30" s="19">
-        <v>0</v>
+        <v>4212090</v>
       </c>
       <c r="Z30" s="19">
-        <v>0</v>
+        <v>4231563</v>
       </c>
       <c r="AA30" s="19">
-        <v>4212090</v>
+        <v>4807443</v>
       </c>
       <c r="AB30" s="19">
-        <v>4231563</v>
+        <v>4897164</v>
       </c>
       <c r="AC30" s="19">
-        <v>4807443</v>
+        <v>4527837</v>
       </c>
       <c r="AD30" s="19">
-        <v>4897164</v>
+        <v>4541910</v>
       </c>
       <c r="AE30" s="19">
-        <v>4527837</v>
+        <v>4221521</v>
       </c>
       <c r="AF30" s="19">
-        <v>4541910</v>
+        <v>4995010</v>
       </c>
       <c r="AG30" s="19">
-        <v>4221521</v>
+        <v>4797074</v>
       </c>
       <c r="AH30" s="19">
-        <v>4995010</v>
+        <v>5044789</v>
       </c>
       <c r="AI30" s="19">
-        <v>4797074</v>
+        <v>5036751</v>
       </c>
       <c r="AJ30" s="19">
-        <v>5044789</v>
+        <v>5104620</v>
       </c>
       <c r="AK30" s="19">
-        <v>5036751</v>
+        <v>3401659</v>
       </c>
       <c r="AL30" s="19">
-        <v>5104620</v>
+        <v>4364643</v>
       </c>
       <c r="AM30" s="19">
-        <v>3401659</v>
+        <v>5322827</v>
       </c>
       <c r="AN30" s="19">
-        <v>4364643</v>
+        <v>5209301</v>
       </c>
       <c r="AO30" s="19">
-        <v>5322827</v>
+        <v>4827721</v>
       </c>
       <c r="AP30" s="19">
-        <v>5209301</v>
+        <v>4548801</v>
       </c>
       <c r="AQ30" s="19">
-        <v>4827721</v>
+        <v>4644685</v>
       </c>
       <c r="AR30" s="19">
-        <v>4548801</v>
+        <v>4398407</v>
       </c>
       <c r="AS30" s="19">
-        <v>4644685</v>
+        <v>4497575</v>
       </c>
       <c r="AT30" s="19">
-        <v>4398407</v>
+        <v>227949</v>
       </c>
       <c r="AU30" s="19">
-        <v>4497575</v>
+        <v>4994886</v>
       </c>
       <c r="AV30" s="19">
-        <v>227949</v>
+        <v>10035598</v>
       </c>
       <c r="AW30" s="19">
-        <v>4995010</v>
+        <v>3924864</v>
       </c>
       <c r="AX30" s="19">
-        <v>10035598</v>
+        <v>4273584</v>
       </c>
       <c r="AY30" s="19">
-        <v>3924864</v>
+        <v>5174136</v>
       </c>
       <c r="AZ30" s="19">
-        <v>4273584</v>
+        <v>5631609</v>
       </c>
       <c r="BA30" s="19">
-        <v>5174136</v>
+        <v>5015283</v>
       </c>
       <c r="BB30" s="19">
-        <v>5734979</v>
+        <v>4985525</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4436,7 +4471,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4491,7 +4526,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4546,7 +4581,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
@@ -4703,7 +4738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4758,7 +4793,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>75</v>
       </c>
@@ -4815,7 +4850,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4883,98 +4918,98 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>25133</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>4451</v>
       </c>
       <c r="AA37" s="11">
-        <v>25133</v>
+        <v>13665</v>
       </c>
       <c r="AB37" s="11">
-        <v>4451</v>
+        <v>22494</v>
       </c>
       <c r="AC37" s="11">
-        <v>13665</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="11">
-        <v>22494</v>
+        <v>19180</v>
       </c>
       <c r="AE37" s="11">
-        <v>0</v>
+        <v>20466</v>
       </c>
       <c r="AF37" s="11">
-        <v>19180</v>
+        <v>20599</v>
       </c>
       <c r="AG37" s="11">
-        <v>20466</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>20599</v>
+        <v>55208</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="11">
-        <v>55208</v>
-      </c>
-      <c r="AJ37" s="11" t="s">
-        <v>58</v>
+        <v>6256</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>3912</v>
       </c>
       <c r="AK37" s="11">
-        <v>6256</v>
+        <v>2006</v>
       </c>
       <c r="AL37" s="11">
-        <v>3912</v>
+        <v>31256</v>
       </c>
       <c r="AM37" s="11">
-        <v>2006</v>
+        <v>4534</v>
       </c>
       <c r="AN37" s="11">
-        <v>31256</v>
+        <v>44616</v>
       </c>
       <c r="AO37" s="11">
-        <v>4534</v>
+        <v>22847</v>
       </c>
       <c r="AP37" s="11">
-        <v>44616</v>
+        <v>7833</v>
       </c>
       <c r="AQ37" s="11">
-        <v>22847</v>
+        <v>6670</v>
       </c>
       <c r="AR37" s="11">
-        <v>7833</v>
+        <v>829</v>
       </c>
       <c r="AS37" s="11">
-        <v>6670</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>829</v>
+        <v>9811</v>
+      </c>
+      <c r="AT37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU37" s="11">
-        <v>9811</v>
-      </c>
-      <c r="AV37" s="11" t="s">
-        <v>58</v>
+        <v>4122</v>
+      </c>
+      <c r="AV37" s="11">
+        <v>9397</v>
       </c>
       <c r="AW37" s="11">
-        <v>4246</v>
+        <v>6663</v>
       </c>
       <c r="AX37" s="11">
-        <v>9397</v>
+        <v>17129</v>
       </c>
       <c r="AY37" s="11">
-        <v>6663</v>
+        <v>11467</v>
       </c>
       <c r="AZ37" s="11">
-        <v>17129</v>
+        <v>15009</v>
       </c>
       <c r="BA37" s="11">
-        <v>11467</v>
+        <v>7119</v>
       </c>
       <c r="BB37" s="11">
-        <v>15009</v>
+        <v>24153</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5042,98 +5077,98 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>629</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>409</v>
       </c>
       <c r="AA38" s="13">
-        <v>629</v>
+        <v>542</v>
       </c>
       <c r="AB38" s="13">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="AC38" s="13">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="AD38" s="13">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="AE38" s="13">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="AF38" s="13">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AG38" s="13">
-        <v>455</v>
+        <v>643</v>
       </c>
       <c r="AH38" s="13">
-        <v>573</v>
+        <v>239</v>
       </c>
       <c r="AI38" s="13">
-        <v>643</v>
+        <v>533</v>
       </c>
       <c r="AJ38" s="13">
-        <v>239</v>
+        <v>623</v>
       </c>
       <c r="AK38" s="13">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="AL38" s="13">
-        <v>623</v>
+        <v>569</v>
       </c>
       <c r="AM38" s="13">
-        <v>372</v>
+        <v>728</v>
       </c>
       <c r="AN38" s="13">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="AO38" s="13">
-        <v>728</v>
+        <v>598</v>
       </c>
       <c r="AP38" s="13">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AQ38" s="13">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="AR38" s="13">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="AS38" s="13">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="AT38" s="13">
-        <v>532</v>
+        <v>269</v>
       </c>
       <c r="AU38" s="13">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="AV38" s="13">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="AW38" s="13">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="AX38" s="13">
-        <v>582</v>
+        <v>410</v>
       </c>
       <c r="AY38" s="13">
-        <v>547</v>
+        <v>850</v>
       </c>
       <c r="AZ38" s="13">
-        <v>410</v>
+        <v>745</v>
       </c>
       <c r="BA38" s="13">
-        <v>850</v>
+        <v>715</v>
       </c>
       <c r="BB38" s="13">
-        <v>745</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5201,98 +5236,98 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>100645</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>72220</v>
       </c>
       <c r="AA39" s="11">
-        <v>100645</v>
+        <v>13288</v>
       </c>
       <c r="AB39" s="11">
-        <v>72220</v>
+        <v>78634</v>
       </c>
       <c r="AC39" s="11">
-        <v>13288</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>78634</v>
+        <v>241685</v>
       </c>
       <c r="AE39" s="11">
-        <v>0</v>
+        <v>10570</v>
       </c>
       <c r="AF39" s="11">
-        <v>241685</v>
+        <v>102529</v>
       </c>
       <c r="AG39" s="11">
-        <v>10570</v>
+        <v>686156</v>
       </c>
       <c r="AH39" s="11">
-        <v>102529</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="11">
-        <v>686156</v>
+        <v>938</v>
       </c>
       <c r="AJ39" s="11">
-        <v>0</v>
+        <v>404758</v>
       </c>
       <c r="AK39" s="11">
-        <v>938</v>
+        <v>42517</v>
       </c>
       <c r="AL39" s="11">
-        <v>404758</v>
+        <v>77347</v>
       </c>
       <c r="AM39" s="11">
-        <v>42517</v>
+        <v>321397</v>
       </c>
       <c r="AN39" s="11">
-        <v>77347</v>
+        <v>82484</v>
       </c>
       <c r="AO39" s="11">
-        <v>321397</v>
+        <v>172462</v>
       </c>
       <c r="AP39" s="11">
-        <v>82484</v>
+        <v>74441</v>
       </c>
       <c r="AQ39" s="11">
-        <v>172462</v>
+        <v>211438</v>
       </c>
       <c r="AR39" s="11">
-        <v>74441</v>
+        <v>186200</v>
       </c>
       <c r="AS39" s="11">
-        <v>211438</v>
+        <v>193595</v>
       </c>
       <c r="AT39" s="11">
-        <v>186200</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="11">
-        <v>193595</v>
-      </c>
-      <c r="AV39" s="11" t="s">
-        <v>58</v>
+        <v>378724</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>45935</v>
       </c>
       <c r="AW39" s="11">
-        <v>349653</v>
+        <v>26597</v>
       </c>
       <c r="AX39" s="11">
-        <v>45935</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="11">
-        <v>26597</v>
+        <v>230828</v>
       </c>
       <c r="AZ39" s="11">
-        <v>0</v>
+        <v>11814</v>
       </c>
       <c r="BA39" s="11">
-        <v>230828</v>
+        <v>722243</v>
       </c>
       <c r="BB39" s="11">
-        <v>11814</v>
+        <v>59002</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5360,98 +5395,98 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>8945</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>30026</v>
       </c>
       <c r="AA40" s="13">
-        <v>8945</v>
+        <v>24333</v>
       </c>
       <c r="AB40" s="13">
-        <v>30026</v>
+        <v>14417</v>
       </c>
       <c r="AC40" s="13">
-        <v>24333</v>
+        <v>10633</v>
       </c>
       <c r="AD40" s="13">
-        <v>14417</v>
+        <v>64784</v>
       </c>
       <c r="AE40" s="13">
-        <v>10633</v>
+        <v>61745</v>
       </c>
       <c r="AF40" s="13">
-        <v>64784</v>
+        <v>63149</v>
       </c>
       <c r="AG40" s="13">
-        <v>61745</v>
+        <v>86565</v>
       </c>
       <c r="AH40" s="13">
-        <v>63149</v>
+        <v>35532</v>
       </c>
       <c r="AI40" s="13">
-        <v>86565</v>
+        <v>84182</v>
       </c>
       <c r="AJ40" s="13">
-        <v>35532</v>
+        <v>66703</v>
       </c>
       <c r="AK40" s="13">
-        <v>84182</v>
+        <v>38353</v>
       </c>
       <c r="AL40" s="13">
-        <v>66703</v>
+        <v>56153</v>
       </c>
       <c r="AM40" s="13">
-        <v>38353</v>
+        <v>49476</v>
       </c>
       <c r="AN40" s="13">
-        <v>56153</v>
+        <v>42768</v>
       </c>
       <c r="AO40" s="13">
-        <v>49476</v>
+        <v>66188</v>
       </c>
       <c r="AP40" s="13">
-        <v>42768</v>
+        <v>78394</v>
       </c>
       <c r="AQ40" s="13">
-        <v>66188</v>
+        <v>73605</v>
       </c>
       <c r="AR40" s="13">
-        <v>78394</v>
+        <v>75633</v>
       </c>
       <c r="AS40" s="13">
-        <v>73605</v>
+        <v>78106</v>
       </c>
       <c r="AT40" s="13">
-        <v>75633</v>
+        <v>58540</v>
       </c>
       <c r="AU40" s="13">
-        <v>78106</v>
+        <v>85836</v>
       </c>
       <c r="AV40" s="13">
-        <v>58540</v>
+        <v>76284</v>
       </c>
       <c r="AW40" s="13">
-        <v>85836</v>
+        <v>61327</v>
       </c>
       <c r="AX40" s="13">
-        <v>76284</v>
+        <v>38458</v>
       </c>
       <c r="AY40" s="13">
-        <v>61327</v>
+        <v>61127</v>
       </c>
       <c r="AZ40" s="13">
-        <v>38458</v>
+        <v>51110</v>
       </c>
       <c r="BA40" s="13">
-        <v>61127</v>
+        <v>74359</v>
       </c>
       <c r="BB40" s="13">
-        <v>51110</v>
+        <v>66636</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
@@ -5519,98 +5554,98 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>83</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>50</v>
       </c>
       <c r="AA41" s="11">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="11">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AC41" s="11">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AE41" s="11">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AF41" s="11">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AG41" s="11">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="AH41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>44</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>119</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>82</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>92</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>76</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>86</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>103</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>93</v>
+      </c>
+      <c r="AQ41" s="11">
         <v>38</v>
       </c>
-      <c r="AI41" s="11">
-        <v>112</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>44</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>119</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>82</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>92</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>76</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>86</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>103</v>
-      </c>
       <c r="AR41" s="11">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="AS41" s="11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AT41" s="11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AU41" s="11">
         <v>34</v>
       </c>
       <c r="AV41" s="11">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="AW41" s="11">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AX41" s="11">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AY41" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AZ41" s="11">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="BA41" s="11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="BB41" s="11">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5678,98 +5713,98 @@
       <c r="X42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Y42" s="13">
+        <v>1435</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>3869</v>
       </c>
       <c r="AA42" s="13">
-        <v>1435</v>
+        <v>1387</v>
       </c>
       <c r="AB42" s="13">
-        <v>3869</v>
+        <v>1115</v>
       </c>
       <c r="AC42" s="13">
-        <v>1387</v>
+        <v>466</v>
       </c>
       <c r="AD42" s="13">
-        <v>1115</v>
+        <v>1589</v>
       </c>
       <c r="AE42" s="13">
-        <v>466</v>
+        <v>1388</v>
       </c>
       <c r="AF42" s="13">
-        <v>1589</v>
+        <v>1850</v>
       </c>
       <c r="AG42" s="13">
-        <v>1388</v>
+        <v>2789</v>
       </c>
       <c r="AH42" s="13">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="13">
-        <v>2789</v>
+        <v>445</v>
       </c>
       <c r="AJ42" s="13">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="AK42" s="13">
-        <v>445</v>
+        <v>3179</v>
       </c>
       <c r="AL42" s="13">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="13">
-        <v>3179</v>
+        <v>1857</v>
       </c>
       <c r="AN42" s="13">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AO42" s="13">
-        <v>1857</v>
+        <v>1825</v>
       </c>
       <c r="AP42" s="13">
-        <v>952</v>
+        <v>1806</v>
       </c>
       <c r="AQ42" s="13">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="13">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="13">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="AT42" s="13">
         <v>0</v>
       </c>
       <c r="AU42" s="13">
-        <v>3675</v>
-      </c>
-      <c r="AV42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW42" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>902</v>
+      </c>
+      <c r="AW42" s="13">
+        <v>1367</v>
       </c>
       <c r="AX42" s="13">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AY42" s="13">
-        <v>1367</v>
+        <v>1134</v>
       </c>
       <c r="AZ42" s="13">
-        <v>899</v>
+        <v>480</v>
       </c>
       <c r="BA42" s="13">
-        <v>1134</v>
+        <v>1399</v>
       </c>
       <c r="BB42" s="13">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5837,98 +5872,98 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>15424</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>14277</v>
       </c>
       <c r="AA43" s="11">
-        <v>15424</v>
+        <v>14926</v>
       </c>
       <c r="AB43" s="11">
-        <v>14277</v>
+        <v>12676</v>
       </c>
       <c r="AC43" s="11">
-        <v>14926</v>
+        <v>10568</v>
       </c>
       <c r="AD43" s="11">
-        <v>12676</v>
+        <v>12759</v>
       </c>
       <c r="AE43" s="11">
-        <v>10568</v>
+        <v>6054</v>
       </c>
       <c r="AF43" s="11">
-        <v>12759</v>
+        <v>8905</v>
       </c>
       <c r="AG43" s="11">
-        <v>6054</v>
+        <v>13554</v>
       </c>
       <c r="AH43" s="11">
-        <v>8905</v>
+        <v>3999</v>
       </c>
       <c r="AI43" s="11">
-        <v>13554</v>
+        <v>11552</v>
       </c>
       <c r="AJ43" s="11">
-        <v>3999</v>
+        <v>15541</v>
       </c>
       <c r="AK43" s="11">
-        <v>11552</v>
+        <v>16033</v>
       </c>
       <c r="AL43" s="11">
-        <v>15541</v>
+        <v>9024</v>
       </c>
       <c r="AM43" s="11">
-        <v>16033</v>
+        <v>19248</v>
       </c>
       <c r="AN43" s="11">
-        <v>9024</v>
+        <v>13438</v>
       </c>
       <c r="AO43" s="11">
-        <v>19248</v>
+        <v>11982</v>
       </c>
       <c r="AP43" s="11">
-        <v>13438</v>
+        <v>14166</v>
       </c>
       <c r="AQ43" s="11">
-        <v>11982</v>
+        <v>10115</v>
       </c>
       <c r="AR43" s="11">
-        <v>14166</v>
+        <v>13159</v>
       </c>
       <c r="AS43" s="11">
-        <v>10115</v>
+        <v>16372</v>
       </c>
       <c r="AT43" s="11">
-        <v>13159</v>
+        <v>7464</v>
       </c>
       <c r="AU43" s="11">
-        <v>16372</v>
+        <v>15212</v>
       </c>
       <c r="AV43" s="11">
-        <v>7464</v>
+        <v>20085</v>
       </c>
       <c r="AW43" s="11">
-        <v>15212</v>
+        <v>16841</v>
       </c>
       <c r="AX43" s="11">
-        <v>20085</v>
+        <v>11190</v>
       </c>
       <c r="AY43" s="11">
-        <v>16841</v>
+        <v>21950</v>
       </c>
       <c r="AZ43" s="11">
-        <v>11190</v>
+        <v>15464</v>
       </c>
       <c r="BA43" s="11">
-        <v>21950</v>
+        <v>13610</v>
       </c>
       <c r="BB43" s="11">
-        <v>15464</v>
+        <v>14460</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -5996,26 +6031,26 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>987</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>0</v>
       </c>
       <c r="AA44" s="13">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AC44" s="13">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AD44" s="13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="13">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="13">
         <v>0</v>
@@ -6023,11 +6058,11 @@
       <c r="AG44" s="13">
         <v>0</v>
       </c>
-      <c r="AH44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="13">
-        <v>0</v>
+      <c r="AH44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ44" s="13" t="s">
         <v>58</v>
@@ -6035,29 +6070,29 @@
       <c r="AK44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL44" s="13" t="s">
-        <v>58</v>
+      <c r="AL44" s="13">
+        <v>0</v>
       </c>
       <c r="AM44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN44" s="13">
-        <v>0</v>
+      <c r="AN44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP44" s="13" t="s">
-        <v>58</v>
+      <c r="AP44" s="13">
+        <v>0</v>
       </c>
       <c r="AQ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>58</v>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>0</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>58</v>
@@ -6087,7 +6122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -6215,38 +6250,38 @@
       <c r="AR45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS45" s="11" t="s">
-        <v>58</v>
+      <c r="AS45" s="11">
+        <v>41</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU45" s="11">
-        <v>41</v>
-      </c>
-      <c r="AV45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX45" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="11">
+        <v>42</v>
+      </c>
+      <c r="AX45" s="11">
+        <v>0</v>
       </c>
       <c r="AY45" s="11">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
         <v>0</v>
       </c>
       <c r="BA45" s="11">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="BB45" s="11">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>67</v>
       </c>
@@ -6395,17 +6430,17 @@
       <c r="AY46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA46" s="13" t="s">
-        <v>58</v>
+      <c r="AZ46" s="13">
+        <v>513340</v>
+      </c>
+      <c r="BA46" s="13">
+        <v>0</v>
       </c>
       <c r="BB46" s="13">
-        <v>513340</v>
+        <v>39203</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -6472,97 +6507,97 @@
         <v>0</v>
       </c>
       <c r="Y47" s="15">
-        <v>0</v>
+        <v>153281</v>
       </c>
       <c r="Z47" s="15">
-        <v>0</v>
+        <v>125302</v>
       </c>
       <c r="AA47" s="15">
-        <v>153281</v>
+        <v>68199</v>
       </c>
       <c r="AB47" s="15">
-        <v>125302</v>
+        <v>129881</v>
       </c>
       <c r="AC47" s="15">
-        <v>68199</v>
+        <v>22306</v>
       </c>
       <c r="AD47" s="15">
-        <v>129881</v>
+        <v>340590</v>
       </c>
       <c r="AE47" s="15">
-        <v>22306</v>
+        <v>100744</v>
       </c>
       <c r="AF47" s="15">
-        <v>340590</v>
+        <v>197643</v>
       </c>
       <c r="AG47" s="15">
-        <v>100744</v>
+        <v>845027</v>
       </c>
       <c r="AH47" s="15">
-        <v>197643</v>
+        <v>39770</v>
       </c>
       <c r="AI47" s="15">
-        <v>845027</v>
+        <v>103950</v>
       </c>
       <c r="AJ47" s="15">
-        <v>39770</v>
+        <v>493980</v>
       </c>
       <c r="AK47" s="15">
-        <v>103950</v>
+        <v>102542</v>
       </c>
       <c r="AL47" s="15">
-        <v>493980</v>
+        <v>174441</v>
       </c>
       <c r="AM47" s="15">
-        <v>102542</v>
+        <v>397316</v>
       </c>
       <c r="AN47" s="15">
-        <v>174441</v>
+        <v>184774</v>
       </c>
       <c r="AO47" s="15">
-        <v>397316</v>
+        <v>276005</v>
       </c>
       <c r="AP47" s="15">
-        <v>184774</v>
+        <v>177171</v>
       </c>
       <c r="AQ47" s="15">
-        <v>276005</v>
+        <v>302429</v>
       </c>
       <c r="AR47" s="15">
-        <v>177171</v>
+        <v>276405</v>
       </c>
       <c r="AS47" s="15">
-        <v>302429</v>
+        <v>302384</v>
       </c>
       <c r="AT47" s="15">
-        <v>276405</v>
+        <v>66301</v>
       </c>
       <c r="AU47" s="15">
-        <v>302384</v>
+        <v>484528</v>
       </c>
       <c r="AV47" s="15">
-        <v>66301</v>
+        <v>153263</v>
       </c>
       <c r="AW47" s="15">
-        <v>455581</v>
+        <v>113444</v>
       </c>
       <c r="AX47" s="15">
-        <v>153263</v>
+        <v>68175</v>
       </c>
       <c r="AY47" s="15">
-        <v>113444</v>
+        <v>327419</v>
       </c>
       <c r="AZ47" s="15">
-        <v>68175</v>
+        <v>607997</v>
       </c>
       <c r="BA47" s="15">
-        <v>327419</v>
+        <v>819799</v>
       </c>
       <c r="BB47" s="15">
-        <v>607997</v>
+        <v>204509</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6654,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>61</v>
       </c>
@@ -6711,14 +6746,14 @@
       <c r="AF49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG49" s="11" t="s">
-        <v>58</v>
+      <c r="AG49" s="11">
+        <v>504</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI49" s="11">
-        <v>504</v>
+      <c r="AI49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ49" s="11" t="s">
         <v>58</v>
@@ -6738,35 +6773,35 @@
       <c r="AO49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="11" t="s">
-        <v>58</v>
+      <c r="AP49" s="11">
+        <v>991</v>
       </c>
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11">
-        <v>991</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>0</v>
       </c>
       <c r="AT49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU49" s="11">
-        <v>0</v>
+      <c r="AU49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX49" s="11" t="s">
-        <v>58</v>
+      <c r="AW49" s="11">
+        <v>998</v>
+      </c>
+      <c r="AX49" s="11">
+        <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
         <v>0</v>
@@ -6778,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>63</v>
       </c>
@@ -6846,14 +6881,14 @@
       <c r="X50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z50" s="13" t="s">
-        <v>58</v>
+      <c r="Y50" s="13">
+        <v>-255</v>
+      </c>
+      <c r="Z50" s="13">
+        <v>0</v>
       </c>
       <c r="AA50" s="13">
-        <v>-255</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="13">
         <v>0</v>
@@ -6865,20 +6900,20 @@
         <v>0</v>
       </c>
       <c r="AE50" s="13">
-        <v>0</v>
+        <v>23806</v>
       </c>
       <c r="AF50" s="13">
         <v>0</v>
       </c>
       <c r="AG50" s="13">
-        <v>23806</v>
-      </c>
-      <c r="AH50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="13">
         <v>52</v>
       </c>
+      <c r="AH50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6906,14 +6941,14 @@
       <c r="AR50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AS50" s="13">
+        <v>0</v>
       </c>
       <c r="AT50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU50" s="13">
-        <v>0</v>
+      <c r="AU50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV50" s="13" t="s">
         <v>58</v>
@@ -6937,7 +6972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>64</v>
       </c>
@@ -7005,98 +7040,98 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>11271</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>8532</v>
       </c>
       <c r="AA51" s="11">
-        <v>11271</v>
+        <v>12391</v>
       </c>
       <c r="AB51" s="11">
-        <v>8532</v>
+        <v>7164</v>
       </c>
       <c r="AC51" s="11">
-        <v>12391</v>
+        <v>9567</v>
       </c>
       <c r="AD51" s="11">
-        <v>7164</v>
+        <v>9927</v>
       </c>
       <c r="AE51" s="11">
-        <v>9567</v>
+        <v>2126</v>
       </c>
       <c r="AF51" s="11">
-        <v>9927</v>
+        <v>7051</v>
       </c>
       <c r="AG51" s="11">
-        <v>2126</v>
+        <v>17439</v>
       </c>
       <c r="AH51" s="11">
-        <v>7051</v>
+        <v>2223</v>
       </c>
       <c r="AI51" s="11">
-        <v>17439</v>
+        <v>11619</v>
       </c>
       <c r="AJ51" s="11">
-        <v>2223</v>
+        <v>9404</v>
       </c>
       <c r="AK51" s="11">
-        <v>11619</v>
+        <v>17541</v>
       </c>
       <c r="AL51" s="11">
-        <v>9404</v>
+        <v>10319</v>
       </c>
       <c r="AM51" s="11">
-        <v>17541</v>
+        <v>16218</v>
       </c>
       <c r="AN51" s="11">
-        <v>10319</v>
+        <v>7994</v>
       </c>
       <c r="AO51" s="11">
-        <v>16218</v>
+        <v>15896</v>
       </c>
       <c r="AP51" s="11">
-        <v>7994</v>
+        <v>13417</v>
       </c>
       <c r="AQ51" s="11">
-        <v>15896</v>
+        <v>19115</v>
       </c>
       <c r="AR51" s="11">
-        <v>13417</v>
+        <v>18673</v>
       </c>
       <c r="AS51" s="11">
-        <v>19115</v>
+        <v>17368</v>
       </c>
       <c r="AT51" s="11">
-        <v>18673</v>
+        <v>7768</v>
       </c>
       <c r="AU51" s="11">
-        <v>17368</v>
+        <v>12709</v>
       </c>
       <c r="AV51" s="11">
-        <v>7768</v>
+        <v>14392</v>
       </c>
       <c r="AW51" s="11">
-        <v>12709</v>
+        <v>4292</v>
       </c>
       <c r="AX51" s="11">
-        <v>14392</v>
+        <v>5345</v>
       </c>
       <c r="AY51" s="11">
-        <v>4292</v>
+        <v>4391</v>
       </c>
       <c r="AZ51" s="11">
-        <v>5345</v>
+        <v>4661</v>
       </c>
       <c r="BA51" s="11">
-        <v>4391</v>
+        <v>8596</v>
       </c>
       <c r="BB51" s="11">
-        <v>4661</v>
+        <v>6965</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>66</v>
       </c>
@@ -7164,98 +7199,98 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>148</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>0</v>
       </c>
       <c r="AA52" s="13">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AB52" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC52" s="13">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AD52" s="13">
+        <v>59</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>90</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>302</v>
+      </c>
+      <c r="AH52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI52" s="13">
+        <v>294</v>
+      </c>
+      <c r="AJ52" s="13">
+        <v>42</v>
+      </c>
+      <c r="AK52" s="13">
         <v>40</v>
       </c>
-      <c r="AE52" s="13">
-        <v>194</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>59</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>90</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>302</v>
-      </c>
-      <c r="AJ52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK52" s="13">
-        <v>294</v>
-      </c>
       <c r="AL52" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>41</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>335</v>
+      </c>
+      <c r="AO52" s="13">
         <v>42</v>
       </c>
-      <c r="AM52" s="13">
-        <v>40</v>
-      </c>
-      <c r="AN52" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO52" s="13">
+      <c r="AP52" s="13">
+        <v>42</v>
+      </c>
+      <c r="AQ52" s="13">
+        <v>252</v>
+      </c>
+      <c r="AR52" s="13">
+        <v>21</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>24</v>
+      </c>
+      <c r="AT52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>21</v>
+      </c>
+      <c r="AV52" s="13">
         <v>41</v>
-      </c>
-      <c r="AP52" s="13">
-        <v>335</v>
-      </c>
-      <c r="AQ52" s="13">
-        <v>42</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>42</v>
-      </c>
-      <c r="AS52" s="13">
-        <v>252</v>
-      </c>
-      <c r="AT52" s="13">
-        <v>21</v>
-      </c>
-      <c r="AU52" s="13">
-        <v>24</v>
-      </c>
-      <c r="AV52" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AW52" s="13">
         <v>21</v>
       </c>
       <c r="AX52" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AY52" s="13">
         <v>41</v>
       </c>
-      <c r="AY52" s="13">
+      <c r="AZ52" s="13">
         <v>21</v>
       </c>
-      <c r="AZ52" s="13">
-        <v>-1</v>
-      </c>
       <c r="BA52" s="13">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>78</v>
       </c>
@@ -7322,97 +7357,97 @@
         <v>0</v>
       </c>
       <c r="Y53" s="15">
-        <v>0</v>
+        <v>11164</v>
       </c>
       <c r="Z53" s="15">
-        <v>0</v>
+        <v>8532</v>
       </c>
       <c r="AA53" s="15">
-        <v>11164</v>
+        <v>12551</v>
       </c>
       <c r="AB53" s="15">
-        <v>8532</v>
+        <v>7204</v>
       </c>
       <c r="AC53" s="15">
-        <v>12551</v>
+        <v>9761</v>
       </c>
       <c r="AD53" s="15">
-        <v>7204</v>
+        <v>9986</v>
       </c>
       <c r="AE53" s="15">
-        <v>9761</v>
+        <v>26022</v>
       </c>
       <c r="AF53" s="15">
-        <v>9986</v>
+        <v>7051</v>
       </c>
       <c r="AG53" s="15">
-        <v>26022</v>
+        <v>18297</v>
       </c>
       <c r="AH53" s="15">
-        <v>7051</v>
+        <v>2223</v>
       </c>
       <c r="AI53" s="15">
-        <v>18297</v>
+        <v>11913</v>
       </c>
       <c r="AJ53" s="15">
-        <v>2223</v>
+        <v>9446</v>
       </c>
       <c r="AK53" s="15">
-        <v>11913</v>
+        <v>17581</v>
       </c>
       <c r="AL53" s="15">
-        <v>9446</v>
+        <v>10320</v>
       </c>
       <c r="AM53" s="15">
-        <v>17581</v>
+        <v>16259</v>
       </c>
       <c r="AN53" s="15">
-        <v>10320</v>
+        <v>8329</v>
       </c>
       <c r="AO53" s="15">
-        <v>16259</v>
+        <v>15938</v>
       </c>
       <c r="AP53" s="15">
-        <v>8329</v>
+        <v>14450</v>
       </c>
       <c r="AQ53" s="15">
-        <v>15938</v>
+        <v>19367</v>
       </c>
       <c r="AR53" s="15">
-        <v>14450</v>
+        <v>18694</v>
       </c>
       <c r="AS53" s="15">
-        <v>19367</v>
+        <v>17392</v>
       </c>
       <c r="AT53" s="15">
-        <v>18694</v>
+        <v>7768</v>
       </c>
       <c r="AU53" s="15">
-        <v>17392</v>
+        <v>12730</v>
       </c>
       <c r="AV53" s="15">
-        <v>7768</v>
+        <v>14433</v>
       </c>
       <c r="AW53" s="15">
-        <v>12730</v>
+        <v>5311</v>
       </c>
       <c r="AX53" s="15">
-        <v>14433</v>
+        <v>5344</v>
       </c>
       <c r="AY53" s="15">
-        <v>5311</v>
+        <v>4432</v>
       </c>
       <c r="AZ53" s="15">
-        <v>5344</v>
+        <v>4682</v>
       </c>
       <c r="BA53" s="15">
-        <v>4432</v>
+        <v>8597</v>
       </c>
       <c r="BB53" s="15">
-        <v>4682</v>
+        <v>6986</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>71</v>
       </c>
@@ -7469,7 +7504,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>72</v>
       </c>
@@ -7535,11 +7570,11 @@
       <c r="X55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>58</v>
+      <c r="Y55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15">
+        <v>0</v>
       </c>
       <c r="AA55" s="15">
         <v>0</v>
@@ -7626,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>79</v>
       </c>
@@ -7683,7 +7718,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7799,14 +7834,14 @@
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+      <c r="AO57" s="11">
+        <v>-326882</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11">
-        <v>-326882</v>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
@@ -7832,8 +7867,8 @@
       <c r="AY57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ57" s="11" t="s">
-        <v>58</v>
+      <c r="AZ57" s="11">
+        <v>0</v>
       </c>
       <c r="BA57" s="11" t="s">
         <v>58</v>
@@ -7842,7 +7877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>80</v>
       </c>
@@ -7908,11 +7943,11 @@
       <c r="X58" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="19" t="s">
-        <v>58</v>
+      <c r="Y58" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="19">
+        <v>0</v>
       </c>
       <c r="AA58" s="19">
         <v>0</v>
@@ -7957,13 +7992,13 @@
         <v>0</v>
       </c>
       <c r="AO58" s="19">
-        <v>0</v>
+        <v>-326882</v>
       </c>
       <c r="AP58" s="19">
         <v>0</v>
       </c>
       <c r="AQ58" s="19">
-        <v>-326882</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="19">
         <v>0</v>
@@ -7999,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>73</v>
       </c>
@@ -8066,97 +8101,97 @@
         <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>164445</v>
       </c>
       <c r="Z59" s="15">
-        <v>0</v>
+        <v>133834</v>
       </c>
       <c r="AA59" s="15">
-        <v>164445</v>
+        <v>80750</v>
       </c>
       <c r="AB59" s="15">
-        <v>133834</v>
+        <v>137085</v>
       </c>
       <c r="AC59" s="15">
-        <v>80750</v>
+        <v>32067</v>
       </c>
       <c r="AD59" s="15">
-        <v>137085</v>
+        <v>350576</v>
       </c>
       <c r="AE59" s="15">
-        <v>32067</v>
+        <v>126766</v>
       </c>
       <c r="AF59" s="15">
-        <v>350576</v>
+        <v>204694</v>
       </c>
       <c r="AG59" s="15">
-        <v>126766</v>
+        <v>863324</v>
       </c>
       <c r="AH59" s="15">
-        <v>204694</v>
+        <v>41993</v>
       </c>
       <c r="AI59" s="15">
-        <v>863324</v>
+        <v>115863</v>
       </c>
       <c r="AJ59" s="15">
-        <v>41993</v>
+        <v>503426</v>
       </c>
       <c r="AK59" s="15">
-        <v>115863</v>
+        <v>120123</v>
       </c>
       <c r="AL59" s="15">
-        <v>503426</v>
+        <v>184761</v>
       </c>
       <c r="AM59" s="15">
-        <v>120123</v>
+        <v>413575</v>
       </c>
       <c r="AN59" s="15">
-        <v>184761</v>
+        <v>193103</v>
       </c>
       <c r="AO59" s="15">
-        <v>413575</v>
+        <v>-34939</v>
       </c>
       <c r="AP59" s="15">
-        <v>193103</v>
+        <v>191621</v>
       </c>
       <c r="AQ59" s="15">
-        <v>-34939</v>
+        <v>321796</v>
       </c>
       <c r="AR59" s="15">
-        <v>191621</v>
+        <v>295099</v>
       </c>
       <c r="AS59" s="15">
-        <v>321796</v>
+        <v>319776</v>
       </c>
       <c r="AT59" s="15">
-        <v>295099</v>
+        <v>74069</v>
       </c>
       <c r="AU59" s="15">
-        <v>319776</v>
+        <v>497258</v>
       </c>
       <c r="AV59" s="15">
-        <v>74069</v>
+        <v>167696</v>
       </c>
       <c r="AW59" s="15">
-        <v>468311</v>
+        <v>118755</v>
       </c>
       <c r="AX59" s="15">
-        <v>167696</v>
+        <v>73519</v>
       </c>
       <c r="AY59" s="15">
-        <v>118755</v>
+        <v>331851</v>
       </c>
       <c r="AZ59" s="15">
-        <v>73519</v>
+        <v>612679</v>
       </c>
       <c r="BA59" s="15">
-        <v>331851</v>
+        <v>828396</v>
       </c>
       <c r="BB59" s="15">
-        <v>612679</v>
+        <v>211495</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8211,7 +8246,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8266,7 +8301,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8321,7 +8356,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>81</v>
       </c>
@@ -8478,7 +8513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8533,7 +8568,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>82</v>
       </c>
@@ -8590,7 +8625,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8658,98 +8693,98 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>8690</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>6882</v>
       </c>
       <c r="AA66" s="11">
-        <v>8690</v>
+        <v>14512</v>
       </c>
       <c r="AB66" s="11">
-        <v>6882</v>
+        <v>12533</v>
       </c>
       <c r="AC66" s="11">
-        <v>14512</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="11">
-        <v>12533</v>
+        <v>18626</v>
       </c>
       <c r="AE66" s="11">
-        <v>0</v>
+        <v>43543</v>
       </c>
       <c r="AF66" s="11">
-        <v>18626</v>
+        <v>18446</v>
       </c>
       <c r="AG66" s="11">
-        <v>43543</v>
-      </c>
-      <c r="AH66" s="11">
-        <v>18446</v>
+        <v>53442</v>
+      </c>
+      <c r="AH66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI66" s="11">
-        <v>53442</v>
-      </c>
-      <c r="AJ66" s="11" t="s">
-        <v>58</v>
+        <v>19301</v>
+      </c>
+      <c r="AJ66" s="11">
+        <v>14310</v>
       </c>
       <c r="AK66" s="11">
-        <v>19301</v>
+        <v>7335</v>
       </c>
       <c r="AL66" s="11">
-        <v>14310</v>
+        <v>23307</v>
       </c>
       <c r="AM66" s="11">
-        <v>7335</v>
+        <v>18082</v>
       </c>
       <c r="AN66" s="11">
-        <v>23307</v>
+        <v>24610</v>
       </c>
       <c r="AO66" s="11">
-        <v>18082</v>
+        <v>106504</v>
       </c>
       <c r="AP66" s="11">
-        <v>24610</v>
+        <v>46875</v>
       </c>
       <c r="AQ66" s="11">
-        <v>106504</v>
+        <v>26230</v>
       </c>
       <c r="AR66" s="11">
-        <v>46875</v>
+        <v>5564</v>
       </c>
       <c r="AS66" s="11">
-        <v>26230</v>
-      </c>
-      <c r="AT66" s="11">
-        <v>5564</v>
+        <v>58197</v>
+      </c>
+      <c r="AT66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU66" s="11">
-        <v>58197</v>
-      </c>
-      <c r="AV66" s="11" t="s">
-        <v>58</v>
+        <v>20008</v>
+      </c>
+      <c r="AV66" s="11">
+        <v>41332</v>
       </c>
       <c r="AW66" s="11">
-        <v>758754</v>
+        <v>28752</v>
       </c>
       <c r="AX66" s="11">
-        <v>41332</v>
+        <v>77261</v>
       </c>
       <c r="AY66" s="11">
-        <v>28752</v>
+        <v>42840</v>
       </c>
       <c r="AZ66" s="11">
-        <v>77261</v>
+        <v>66207</v>
       </c>
       <c r="BA66" s="11">
-        <v>42840</v>
+        <v>22731</v>
       </c>
       <c r="BB66" s="11">
-        <v>66207</v>
+        <v>122775</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8817,98 +8852,98 @@
       <c r="X67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z67" s="13" t="s">
-        <v>58</v>
+      <c r="Y67" s="13">
+        <v>712383</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>571647</v>
       </c>
       <c r="AA67" s="13">
-        <v>712383</v>
+        <v>965201</v>
       </c>
       <c r="AB67" s="13">
-        <v>571647</v>
+        <v>943988</v>
       </c>
       <c r="AC67" s="13">
-        <v>965201</v>
+        <v>1227208</v>
       </c>
       <c r="AD67" s="13">
-        <v>943988</v>
+        <v>1214238</v>
       </c>
       <c r="AE67" s="13">
-        <v>1227208</v>
+        <v>1288925</v>
       </c>
       <c r="AF67" s="13">
-        <v>1214238</v>
+        <v>1493786</v>
       </c>
       <c r="AG67" s="13">
-        <v>1288925</v>
+        <v>1560935</v>
       </c>
       <c r="AH67" s="13">
-        <v>1493786</v>
+        <v>627567</v>
       </c>
       <c r="AI67" s="13">
-        <v>1560935</v>
+        <v>1259011</v>
       </c>
       <c r="AJ67" s="13">
-        <v>627567</v>
+        <v>1658798</v>
       </c>
       <c r="AK67" s="13">
-        <v>1259011</v>
+        <v>1300440</v>
       </c>
       <c r="AL67" s="13">
-        <v>1658798</v>
+        <v>1915761</v>
       </c>
       <c r="AM67" s="13">
-        <v>1300440</v>
+        <v>3437773</v>
       </c>
       <c r="AN67" s="13">
-        <v>1915761</v>
+        <v>1778820</v>
       </c>
       <c r="AO67" s="13">
-        <v>3437773</v>
+        <v>2900199</v>
       </c>
       <c r="AP67" s="13">
-        <v>1778820</v>
+        <v>1852091</v>
       </c>
       <c r="AQ67" s="13">
-        <v>2900199</v>
+        <v>2744730</v>
       </c>
       <c r="AR67" s="13">
-        <v>1852091</v>
+        <v>2506558</v>
       </c>
       <c r="AS67" s="13">
-        <v>2744730</v>
+        <v>3301399</v>
       </c>
       <c r="AT67" s="13">
-        <v>2506558</v>
+        <v>1259291</v>
       </c>
       <c r="AU67" s="13">
-        <v>3301399</v>
+        <v>2505799</v>
       </c>
       <c r="AV67" s="13">
-        <v>1259291</v>
+        <v>2097296</v>
       </c>
       <c r="AW67" s="13">
-        <v>2505799</v>
+        <v>1882173</v>
       </c>
       <c r="AX67" s="13">
-        <v>2097296</v>
+        <v>1279521</v>
       </c>
       <c r="AY67" s="13">
-        <v>1882173</v>
+        <v>2778111</v>
       </c>
       <c r="AZ67" s="13">
-        <v>1279521</v>
+        <v>2832255</v>
       </c>
       <c r="BA67" s="13">
-        <v>2778111</v>
+        <v>2927757</v>
       </c>
       <c r="BB67" s="13">
-        <v>2832255</v>
+        <v>3895132</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -8976,98 +9011,98 @@
       <c r="X68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z68" s="11" t="s">
-        <v>58</v>
+      <c r="Y68" s="11">
+        <v>81388</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>70178</v>
       </c>
       <c r="AA68" s="11">
-        <v>81388</v>
+        <v>19017</v>
       </c>
       <c r="AB68" s="11">
-        <v>70178</v>
+        <v>84994</v>
       </c>
       <c r="AC68" s="11">
-        <v>19017</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="11">
-        <v>84994</v>
+        <v>377091</v>
       </c>
       <c r="AE68" s="11">
-        <v>0</v>
+        <v>24222</v>
       </c>
       <c r="AF68" s="11">
-        <v>377091</v>
+        <v>243060</v>
       </c>
       <c r="AG68" s="11">
-        <v>24222</v>
+        <v>1341096</v>
       </c>
       <c r="AH68" s="11">
-        <v>243060</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="11">
-        <v>1341096</v>
+        <v>2484</v>
       </c>
       <c r="AJ68" s="11">
-        <v>0</v>
+        <v>479952</v>
       </c>
       <c r="AK68" s="11">
-        <v>2484</v>
+        <v>72409</v>
       </c>
       <c r="AL68" s="11">
-        <v>479952</v>
+        <v>115545</v>
       </c>
       <c r="AM68" s="11">
-        <v>72409</v>
+        <v>692234</v>
       </c>
       <c r="AN68" s="11">
-        <v>115545</v>
+        <v>189206</v>
       </c>
       <c r="AO68" s="11">
-        <v>692234</v>
+        <v>375884</v>
       </c>
       <c r="AP68" s="11">
-        <v>189206</v>
+        <v>219398</v>
       </c>
       <c r="AQ68" s="11">
-        <v>375884</v>
+        <v>675514</v>
       </c>
       <c r="AR68" s="11">
-        <v>219398</v>
+        <v>366517</v>
       </c>
       <c r="AS68" s="11">
-        <v>675514</v>
+        <v>472657</v>
       </c>
       <c r="AT68" s="11">
-        <v>366517</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="11">
-        <v>472657</v>
+        <v>948442</v>
       </c>
       <c r="AV68" s="11">
-        <v>0</v>
+        <v>64667</v>
       </c>
       <c r="AW68" s="11">
-        <v>948442</v>
+        <v>75291</v>
       </c>
       <c r="AX68" s="11">
-        <v>64667</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="11">
-        <v>75291</v>
+        <v>574898</v>
       </c>
       <c r="AZ68" s="11">
-        <v>0</v>
+        <v>31683</v>
       </c>
       <c r="BA68" s="11">
-        <v>574898</v>
+        <v>2014136</v>
       </c>
       <c r="BB68" s="11">
-        <v>31683</v>
+        <v>69470</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>61</v>
       </c>
@@ -9135,98 +9170,98 @@
       <c r="X69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
+      <c r="Y69" s="13">
+        <v>10759</v>
+      </c>
+      <c r="Z69" s="13">
+        <v>35858</v>
       </c>
       <c r="AA69" s="13">
-        <v>10759</v>
+        <v>28090</v>
       </c>
       <c r="AB69" s="13">
-        <v>35858</v>
+        <v>15281</v>
       </c>
       <c r="AC69" s="13">
-        <v>28090</v>
+        <v>9727</v>
       </c>
       <c r="AD69" s="13">
-        <v>15281</v>
+        <v>64072</v>
       </c>
       <c r="AE69" s="13">
-        <v>9727</v>
+        <v>59754</v>
       </c>
       <c r="AF69" s="13">
-        <v>64072</v>
+        <v>60956</v>
       </c>
       <c r="AG69" s="13">
-        <v>59754</v>
+        <v>84003</v>
       </c>
       <c r="AH69" s="13">
-        <v>60956</v>
+        <v>69662</v>
       </c>
       <c r="AI69" s="13">
-        <v>84003</v>
+        <v>265175</v>
       </c>
       <c r="AJ69" s="13">
-        <v>69662</v>
+        <v>259503</v>
       </c>
       <c r="AK69" s="13">
-        <v>265175</v>
+        <v>151456</v>
       </c>
       <c r="AL69" s="13">
-        <v>259503</v>
+        <v>214109</v>
       </c>
       <c r="AM69" s="13">
-        <v>151456</v>
+        <v>195750</v>
       </c>
       <c r="AN69" s="13">
-        <v>214109</v>
+        <v>216902</v>
       </c>
       <c r="AO69" s="13">
-        <v>195750</v>
+        <v>396433</v>
       </c>
       <c r="AP69" s="13">
-        <v>216902</v>
+        <v>469288</v>
       </c>
       <c r="AQ69" s="13">
-        <v>396433</v>
+        <v>487486</v>
       </c>
       <c r="AR69" s="13">
-        <v>469288</v>
+        <v>472291</v>
       </c>
       <c r="AS69" s="13">
-        <v>487486</v>
+        <v>554459</v>
       </c>
       <c r="AT69" s="13">
-        <v>472291</v>
+        <v>560441</v>
       </c>
       <c r="AU69" s="13">
-        <v>554459</v>
+        <v>929998</v>
       </c>
       <c r="AV69" s="13">
-        <v>560441</v>
+        <v>1064038</v>
       </c>
       <c r="AW69" s="13">
-        <v>929998</v>
+        <v>908785</v>
       </c>
       <c r="AX69" s="13">
-        <v>1064038</v>
+        <v>565372</v>
       </c>
       <c r="AY69" s="13">
-        <v>908785</v>
+        <v>916476</v>
       </c>
       <c r="AZ69" s="13">
-        <v>565372</v>
+        <v>765012</v>
       </c>
       <c r="BA69" s="13">
-        <v>916476</v>
+        <v>838802</v>
       </c>
       <c r="BB69" s="13">
-        <v>765012</v>
+        <v>671482</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>62</v>
       </c>
@@ -9294,98 +9329,98 @@
       <c r="X70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>58</v>
+      <c r="Y70" s="11">
+        <v>2287734</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>1757312</v>
       </c>
       <c r="AA70" s="11">
-        <v>2287734</v>
+        <v>2061511</v>
       </c>
       <c r="AB70" s="11">
-        <v>1757312</v>
+        <v>1608740</v>
       </c>
       <c r="AC70" s="11">
-        <v>2061511</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="11">
-        <v>1608740</v>
+        <v>2585740</v>
       </c>
       <c r="AE70" s="11">
-        <v>0</v>
+        <v>2373975</v>
       </c>
       <c r="AF70" s="11">
-        <v>2585740</v>
+        <v>1493423</v>
       </c>
       <c r="AG70" s="11">
-        <v>2373975</v>
+        <v>3760821</v>
       </c>
       <c r="AH70" s="11">
-        <v>1493423</v>
+        <v>0</v>
       </c>
       <c r="AI70" s="11">
-        <v>3760821</v>
+        <v>1384833</v>
       </c>
       <c r="AJ70" s="11">
-        <v>0</v>
+        <v>4038815</v>
       </c>
       <c r="AK70" s="11">
-        <v>1384833</v>
+        <v>2887879</v>
       </c>
       <c r="AL70" s="11">
-        <v>4038815</v>
+        <v>3365323</v>
       </c>
       <c r="AM70" s="11">
-        <v>2887879</v>
+        <v>2577813</v>
       </c>
       <c r="AN70" s="11">
-        <v>3365323</v>
+        <v>3130161</v>
       </c>
       <c r="AO70" s="11">
-        <v>2577813</v>
+        <v>3637703</v>
       </c>
       <c r="AP70" s="11">
-        <v>3130161</v>
+        <v>3467924</v>
       </c>
       <c r="AQ70" s="11">
-        <v>3637703</v>
+        <v>1292211</v>
       </c>
       <c r="AR70" s="11">
-        <v>3467924</v>
+        <v>1891174</v>
       </c>
       <c r="AS70" s="11">
-        <v>1292211</v>
+        <v>1101271</v>
       </c>
       <c r="AT70" s="11">
-        <v>1891174</v>
+        <v>1201201</v>
       </c>
       <c r="AU70" s="11">
-        <v>1101271</v>
+        <v>1294398</v>
       </c>
       <c r="AV70" s="11">
-        <v>1201201</v>
+        <v>2931514</v>
       </c>
       <c r="AW70" s="11">
-        <v>1294398</v>
+        <v>2604493</v>
       </c>
       <c r="AX70" s="11">
-        <v>2931514</v>
+        <v>3136088</v>
       </c>
       <c r="AY70" s="11">
-        <v>2604493</v>
+        <v>2587501</v>
       </c>
       <c r="AZ70" s="11">
-        <v>3136088</v>
+        <v>1369500</v>
       </c>
       <c r="BA70" s="11">
-        <v>2587501</v>
+        <v>2958887</v>
       </c>
       <c r="BB70" s="11">
-        <v>1369500</v>
+        <v>3233344</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>63</v>
       </c>
@@ -9453,98 +9488,98 @@
       <c r="X71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>58</v>
+      <c r="Y71" s="13">
+        <v>238749</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>784143</v>
       </c>
       <c r="AA71" s="13">
-        <v>238749</v>
+        <v>327946</v>
       </c>
       <c r="AB71" s="13">
-        <v>784143</v>
+        <v>233748</v>
       </c>
       <c r="AC71" s="13">
-        <v>327946</v>
+        <v>136512</v>
       </c>
       <c r="AD71" s="13">
-        <v>233748</v>
+        <v>468331</v>
       </c>
       <c r="AE71" s="13">
-        <v>136512</v>
+        <v>560021</v>
       </c>
       <c r="AF71" s="13">
-        <v>468331</v>
+        <v>724361</v>
       </c>
       <c r="AG71" s="13">
-        <v>560021</v>
+        <v>1127285</v>
       </c>
       <c r="AH71" s="13">
-        <v>724361</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="13">
-        <v>1127285</v>
+        <v>212845</v>
       </c>
       <c r="AJ71" s="13">
-        <v>0</v>
+        <v>1042584</v>
       </c>
       <c r="AK71" s="13">
-        <v>212845</v>
+        <v>1477444</v>
       </c>
       <c r="AL71" s="13">
-        <v>1042584</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="13">
-        <v>1477444</v>
+        <v>847938</v>
       </c>
       <c r="AN71" s="13">
-        <v>0</v>
+        <v>398958</v>
       </c>
       <c r="AO71" s="13">
-        <v>847938</v>
+        <v>807112</v>
       </c>
       <c r="AP71" s="13">
-        <v>398958</v>
+        <v>873760</v>
       </c>
       <c r="AQ71" s="13">
-        <v>807112</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="13">
-        <v>873760</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <v>0</v>
+        <v>1822503</v>
       </c>
       <c r="AT71" s="13">
         <v>0</v>
       </c>
       <c r="AU71" s="13">
-        <v>1822503</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="13">
-        <v>0</v>
+        <v>524398</v>
       </c>
       <c r="AW71" s="13">
-        <v>0</v>
+        <v>694239</v>
       </c>
       <c r="AX71" s="13">
-        <v>524398</v>
+        <v>404208</v>
       </c>
       <c r="AY71" s="13">
-        <v>694239</v>
+        <v>501848</v>
       </c>
       <c r="AZ71" s="13">
-        <v>404208</v>
+        <v>226763</v>
       </c>
       <c r="BA71" s="13">
-        <v>501848</v>
+        <v>621871</v>
       </c>
       <c r="BB71" s="13">
-        <v>226763</v>
+        <v>-180</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>64</v>
       </c>
@@ -9612,98 +9647,98 @@
       <c r="X72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z72" s="11" t="s">
-        <v>58</v>
+      <c r="Y72" s="11">
+        <v>14040626</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>15272100</v>
       </c>
       <c r="AA72" s="11">
-        <v>14040626</v>
+        <v>19178216</v>
       </c>
       <c r="AB72" s="11">
-        <v>15272100</v>
+        <v>18788537</v>
       </c>
       <c r="AC72" s="11">
-        <v>19178216</v>
+        <v>17243365</v>
       </c>
       <c r="AD72" s="11">
-        <v>18788537</v>
+        <v>24346324</v>
       </c>
       <c r="AE72" s="11">
-        <v>17243365</v>
+        <v>12712076</v>
       </c>
       <c r="AF72" s="11">
-        <v>24346324</v>
+        <v>16743514</v>
       </c>
       <c r="AG72" s="11">
-        <v>12712076</v>
+        <v>27513076</v>
       </c>
       <c r="AH72" s="11">
-        <v>16743514</v>
+        <v>8731987</v>
       </c>
       <c r="AI72" s="11">
-        <v>27513076</v>
+        <v>26530024</v>
       </c>
       <c r="AJ72" s="11">
-        <v>8731987</v>
+        <v>34672944</v>
       </c>
       <c r="AK72" s="11">
-        <v>26530024</v>
+        <v>33840590</v>
       </c>
       <c r="AL72" s="11">
-        <v>34672944</v>
+        <v>19878364</v>
       </c>
       <c r="AM72" s="11">
-        <v>33840590</v>
+        <v>43055066</v>
       </c>
       <c r="AN72" s="11">
-        <v>19878364</v>
+        <v>30339092</v>
       </c>
       <c r="AO72" s="11">
-        <v>43055066</v>
+        <v>28416965</v>
       </c>
       <c r="AP72" s="11">
-        <v>30339092</v>
+        <v>33446007</v>
       </c>
       <c r="AQ72" s="11">
-        <v>28416965</v>
+        <v>23996975</v>
       </c>
       <c r="AR72" s="11">
-        <v>33446007</v>
+        <v>32739978</v>
       </c>
       <c r="AS72" s="11">
-        <v>23996975</v>
+        <v>42011722</v>
       </c>
       <c r="AT72" s="11">
-        <v>32739978</v>
+        <v>19153236</v>
       </c>
       <c r="AU72" s="11">
-        <v>42011722</v>
+        <v>39436622</v>
       </c>
       <c r="AV72" s="11">
-        <v>19153236</v>
+        <v>49207804</v>
       </c>
       <c r="AW72" s="11">
-        <v>39436622</v>
+        <v>42764107</v>
       </c>
       <c r="AX72" s="11">
-        <v>49207804</v>
+        <v>25894909</v>
       </c>
       <c r="AY72" s="11">
-        <v>42764107</v>
+        <v>49620943</v>
       </c>
       <c r="AZ72" s="11">
-        <v>25894909</v>
+        <v>36009951</v>
       </c>
       <c r="BA72" s="11">
-        <v>49620943</v>
+        <v>32440786</v>
       </c>
       <c r="BB72" s="11">
-        <v>36009951</v>
+        <v>34265472</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>65</v>
       </c>
@@ -9771,26 +9806,26 @@
       <c r="X73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="13" t="s">
-        <v>58</v>
+      <c r="Y73" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="Z73" s="13">
+        <v>0</v>
       </c>
       <c r="AA73" s="13">
-        <v>1000713</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="13">
-        <v>0</v>
+        <v>97094</v>
       </c>
       <c r="AC73" s="13">
-        <v>0</v>
+        <v>228397</v>
       </c>
       <c r="AD73" s="13">
-        <v>97094</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="13">
-        <v>228397</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="13">
         <v>0</v>
@@ -9798,17 +9833,17 @@
       <c r="AG73" s="13">
         <v>0</v>
       </c>
-      <c r="AH73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK73" s="13" t="s">
-        <v>58</v>
+      <c r="AH73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="13">
+        <v>0</v>
       </c>
       <c r="AL73" s="13">
         <v>0</v>
@@ -9834,11 +9869,11 @@
       <c r="AS73" s="13">
         <v>0</v>
       </c>
-      <c r="AT73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU73" s="13">
-        <v>0</v>
+      <c r="AT73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV73" s="13" t="s">
         <v>58</v>
@@ -9862,7 +9897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>66</v>
       </c>
@@ -9990,38 +10025,38 @@
       <c r="AR74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>58</v>
+      <c r="AS74" s="11">
+        <v>244472</v>
       </c>
       <c r="AT74" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU74" s="11">
-        <v>244472</v>
-      </c>
-      <c r="AV74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW74" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV74" s="11">
+        <v>1846</v>
+      </c>
+      <c r="AW74" s="11">
+        <v>217062</v>
       </c>
       <c r="AX74" s="11">
-        <v>1846</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="11">
-        <v>217062</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="11">
         <v>0</v>
       </c>
       <c r="BA74" s="11">
-        <v>0</v>
+        <v>1825587</v>
       </c>
       <c r="BB74" s="11">
-        <v>0</v>
+        <v>991069</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>67</v>
       </c>
@@ -10170,17 +10205,17 @@
       <c r="AY75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA75" s="13" t="s">
-        <v>58</v>
+      <c r="AZ75" s="13">
+        <v>743246</v>
+      </c>
+      <c r="BA75" s="13">
+        <v>0</v>
       </c>
       <c r="BB75" s="13">
-        <v>743246</v>
+        <v>44989</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>76</v>
       </c>
@@ -10247,97 +10282,97 @@
         <v>0</v>
       </c>
       <c r="Y76" s="15">
-        <v>0</v>
+        <v>18381042</v>
       </c>
       <c r="Z76" s="15">
-        <v>0</v>
+        <v>18498120</v>
       </c>
       <c r="AA76" s="15">
-        <v>18381042</v>
+        <v>22594493</v>
       </c>
       <c r="AB76" s="15">
-        <v>18498120</v>
+        <v>21784915</v>
       </c>
       <c r="AC76" s="15">
-        <v>22594493</v>
+        <v>18845209</v>
       </c>
       <c r="AD76" s="15">
-        <v>21784915</v>
+        <v>29074422</v>
       </c>
       <c r="AE76" s="15">
-        <v>18845209</v>
+        <v>17062516</v>
       </c>
       <c r="AF76" s="15">
-        <v>29074422</v>
+        <v>20777546</v>
       </c>
       <c r="AG76" s="15">
-        <v>17062516</v>
+        <v>35440658</v>
       </c>
       <c r="AH76" s="15">
-        <v>20777546</v>
+        <v>9429216</v>
       </c>
       <c r="AI76" s="15">
-        <v>35440658</v>
+        <v>29673673</v>
       </c>
       <c r="AJ76" s="15">
-        <v>9429216</v>
+        <v>42166906</v>
       </c>
       <c r="AK76" s="15">
-        <v>29673673</v>
+        <v>39737553</v>
       </c>
       <c r="AL76" s="15">
-        <v>42166906</v>
+        <v>25512409</v>
       </c>
       <c r="AM76" s="15">
-        <v>39737553</v>
+        <v>50824656</v>
       </c>
       <c r="AN76" s="15">
-        <v>25512409</v>
+        <v>36077749</v>
       </c>
       <c r="AO76" s="15">
-        <v>50824656</v>
+        <v>36640800</v>
       </c>
       <c r="AP76" s="15">
-        <v>36077749</v>
+        <v>40375343</v>
       </c>
       <c r="AQ76" s="15">
-        <v>36640800</v>
+        <v>29223146</v>
       </c>
       <c r="AR76" s="15">
-        <v>40375343</v>
+        <v>37982082</v>
       </c>
       <c r="AS76" s="15">
-        <v>29223146</v>
+        <v>49566680</v>
       </c>
       <c r="AT76" s="15">
-        <v>37982082</v>
+        <v>22174169</v>
       </c>
       <c r="AU76" s="15">
-        <v>49566680</v>
+        <v>45135267</v>
       </c>
       <c r="AV76" s="15">
-        <v>22174169</v>
+        <v>55932895</v>
       </c>
       <c r="AW76" s="15">
-        <v>45874013</v>
+        <v>49174902</v>
       </c>
       <c r="AX76" s="15">
-        <v>55932895</v>
+        <v>31357359</v>
       </c>
       <c r="AY76" s="15">
-        <v>49174902</v>
+        <v>57022617</v>
       </c>
       <c r="AZ76" s="15">
-        <v>31357359</v>
+        <v>42044617</v>
       </c>
       <c r="BA76" s="15">
-        <v>57022617</v>
+        <v>43650557</v>
       </c>
       <c r="BB76" s="15">
-        <v>42044617</v>
+        <v>43293553</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>84</v>
       </c>
@@ -10394,7 +10429,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>61</v>
       </c>
@@ -10486,14 +10521,14 @@
       <c r="AF78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG78" s="11" t="s">
-        <v>58</v>
+      <c r="AG78" s="11">
+        <v>1293</v>
       </c>
       <c r="AH78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI78" s="11">
-        <v>1293</v>
+      <c r="AI78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ78" s="11" t="s">
         <v>58</v>
@@ -10513,35 +10548,35 @@
       <c r="AO78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ78" s="11" t="s">
-        <v>58</v>
+      <c r="AP78" s="11">
+        <v>5867</v>
+      </c>
+      <c r="AQ78" s="11">
+        <v>0</v>
       </c>
       <c r="AR78" s="11">
-        <v>5867</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="11">
         <v>0</v>
       </c>
-      <c r="AT78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU78" s="11">
-        <v>0</v>
+      <c r="AT78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX78" s="11" t="s">
-        <v>58</v>
+      <c r="AW78" s="11">
+        <v>13133</v>
+      </c>
+      <c r="AX78" s="11">
+        <v>0</v>
       </c>
       <c r="AY78" s="11">
-        <v>13133</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="11">
         <v>0</v>
@@ -10553,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>63</v>
       </c>
@@ -10621,14 +10656,14 @@
       <c r="X79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z79" s="13" t="s">
-        <v>58</v>
+      <c r="Y79" s="13">
+        <v>-1722338</v>
+      </c>
+      <c r="Z79" s="13">
+        <v>0</v>
       </c>
       <c r="AA79" s="13">
-        <v>-1722338</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="13">
         <v>0</v>
@@ -10640,28 +10675,28 @@
         <v>0</v>
       </c>
       <c r="AE79" s="13">
-        <v>0</v>
+        <v>11191909</v>
       </c>
       <c r="AF79" s="13">
         <v>0</v>
       </c>
       <c r="AG79" s="13">
-        <v>11191909</v>
-      </c>
-      <c r="AH79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="13">
         <v>222346</v>
       </c>
+      <c r="AH79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL79" s="13" t="s">
-        <v>58</v>
+      <c r="AK79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="13">
+        <v>0</v>
       </c>
       <c r="AM79" s="13">
         <v>0</v>
@@ -10684,11 +10719,11 @@
       <c r="AS79" s="13">
         <v>0</v>
       </c>
-      <c r="AT79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU79" s="13">
-        <v>0</v>
+      <c r="AT79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV79" s="13" t="s">
         <v>58</v>
@@ -10712,7 +10747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>64</v>
       </c>
@@ -10780,98 +10815,98 @@
       <c r="X80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z80" s="11" t="s">
-        <v>58</v>
+      <c r="Y80" s="11">
+        <v>10465562</v>
+      </c>
+      <c r="Z80" s="11">
+        <v>10554972</v>
       </c>
       <c r="AA80" s="11">
-        <v>10465562</v>
+        <v>20046392</v>
       </c>
       <c r="AB80" s="11">
-        <v>10554972</v>
+        <v>11019378</v>
       </c>
       <c r="AC80" s="11">
-        <v>20046392</v>
+        <v>16652852</v>
       </c>
       <c r="AD80" s="11">
-        <v>11019378</v>
+        <v>19633484</v>
       </c>
       <c r="AE80" s="11">
-        <v>16652852</v>
+        <v>3660647</v>
       </c>
       <c r="AF80" s="11">
-        <v>19633484</v>
+        <v>13998426</v>
       </c>
       <c r="AG80" s="11">
-        <v>3660647</v>
+        <v>39265646</v>
       </c>
       <c r="AH80" s="11">
-        <v>13998426</v>
+        <v>4578730</v>
       </c>
       <c r="AI80" s="11">
-        <v>39265646</v>
+        <v>24814358</v>
       </c>
       <c r="AJ80" s="11">
-        <v>4578730</v>
+        <v>23490557</v>
       </c>
       <c r="AK80" s="11">
-        <v>24814358</v>
+        <v>37083004</v>
       </c>
       <c r="AL80" s="11">
-        <v>23490557</v>
+        <v>22829674</v>
       </c>
       <c r="AM80" s="11">
-        <v>37083004</v>
+        <v>35735617</v>
       </c>
       <c r="AN80" s="11">
-        <v>22829674</v>
+        <v>16816734</v>
       </c>
       <c r="AO80" s="11">
-        <v>35735617</v>
+        <v>38297207</v>
       </c>
       <c r="AP80" s="11">
-        <v>16816734</v>
+        <v>32283977</v>
       </c>
       <c r="AQ80" s="11">
-        <v>38297207</v>
+        <v>46132753</v>
       </c>
       <c r="AR80" s="11">
-        <v>32283977</v>
+        <v>46664045</v>
       </c>
       <c r="AS80" s="11">
-        <v>46132753</v>
+        <v>46661166</v>
       </c>
       <c r="AT80" s="11">
-        <v>46664045</v>
+        <v>20850609</v>
       </c>
       <c r="AU80" s="11">
-        <v>46661166</v>
+        <v>35338883</v>
       </c>
       <c r="AV80" s="11">
-        <v>20850609</v>
+        <v>40943464</v>
       </c>
       <c r="AW80" s="11">
-        <v>35338883</v>
+        <v>11494505</v>
       </c>
       <c r="AX80" s="11">
-        <v>40943464</v>
+        <v>15314859</v>
       </c>
       <c r="AY80" s="11">
-        <v>11494505</v>
+        <v>11216494</v>
       </c>
       <c r="AZ80" s="11">
-        <v>15314859</v>
+        <v>10677898</v>
       </c>
       <c r="BA80" s="11">
-        <v>11216494</v>
+        <v>19833397</v>
       </c>
       <c r="BB80" s="11">
-        <v>10677898</v>
+        <v>17986070</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>66</v>
       </c>
@@ -10939,98 +10974,98 @@
       <c r="X81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z81" s="13" t="s">
-        <v>58</v>
+      <c r="Y81" s="13">
+        <v>318244</v>
+      </c>
+      <c r="Z81" s="13">
+        <v>-3722</v>
       </c>
       <c r="AA81" s="13">
-        <v>318244</v>
+        <v>222760</v>
       </c>
       <c r="AB81" s="13">
-        <v>-3722</v>
+        <v>78722</v>
       </c>
       <c r="AC81" s="13">
-        <v>222760</v>
+        <v>512304</v>
       </c>
       <c r="AD81" s="13">
-        <v>78722</v>
+        <v>157984</v>
       </c>
       <c r="AE81" s="13">
-        <v>512304</v>
+        <v>277397</v>
       </c>
       <c r="AF81" s="13">
-        <v>157984</v>
+        <v>7818</v>
       </c>
       <c r="AG81" s="13">
-        <v>277397</v>
-      </c>
-      <c r="AH81" s="13">
-        <v>7818</v>
+        <v>777922</v>
+      </c>
+      <c r="AH81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI81" s="13">
-        <v>777922</v>
-      </c>
-      <c r="AJ81" s="13" t="s">
-        <v>58</v>
+        <v>892834</v>
+      </c>
+      <c r="AJ81" s="13">
+        <v>143375</v>
       </c>
       <c r="AK81" s="13">
-        <v>892834</v>
+        <v>617863</v>
       </c>
       <c r="AL81" s="13">
-        <v>143375</v>
+        <v>39403</v>
       </c>
       <c r="AM81" s="13">
-        <v>617863</v>
+        <v>180385</v>
       </c>
       <c r="AN81" s="13">
-        <v>39403</v>
+        <v>1535800</v>
       </c>
       <c r="AO81" s="13">
-        <v>180385</v>
+        <v>196586</v>
       </c>
       <c r="AP81" s="13">
-        <v>1535800</v>
+        <v>186293</v>
       </c>
       <c r="AQ81" s="13">
-        <v>196586</v>
+        <v>1233248</v>
       </c>
       <c r="AR81" s="13">
-        <v>186293</v>
+        <v>97703</v>
       </c>
       <c r="AS81" s="13">
-        <v>1233248</v>
+        <v>27992</v>
       </c>
       <c r="AT81" s="13">
-        <v>97703</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="13">
-        <v>27992</v>
+        <v>106734</v>
       </c>
       <c r="AV81" s="13">
-        <v>0</v>
+        <v>215590</v>
       </c>
       <c r="AW81" s="13">
-        <v>106734</v>
+        <v>74361</v>
       </c>
       <c r="AX81" s="13">
-        <v>215590</v>
+        <v>-19978</v>
       </c>
       <c r="AY81" s="13">
-        <v>74361</v>
+        <v>177696</v>
       </c>
       <c r="AZ81" s="13">
-        <v>-19978</v>
+        <v>116811</v>
       </c>
       <c r="BA81" s="13">
-        <v>177696</v>
+        <v>14583</v>
       </c>
       <c r="BB81" s="13">
-        <v>116811</v>
+        <v>134209</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>78</v>
       </c>
@@ -11097,97 +11132,97 @@
         <v>0</v>
       </c>
       <c r="Y82" s="15">
-        <v>0</v>
+        <v>9061468</v>
       </c>
       <c r="Z82" s="15">
-        <v>0</v>
+        <v>10551250</v>
       </c>
       <c r="AA82" s="15">
-        <v>9061468</v>
+        <v>20269152</v>
       </c>
       <c r="AB82" s="15">
-        <v>10551250</v>
+        <v>11098100</v>
       </c>
       <c r="AC82" s="15">
-        <v>20269152</v>
+        <v>17165156</v>
       </c>
       <c r="AD82" s="15">
-        <v>11098100</v>
+        <v>19791468</v>
       </c>
       <c r="AE82" s="15">
-        <v>17165156</v>
+        <v>15129953</v>
       </c>
       <c r="AF82" s="15">
-        <v>19791468</v>
+        <v>14006244</v>
       </c>
       <c r="AG82" s="15">
-        <v>15129953</v>
+        <v>40267207</v>
       </c>
       <c r="AH82" s="15">
-        <v>14006244</v>
+        <v>4578730</v>
       </c>
       <c r="AI82" s="15">
-        <v>40267207</v>
+        <v>25707192</v>
       </c>
       <c r="AJ82" s="15">
-        <v>4578730</v>
+        <v>23633932</v>
       </c>
       <c r="AK82" s="15">
-        <v>25707192</v>
+        <v>37700867</v>
       </c>
       <c r="AL82" s="15">
-        <v>23633932</v>
+        <v>22869077</v>
       </c>
       <c r="AM82" s="15">
-        <v>37700867</v>
+        <v>35916002</v>
       </c>
       <c r="AN82" s="15">
-        <v>22869077</v>
+        <v>18352534</v>
       </c>
       <c r="AO82" s="15">
-        <v>35916002</v>
+        <v>38493793</v>
       </c>
       <c r="AP82" s="15">
-        <v>18352534</v>
+        <v>32476137</v>
       </c>
       <c r="AQ82" s="15">
-        <v>38493793</v>
+        <v>47366001</v>
       </c>
       <c r="AR82" s="15">
-        <v>32476137</v>
+        <v>46761748</v>
       </c>
       <c r="AS82" s="15">
-        <v>47366001</v>
+        <v>46689158</v>
       </c>
       <c r="AT82" s="15">
-        <v>46761748</v>
+        <v>20850609</v>
       </c>
       <c r="AU82" s="15">
-        <v>46689158</v>
+        <v>35445617</v>
       </c>
       <c r="AV82" s="15">
-        <v>20850609</v>
+        <v>41159054</v>
       </c>
       <c r="AW82" s="15">
-        <v>35445617</v>
+        <v>11581999</v>
       </c>
       <c r="AX82" s="15">
-        <v>41159054</v>
+        <v>15294881</v>
       </c>
       <c r="AY82" s="15">
-        <v>11581999</v>
+        <v>11394190</v>
       </c>
       <c r="AZ82" s="15">
-        <v>15294881</v>
+        <v>10794709</v>
       </c>
       <c r="BA82" s="15">
-        <v>11394190</v>
+        <v>19847980</v>
       </c>
       <c r="BB82" s="15">
-        <v>10794709</v>
+        <v>18120279</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>85</v>
       </c>
@@ -11244,7 +11279,7 @@
       <c r="BA83" s="17"/>
       <c r="BB83" s="17"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>72</v>
       </c>
@@ -11312,11 +11347,11 @@
       <c r="X84" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z84" s="15" t="s">
-        <v>58</v>
+      <c r="Y84" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="15">
+        <v>0</v>
       </c>
       <c r="AA84" s="15">
         <v>0</v>
@@ -11403,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>86</v>
       </c>
@@ -11460,7 +11495,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>60</v>
       </c>
@@ -11576,14 +11611,14 @@
       <c r="AN86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP86" s="11" t="s">
-        <v>58</v>
+      <c r="AO86" s="11">
+        <v>-350335</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>0</v>
       </c>
       <c r="AQ86" s="11">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AR86" s="11">
         <v>0</v>
@@ -11591,11 +11626,11 @@
       <c r="AS86" s="11">
         <v>0</v>
       </c>
-      <c r="AT86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU86" s="11">
-        <v>0</v>
+      <c r="AT86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV86" s="11" t="s">
         <v>58</v>
@@ -11609,17 +11644,17 @@
       <c r="AY86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB86" s="11" t="s">
-        <v>58</v>
+      <c r="AZ86" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA86" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB86" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
         <v>80</v>
       </c>
@@ -11687,11 +11722,11 @@
       <c r="X87" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="19" t="s">
-        <v>58</v>
+      <c r="Y87" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="19">
+        <v>0</v>
       </c>
       <c r="AA87" s="19">
         <v>0</v>
@@ -11736,13 +11771,13 @@
         <v>0</v>
       </c>
       <c r="AO87" s="19">
-        <v>0</v>
+        <v>-350335</v>
       </c>
       <c r="AP87" s="19">
         <v>0</v>
       </c>
       <c r="AQ87" s="19">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AR87" s="19">
         <v>0</v>
@@ -11778,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>87</v>
       </c>
@@ -11835,7 +11870,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>88</v>
       </c>
@@ -11903,11 +11938,11 @@
       <c r="X89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z89" s="11" t="s">
-        <v>58</v>
+      <c r="Y89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="11">
+        <v>0</v>
       </c>
       <c r="AA89" s="11">
         <v>0</v>
@@ -11994,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
         <v>73</v>
       </c>
@@ -12061,97 +12096,97 @@
         <v>0</v>
       </c>
       <c r="Y90" s="19">
-        <v>0</v>
+        <v>27442510</v>
       </c>
       <c r="Z90" s="19">
-        <v>0</v>
+        <v>29049370</v>
       </c>
       <c r="AA90" s="19">
-        <v>27442510</v>
+        <v>42863645</v>
       </c>
       <c r="AB90" s="19">
-        <v>29049370</v>
+        <v>32883015</v>
       </c>
       <c r="AC90" s="19">
-        <v>42863645</v>
+        <v>36010365</v>
       </c>
       <c r="AD90" s="19">
-        <v>32883015</v>
+        <v>48865890</v>
       </c>
       <c r="AE90" s="19">
-        <v>36010365</v>
+        <v>32192469</v>
       </c>
       <c r="AF90" s="19">
-        <v>48865890</v>
+        <v>34783790</v>
       </c>
       <c r="AG90" s="19">
-        <v>32192469</v>
+        <v>75707865</v>
       </c>
       <c r="AH90" s="19">
-        <v>34783790</v>
+        <v>14007946</v>
       </c>
       <c r="AI90" s="19">
-        <v>75707865</v>
+        <v>55380865</v>
       </c>
       <c r="AJ90" s="19">
-        <v>14007946</v>
+        <v>65800838</v>
       </c>
       <c r="AK90" s="19">
-        <v>55380865</v>
+        <v>77438420</v>
       </c>
       <c r="AL90" s="19">
-        <v>65800838</v>
+        <v>48381486</v>
       </c>
       <c r="AM90" s="19">
-        <v>77438420</v>
+        <v>86740658</v>
       </c>
       <c r="AN90" s="19">
-        <v>48381486</v>
+        <v>54430283</v>
       </c>
       <c r="AO90" s="19">
-        <v>86740658</v>
+        <v>74784258</v>
       </c>
       <c r="AP90" s="19">
-        <v>54430283</v>
+        <v>72851480</v>
       </c>
       <c r="AQ90" s="19">
-        <v>74784258</v>
+        <v>76589147</v>
       </c>
       <c r="AR90" s="19">
-        <v>72851480</v>
+        <v>84743830</v>
       </c>
       <c r="AS90" s="19">
-        <v>76589147</v>
+        <v>96255838</v>
       </c>
       <c r="AT90" s="19">
-        <v>84743830</v>
+        <v>43024778</v>
       </c>
       <c r="AU90" s="19">
-        <v>96255838</v>
+        <v>80580884</v>
       </c>
       <c r="AV90" s="19">
-        <v>43024778</v>
+        <v>97091949</v>
       </c>
       <c r="AW90" s="19">
-        <v>81319630</v>
+        <v>60756901</v>
       </c>
       <c r="AX90" s="19">
-        <v>97091949</v>
+        <v>46652240</v>
       </c>
       <c r="AY90" s="19">
-        <v>60756901</v>
+        <v>68416807</v>
       </c>
       <c r="AZ90" s="19">
-        <v>46652240</v>
+        <v>52839326</v>
       </c>
       <c r="BA90" s="19">
-        <v>68416807</v>
+        <v>63498537</v>
       </c>
       <c r="BB90" s="19">
-        <v>52839326</v>
+        <v>61413832</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12206,7 +12241,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12261,7 +12296,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12316,7 +12351,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>89</v>
       </c>
@@ -12473,7 +12508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -12528,7 +12563,7 @@
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>90</v>
       </c>
@@ -12585,7 +12620,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>56</v>
       </c>
@@ -12653,98 +12688,98 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>345761</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>1546169</v>
       </c>
       <c r="AA97" s="11">
-        <v>345761</v>
+        <v>1061983</v>
       </c>
       <c r="AB97" s="11">
-        <v>1546169</v>
-      </c>
-      <c r="AC97" s="11">
-        <v>1061983</v>
+        <v>557171</v>
+      </c>
+      <c r="AC97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD97" s="11">
-        <v>557171</v>
-      </c>
-      <c r="AE97" s="11" t="s">
-        <v>58</v>
+        <v>971116</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>2127577</v>
       </c>
       <c r="AF97" s="11">
-        <v>971116</v>
+        <v>895480</v>
       </c>
       <c r="AG97" s="11">
-        <v>2127577</v>
-      </c>
-      <c r="AH97" s="11">
-        <v>895480</v>
+        <v>968012</v>
+      </c>
+      <c r="AH97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI97" s="11">
-        <v>968012</v>
-      </c>
-      <c r="AJ97" s="11" t="s">
-        <v>58</v>
+        <v>3085198</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>3657975</v>
       </c>
       <c r="AK97" s="11">
-        <v>3085198</v>
+        <v>3656530</v>
       </c>
       <c r="AL97" s="11">
-        <v>3657975</v>
+        <v>745681</v>
       </c>
       <c r="AM97" s="11">
-        <v>3656530</v>
+        <v>3988090</v>
       </c>
       <c r="AN97" s="11">
-        <v>745681</v>
+        <v>551596</v>
       </c>
       <c r="AO97" s="11">
-        <v>3988090</v>
+        <v>4661619</v>
       </c>
       <c r="AP97" s="11">
-        <v>551596</v>
+        <v>5984297</v>
       </c>
       <c r="AQ97" s="11">
-        <v>4661619</v>
+        <v>3932534</v>
       </c>
       <c r="AR97" s="11">
-        <v>5984297</v>
+        <v>6711701</v>
       </c>
       <c r="AS97" s="11">
-        <v>3932534</v>
-      </c>
-      <c r="AT97" s="11">
-        <v>6711701</v>
+        <v>5931811</v>
+      </c>
+      <c r="AT97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU97" s="11">
-        <v>5931811</v>
-      </c>
-      <c r="AV97" s="11" t="s">
-        <v>58</v>
+        <v>4853954</v>
+      </c>
+      <c r="AV97" s="11">
+        <v>4398425</v>
       </c>
       <c r="AW97" s="11">
-        <v>178698540</v>
+        <v>4315173</v>
       </c>
       <c r="AX97" s="11">
-        <v>4398425</v>
+        <v>4510538</v>
       </c>
       <c r="AY97" s="11">
-        <v>4315173</v>
+        <v>3735938</v>
       </c>
       <c r="AZ97" s="11">
-        <v>4510538</v>
+        <v>4411153</v>
       </c>
       <c r="BA97" s="11">
-        <v>3735938</v>
+        <v>3193005</v>
       </c>
       <c r="BB97" s="11">
-        <v>4411153</v>
+        <v>5083219</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>59</v>
       </c>
@@ -12812,98 +12847,98 @@
       <c r="X98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z98" s="13" t="s">
-        <v>58</v>
+      <c r="Y98" s="13">
+        <v>1132564388</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>1397669927</v>
       </c>
       <c r="AA98" s="13">
-        <v>1132564388</v>
+        <v>1780813653</v>
       </c>
       <c r="AB98" s="13">
-        <v>1397669927</v>
+        <v>2102423163</v>
       </c>
       <c r="AC98" s="13">
-        <v>1780813653</v>
+        <v>2444637450</v>
       </c>
       <c r="AD98" s="13">
-        <v>2102423163</v>
+        <v>2299693182</v>
       </c>
       <c r="AE98" s="13">
-        <v>2444637450</v>
+        <v>2832802198</v>
       </c>
       <c r="AF98" s="13">
-        <v>2299693182</v>
+        <v>2606956370</v>
       </c>
       <c r="AG98" s="13">
-        <v>2832802198</v>
+        <v>2427581649</v>
       </c>
       <c r="AH98" s="13">
-        <v>2606956370</v>
+        <v>2625803347</v>
       </c>
       <c r="AI98" s="13">
-        <v>2427581649</v>
+        <v>2362121951</v>
       </c>
       <c r="AJ98" s="13">
-        <v>2625803347</v>
+        <v>2662597111</v>
       </c>
       <c r="AK98" s="13">
-        <v>2362121951</v>
+        <v>3495806452</v>
       </c>
       <c r="AL98" s="13">
-        <v>2662597111</v>
+        <v>3366891037</v>
       </c>
       <c r="AM98" s="13">
-        <v>3495806452</v>
+        <v>4722215659</v>
       </c>
       <c r="AN98" s="13">
-        <v>3366891037</v>
+        <v>4136790698</v>
       </c>
       <c r="AO98" s="13">
-        <v>4722215659</v>
+        <v>4849831104</v>
       </c>
       <c r="AP98" s="13">
-        <v>4136790698</v>
+        <v>4228518265</v>
       </c>
       <c r="AQ98" s="13">
-        <v>4849831104</v>
+        <v>4875186501</v>
       </c>
       <c r="AR98" s="13">
-        <v>4228518265</v>
+        <v>4711575188</v>
       </c>
       <c r="AS98" s="13">
-        <v>4875186501</v>
+        <v>4401865333</v>
       </c>
       <c r="AT98" s="13">
-        <v>4711575188</v>
+        <v>4681379182</v>
       </c>
       <c r="AU98" s="13">
-        <v>4401865333</v>
+        <v>4176331667</v>
       </c>
       <c r="AV98" s="13">
-        <v>4681379182</v>
+        <v>3603601375</v>
       </c>
       <c r="AW98" s="13">
-        <v>4176331667</v>
+        <v>3440901280</v>
       </c>
       <c r="AX98" s="13">
-        <v>3603601375</v>
+        <v>3120782927</v>
       </c>
       <c r="AY98" s="13">
-        <v>3440901280</v>
+        <v>3268365882</v>
       </c>
       <c r="AZ98" s="13">
-        <v>3120782927</v>
+        <v>3801684564</v>
       </c>
       <c r="BA98" s="13">
-        <v>3268365882</v>
+        <v>4094765035</v>
       </c>
       <c r="BB98" s="13">
-        <v>3801684564</v>
+        <v>4631548157</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>60</v>
       </c>
@@ -12971,98 +13006,98 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>808664</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>971725</v>
       </c>
       <c r="AA99" s="11">
-        <v>808664</v>
+        <v>1431141</v>
       </c>
       <c r="AB99" s="11">
-        <v>971725</v>
-      </c>
-      <c r="AC99" s="11">
-        <v>1431141</v>
+        <v>1080881</v>
+      </c>
+      <c r="AC99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD99" s="11">
-        <v>1080881</v>
-      </c>
-      <c r="AE99" s="11" t="s">
-        <v>58</v>
+        <v>1560258</v>
+      </c>
+      <c r="AE99" s="11">
+        <v>2291580</v>
       </c>
       <c r="AF99" s="11">
-        <v>1560258</v>
+        <v>2370646</v>
       </c>
       <c r="AG99" s="11">
-        <v>2291580</v>
-      </c>
-      <c r="AH99" s="11">
-        <v>2370646</v>
+        <v>1954506</v>
+      </c>
+      <c r="AH99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI99" s="11">
-        <v>1954506</v>
-      </c>
-      <c r="AJ99" s="11" t="s">
-        <v>58</v>
+        <v>2648188</v>
+      </c>
+      <c r="AJ99" s="11">
+        <v>1185775</v>
       </c>
       <c r="AK99" s="11">
-        <v>2648188</v>
+        <v>1703060</v>
       </c>
       <c r="AL99" s="11">
-        <v>1185775</v>
+        <v>1493852</v>
       </c>
       <c r="AM99" s="11">
-        <v>1703060</v>
+        <v>2153828</v>
       </c>
       <c r="AN99" s="11">
-        <v>1493852</v>
+        <v>2293851</v>
       </c>
       <c r="AO99" s="11">
-        <v>2153828</v>
+        <v>2179518</v>
       </c>
       <c r="AP99" s="11">
-        <v>2293851</v>
+        <v>2947274</v>
       </c>
       <c r="AQ99" s="11">
-        <v>2179518</v>
+        <v>3194856</v>
       </c>
       <c r="AR99" s="11">
-        <v>2947274</v>
+        <v>1968405</v>
       </c>
       <c r="AS99" s="11">
-        <v>3194856</v>
-      </c>
-      <c r="AT99" s="11">
-        <v>1968405</v>
+        <v>2441473</v>
+      </c>
+      <c r="AT99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU99" s="11">
-        <v>2441473</v>
-      </c>
-      <c r="AV99" s="11" t="s">
-        <v>58</v>
+        <v>2504309</v>
+      </c>
+      <c r="AV99" s="11">
+        <v>1407794</v>
       </c>
       <c r="AW99" s="11">
-        <v>2712524</v>
-      </c>
-      <c r="AX99" s="11">
-        <v>1407794</v>
+        <v>2830808</v>
+      </c>
+      <c r="AX99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY99" s="11">
-        <v>2830808</v>
-      </c>
-      <c r="AZ99" s="11" t="s">
-        <v>58</v>
+        <v>2490590</v>
+      </c>
+      <c r="AZ99" s="11">
+        <v>2681818</v>
       </c>
       <c r="BA99" s="11">
-        <v>2490590</v>
+        <v>2788723</v>
       </c>
       <c r="BB99" s="11">
-        <v>2681818</v>
+        <v>1177418</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>61</v>
       </c>
@@ -13130,98 +13165,98 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13">
+        <v>1202795</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>1194232</v>
       </c>
       <c r="AA100" s="13">
-        <v>1202795</v>
+        <v>1154399</v>
       </c>
       <c r="AB100" s="13">
-        <v>1194232</v>
+        <v>1059929</v>
       </c>
       <c r="AC100" s="13">
-        <v>1154399</v>
+        <v>914794</v>
       </c>
       <c r="AD100" s="13">
-        <v>1059929</v>
+        <v>989010</v>
       </c>
       <c r="AE100" s="13">
-        <v>914794</v>
+        <v>967754</v>
       </c>
       <c r="AF100" s="13">
-        <v>989010</v>
+        <v>965273</v>
       </c>
       <c r="AG100" s="13">
-        <v>967754</v>
+        <v>970404</v>
       </c>
       <c r="AH100" s="13">
-        <v>965273</v>
+        <v>1960543</v>
       </c>
       <c r="AI100" s="13">
-        <v>970404</v>
+        <v>3150020</v>
       </c>
       <c r="AJ100" s="13">
-        <v>1960543</v>
+        <v>3890425</v>
       </c>
       <c r="AK100" s="13">
-        <v>3150020</v>
+        <v>3949000</v>
       </c>
       <c r="AL100" s="13">
-        <v>3890425</v>
+        <v>3812957</v>
       </c>
       <c r="AM100" s="13">
-        <v>3949000</v>
+        <v>3956464</v>
       </c>
       <c r="AN100" s="13">
-        <v>3812957</v>
+        <v>5071596</v>
       </c>
       <c r="AO100" s="13">
-        <v>3956464</v>
+        <v>5989500</v>
       </c>
       <c r="AP100" s="13">
-        <v>5071596</v>
+        <v>5986274</v>
       </c>
       <c r="AQ100" s="13">
-        <v>5989500</v>
+        <v>6623001</v>
       </c>
       <c r="AR100" s="13">
-        <v>5986274</v>
+        <v>6244510</v>
       </c>
       <c r="AS100" s="13">
-        <v>6623001</v>
+        <v>7098802</v>
       </c>
       <c r="AT100" s="13">
-        <v>6244510</v>
+        <v>9573642</v>
       </c>
       <c r="AU100" s="13">
-        <v>7098802</v>
+        <v>10834592</v>
       </c>
       <c r="AV100" s="13">
-        <v>9573642</v>
+        <v>13948377</v>
       </c>
       <c r="AW100" s="13">
-        <v>10834592</v>
+        <v>14818677</v>
       </c>
       <c r="AX100" s="13">
-        <v>13948377</v>
+        <v>14701024</v>
       </c>
       <c r="AY100" s="13">
-        <v>14818677</v>
+        <v>14992982</v>
       </c>
       <c r="AZ100" s="13">
-        <v>14701024</v>
+        <v>14967951</v>
       </c>
       <c r="BA100" s="13">
-        <v>14992982</v>
+        <v>11280437</v>
       </c>
       <c r="BB100" s="13">
-        <v>14967951</v>
+        <v>10076865</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>62</v>
       </c>
@@ -13289,98 +13324,98 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>27563060241</v>
+      </c>
+      <c r="Z101" s="11">
+        <v>35146240000</v>
       </c>
       <c r="AA101" s="11">
-        <v>27563060241</v>
+        <v>35543293103</v>
       </c>
       <c r="AB101" s="11">
-        <v>35146240000</v>
-      </c>
-      <c r="AC101" s="11">
-        <v>35543293103</v>
+        <v>43479459459</v>
+      </c>
+      <c r="AC101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD101" s="11">
-        <v>43479459459</v>
-      </c>
-      <c r="AE101" s="11" t="s">
-        <v>58</v>
+        <v>39780615385</v>
+      </c>
+      <c r="AE101" s="11">
+        <v>35969318182</v>
       </c>
       <c r="AF101" s="11">
-        <v>39780615385</v>
+        <v>39300605263</v>
       </c>
       <c r="AG101" s="11">
-        <v>35969318182</v>
-      </c>
-      <c r="AH101" s="11">
-        <v>39300605263</v>
+        <v>33578758929</v>
+      </c>
+      <c r="AH101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI101" s="11">
-        <v>33578758929</v>
-      </c>
-      <c r="AJ101" s="11" t="s">
-        <v>58</v>
+        <v>31473477273</v>
+      </c>
+      <c r="AJ101" s="11">
+        <v>33939621849</v>
       </c>
       <c r="AK101" s="11">
-        <v>31473477273</v>
+        <v>35218036585</v>
       </c>
       <c r="AL101" s="11">
-        <v>33939621849</v>
+        <v>36579597826</v>
       </c>
       <c r="AM101" s="11">
-        <v>35218036585</v>
+        <v>33918592105</v>
       </c>
       <c r="AN101" s="11">
-        <v>36579597826</v>
+        <v>36397220930</v>
       </c>
       <c r="AO101" s="11">
-        <v>33918592105</v>
+        <v>35317504854</v>
       </c>
       <c r="AP101" s="11">
-        <v>36397220930</v>
+        <v>37289505376</v>
       </c>
       <c r="AQ101" s="11">
-        <v>35317504854</v>
+        <v>34005552632</v>
       </c>
       <c r="AR101" s="11">
-        <v>37289505376</v>
+        <v>36368730769</v>
       </c>
       <c r="AS101" s="11">
-        <v>34005552632</v>
+        <v>32390323529</v>
       </c>
       <c r="AT101" s="11">
-        <v>36368730769</v>
+        <v>42900035714</v>
       </c>
       <c r="AU101" s="11">
-        <v>32390323529</v>
+        <v>38070529412</v>
       </c>
       <c r="AV101" s="11">
-        <v>42900035714</v>
+        <v>37583512821</v>
       </c>
       <c r="AW101" s="11">
-        <v>38070529412</v>
+        <v>43408216667</v>
       </c>
       <c r="AX101" s="11">
-        <v>37583512821</v>
+        <v>35236943820</v>
       </c>
       <c r="AY101" s="11">
-        <v>43408216667</v>
+        <v>41071444444</v>
       </c>
       <c r="AZ101" s="11">
-        <v>35236943820</v>
+        <v>39128571429</v>
       </c>
       <c r="BA101" s="11">
-        <v>41071444444</v>
+        <v>36986087500</v>
       </c>
       <c r="BB101" s="11">
-        <v>39128571429</v>
+        <v>37164873563</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>63</v>
       </c>
@@ -13448,98 +13483,98 @@
       <c r="X102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z102" s="13" t="s">
-        <v>58</v>
+      <c r="Y102" s="13">
+        <v>166375610</v>
+      </c>
+      <c r="Z102" s="13">
+        <v>202673301</v>
       </c>
       <c r="AA102" s="13">
-        <v>166375610</v>
+        <v>236442682</v>
       </c>
       <c r="AB102" s="13">
-        <v>202673301</v>
+        <v>209639462</v>
       </c>
       <c r="AC102" s="13">
-        <v>236442682</v>
+        <v>292944206</v>
       </c>
       <c r="AD102" s="13">
-        <v>209639462</v>
+        <v>294733166</v>
       </c>
       <c r="AE102" s="13">
-        <v>292944206</v>
+        <v>403473343</v>
       </c>
       <c r="AF102" s="13">
-        <v>294733166</v>
+        <v>391546486</v>
       </c>
       <c r="AG102" s="13">
-        <v>403473343</v>
-      </c>
-      <c r="AH102" s="13">
-        <v>391546486</v>
+        <v>404189674</v>
+      </c>
+      <c r="AH102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI102" s="13">
-        <v>404189674</v>
-      </c>
-      <c r="AJ102" s="13" t="s">
-        <v>58</v>
+        <v>478303371</v>
+      </c>
+      <c r="AJ102" s="13">
+        <v>448616179</v>
       </c>
       <c r="AK102" s="13">
-        <v>478303371</v>
-      </c>
-      <c r="AL102" s="13">
-        <v>448616179</v>
+        <v>464751180</v>
+      </c>
+      <c r="AL102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM102" s="13">
-        <v>464751180</v>
-      </c>
-      <c r="AN102" s="13" t="s">
-        <v>58</v>
+        <v>456617124</v>
+      </c>
+      <c r="AN102" s="13">
+        <v>419073529</v>
       </c>
       <c r="AO102" s="13">
-        <v>456617124</v>
+        <v>442253151</v>
       </c>
       <c r="AP102" s="13">
-        <v>419073529</v>
-      </c>
-      <c r="AQ102" s="13">
-        <v>442253151</v>
-      </c>
-      <c r="AR102" s="13">
         <v>483809524</v>
       </c>
-      <c r="AS102" s="13" t="s">
-        <v>58</v>
+      <c r="AQ102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS102" s="13">
+        <v>495919184</v>
       </c>
       <c r="AT102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU102" s="13">
-        <v>495919184</v>
-      </c>
-      <c r="AV102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW102" s="13" t="s">
-        <v>58</v>
+      <c r="AU102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV102" s="13">
+        <v>581372506</v>
+      </c>
+      <c r="AW102" s="13">
+        <v>507855889</v>
       </c>
       <c r="AX102" s="13">
-        <v>581372506</v>
+        <v>449619577</v>
       </c>
       <c r="AY102" s="13">
-        <v>507855889</v>
+        <v>442546737</v>
       </c>
       <c r="AZ102" s="13">
-        <v>449619577</v>
+        <v>472422917</v>
       </c>
       <c r="BA102" s="13">
-        <v>442546737</v>
-      </c>
-      <c r="BB102" s="13">
-        <v>472422917</v>
+        <v>444511079</v>
+      </c>
+      <c r="BB102" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>64</v>
       </c>
@@ -13607,98 +13642,98 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>910310296</v>
+      </c>
+      <c r="Z103" s="11">
+        <v>1069699517</v>
       </c>
       <c r="AA103" s="11">
-        <v>910310296</v>
+        <v>1284886507</v>
       </c>
       <c r="AB103" s="11">
-        <v>1069699517</v>
+        <v>1482213395</v>
       </c>
       <c r="AC103" s="11">
-        <v>1284886507</v>
+        <v>1631658308</v>
       </c>
       <c r="AD103" s="11">
-        <v>1482213395</v>
+        <v>1908168665</v>
       </c>
       <c r="AE103" s="11">
-        <v>1631658308</v>
+        <v>2099781302</v>
       </c>
       <c r="AF103" s="11">
-        <v>1908168665</v>
+        <v>1880237395</v>
       </c>
       <c r="AG103" s="11">
-        <v>2099781302</v>
+        <v>2029886085</v>
       </c>
       <c r="AH103" s="11">
-        <v>1880237395</v>
+        <v>2183542636</v>
       </c>
       <c r="AI103" s="11">
-        <v>2029886085</v>
+        <v>2296574100</v>
       </c>
       <c r="AJ103" s="11">
-        <v>2183542636</v>
+        <v>2231062609</v>
       </c>
       <c r="AK103" s="11">
-        <v>2296574100</v>
+        <v>2110683590</v>
       </c>
       <c r="AL103" s="11">
-        <v>2231062609</v>
+        <v>2202832890</v>
       </c>
       <c r="AM103" s="11">
-        <v>2110683590</v>
+        <v>2236859206</v>
       </c>
       <c r="AN103" s="11">
-        <v>2202832890</v>
+        <v>2257708885</v>
       </c>
       <c r="AO103" s="11">
-        <v>2236859206</v>
+        <v>2371637873</v>
       </c>
       <c r="AP103" s="11">
-        <v>2257708885</v>
+        <v>2361005718</v>
       </c>
       <c r="AQ103" s="11">
-        <v>2371637873</v>
+        <v>2372414731</v>
       </c>
       <c r="AR103" s="11">
-        <v>2361005718</v>
+        <v>2488029334</v>
       </c>
       <c r="AS103" s="11">
-        <v>2372414731</v>
+        <v>2566071463</v>
       </c>
       <c r="AT103" s="11">
-        <v>2488029334</v>
+        <v>2566081994</v>
       </c>
       <c r="AU103" s="11">
-        <v>2566071463</v>
+        <v>2592467920</v>
       </c>
       <c r="AV103" s="11">
-        <v>2566081994</v>
+        <v>2449977794</v>
       </c>
       <c r="AW103" s="11">
-        <v>2592467920</v>
+        <v>2539285494</v>
       </c>
       <c r="AX103" s="11">
-        <v>2449977794</v>
+        <v>2314111618</v>
       </c>
       <c r="AY103" s="11">
-        <v>2539285494</v>
+        <v>2260635216</v>
       </c>
       <c r="AZ103" s="11">
-        <v>2314111618</v>
+        <v>2328631079</v>
       </c>
       <c r="BA103" s="11">
-        <v>2260635216</v>
+        <v>2383599265</v>
       </c>
       <c r="BB103" s="11">
-        <v>2328631079</v>
+        <v>2369673029</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>65</v>
       </c>
@@ -13766,27 +13801,27 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>1013893617</v>
       </c>
       <c r="Z104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA104" s="13">
-        <v>1013893617</v>
-      </c>
-      <c r="AB104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD104" s="13">
+      <c r="AA104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB104" s="13">
         <v>1645661017</v>
       </c>
-      <c r="AE104" s="13">
+      <c r="AC104" s="13">
         <v>1667131387</v>
       </c>
+      <c r="AD104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF104" s="13" t="s">
         <v>58</v>
       </c>
@@ -13857,7 +13892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>66</v>
       </c>
@@ -13985,38 +14020,38 @@
       <c r="AR105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS105" s="11" t="s">
-        <v>58</v>
+      <c r="AS105" s="11">
+        <v>5962731707</v>
       </c>
       <c r="AT105" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU105" s="11">
-        <v>5962731707</v>
+        <v>0</v>
       </c>
       <c r="AV105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW105" s="11" t="s">
-        <v>58</v>
+      <c r="AW105" s="11">
+        <v>5168142857</v>
       </c>
       <c r="AX105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY105" s="11">
-        <v>5168142857</v>
-      </c>
-      <c r="AZ105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB105" s="11" t="s">
-        <v>58</v>
+      <c r="AY105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ105" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA105" s="11">
+        <v>6662726277</v>
+      </c>
+      <c r="BB105" s="11">
+        <v>7803692913</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>67</v>
       </c>
@@ -14165,17 +14200,17 @@
       <c r="AY106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ106" s="13" t="s">
-        <v>58</v>
+      <c r="AZ106" s="13">
+        <v>1447863</v>
       </c>
       <c r="BA106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="BB106" s="13">
-        <v>1447863</v>
+        <v>1147591</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>92</v>
       </c>
@@ -14232,7 +14267,7 @@
       <c r="BA107" s="9"/>
       <c r="BB107" s="9"/>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>61</v>
       </c>
@@ -14324,14 +14359,14 @@
       <c r="AF108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG108" s="11" t="s">
-        <v>58</v>
+      <c r="AG108" s="11">
+        <v>2565476</v>
       </c>
       <c r="AH108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI108" s="11">
-        <v>2565476</v>
+      <c r="AI108" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ108" s="11" t="s">
         <v>58</v>
@@ -14351,14 +14386,14 @@
       <c r="AO108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP108" s="11" t="s">
-        <v>58</v>
+      <c r="AP108" s="11">
+        <v>5920283</v>
       </c>
       <c r="AQ108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="11">
-        <v>5920283</v>
+      <c r="AR108" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS108" s="11" t="s">
         <v>58</v>
@@ -14372,17 +14407,17 @@
       <c r="AV108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW108" s="11" t="s">
-        <v>58</v>
+      <c r="AW108" s="11">
+        <v>13159319</v>
       </c>
       <c r="AX108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY108" s="11">
-        <v>13159319</v>
-      </c>
-      <c r="AZ108" s="11" t="s">
-        <v>58</v>
+      <c r="AY108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ108" s="11">
+        <v>0</v>
       </c>
       <c r="BA108" s="11" t="s">
         <v>58</v>
@@ -14391,7 +14426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>63</v>
       </c>
@@ -14459,14 +14494,14 @@
       <c r="X109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="13" t="s">
-        <v>58</v>
+      <c r="Y109" s="13">
+        <v>6754266667</v>
       </c>
       <c r="Z109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA109" s="13">
-        <v>6754266667</v>
+      <c r="AA109" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB109" s="13" t="s">
         <v>58</v>
@@ -14477,20 +14512,20 @@
       <c r="AD109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE109" s="13" t="s">
-        <v>58</v>
+      <c r="AE109" s="13">
+        <v>470129757</v>
       </c>
       <c r="AF109" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AG109" s="13">
-        <v>470129757</v>
+        <v>4275884615</v>
       </c>
       <c r="AH109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI109" s="13">
-        <v>4275884615</v>
+      <c r="AI109" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ109" s="13" t="s">
         <v>58</v>
@@ -14550,7 +14585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>64</v>
       </c>
@@ -14618,98 +14653,98 @@
       <c r="X110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="11" t="s">
-        <v>58</v>
+      <c r="Y110" s="11">
+        <v>928538905</v>
+      </c>
+      <c r="Z110" s="11">
+        <v>1237104079</v>
       </c>
       <c r="AA110" s="11">
-        <v>928538905</v>
+        <v>1617818739</v>
       </c>
       <c r="AB110" s="11">
-        <v>1237104079</v>
+        <v>1538159967</v>
       </c>
       <c r="AC110" s="11">
-        <v>1617818739</v>
+        <v>1740655587</v>
       </c>
       <c r="AD110" s="11">
-        <v>1538159967</v>
+        <v>1977786240</v>
       </c>
       <c r="AE110" s="11">
-        <v>1740655587</v>
+        <v>1721847131</v>
       </c>
       <c r="AF110" s="11">
-        <v>1977786240</v>
+        <v>1985310736</v>
       </c>
       <c r="AG110" s="11">
-        <v>1721847131</v>
+        <v>2251599633</v>
       </c>
       <c r="AH110" s="11">
-        <v>1985310736</v>
+        <v>2059707602</v>
       </c>
       <c r="AI110" s="11">
-        <v>2251599633</v>
+        <v>2135670712</v>
       </c>
       <c r="AJ110" s="11">
-        <v>2059707602</v>
+        <v>2497932476</v>
       </c>
       <c r="AK110" s="11">
-        <v>2135670712</v>
+        <v>2114075822</v>
       </c>
       <c r="AL110" s="11">
-        <v>2497932476</v>
+        <v>2212392092</v>
       </c>
       <c r="AM110" s="11">
-        <v>2114075822</v>
+        <v>2203454002</v>
       </c>
       <c r="AN110" s="11">
-        <v>2212392092</v>
+        <v>2103669502</v>
       </c>
       <c r="AO110" s="11">
-        <v>2203454002</v>
+        <v>2409235468</v>
       </c>
       <c r="AP110" s="11">
-        <v>2103669502</v>
+        <v>2406199374</v>
       </c>
       <c r="AQ110" s="11">
-        <v>2409235468</v>
+        <v>2413432017</v>
       </c>
       <c r="AR110" s="11">
-        <v>2406199374</v>
+        <v>2499011675</v>
       </c>
       <c r="AS110" s="11">
-        <v>2413432017</v>
+        <v>2686617112</v>
       </c>
       <c r="AT110" s="11">
-        <v>2499011675</v>
+        <v>2684166967</v>
       </c>
       <c r="AU110" s="11">
-        <v>2686617112</v>
+        <v>2780618695</v>
       </c>
       <c r="AV110" s="11">
-        <v>2684166967</v>
+        <v>2844876598</v>
       </c>
       <c r="AW110" s="11">
-        <v>2780618695</v>
+        <v>2678123253</v>
       </c>
       <c r="AX110" s="11">
-        <v>2844876598</v>
+        <v>2865268288</v>
       </c>
       <c r="AY110" s="11">
-        <v>2678123253</v>
+        <v>2554428148</v>
       </c>
       <c r="AZ110" s="11">
-        <v>2865268288</v>
+        <v>2290902811</v>
       </c>
       <c r="BA110" s="11">
-        <v>2554428148</v>
+        <v>2307282108</v>
       </c>
       <c r="BB110" s="11">
-        <v>2290902811</v>
+        <v>2582350323</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>66</v>
       </c>
@@ -14777,95 +14812,95 @@
       <c r="X111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y111" s="13" t="s">
-        <v>58</v>
+      <c r="Y111" s="13">
+        <v>2150297297</v>
       </c>
       <c r="Z111" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AA111" s="13">
-        <v>2150297297</v>
-      </c>
-      <c r="AB111" s="13" t="s">
-        <v>58</v>
+        <v>1392250000</v>
+      </c>
+      <c r="AB111" s="13">
+        <v>1968050000</v>
       </c>
       <c r="AC111" s="13">
-        <v>1392250000</v>
+        <v>2640742268</v>
       </c>
       <c r="AD111" s="13">
-        <v>1968050000</v>
+        <v>2677694915</v>
       </c>
       <c r="AE111" s="13">
-        <v>2640742268</v>
-      </c>
-      <c r="AF111" s="13">
-        <v>2677694915</v>
+        <v>3082188889</v>
+      </c>
+      <c r="AF111" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG111" s="13">
-        <v>3082188889</v>
+        <v>2575900662</v>
       </c>
       <c r="AH111" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AI111" s="13">
-        <v>2575900662</v>
-      </c>
-      <c r="AJ111" s="13" t="s">
-        <v>58</v>
+        <v>3036850340</v>
+      </c>
+      <c r="AJ111" s="13">
+        <v>3413690476</v>
       </c>
       <c r="AK111" s="13">
-        <v>3036850340</v>
+        <v>15446575000</v>
       </c>
       <c r="AL111" s="13">
-        <v>3413690476</v>
+        <v>39403000000</v>
       </c>
       <c r="AM111" s="13">
-        <v>15446575000</v>
+        <v>4399634146</v>
       </c>
       <c r="AN111" s="13">
-        <v>39403000000</v>
+        <v>4584477612</v>
       </c>
       <c r="AO111" s="13">
-        <v>4399634146</v>
+        <v>4680619048</v>
       </c>
       <c r="AP111" s="13">
-        <v>4584477612</v>
+        <v>4435547619</v>
       </c>
       <c r="AQ111" s="13">
-        <v>4680619048</v>
+        <v>4893841270</v>
       </c>
       <c r="AR111" s="13">
-        <v>4435547619</v>
+        <v>4652523810</v>
       </c>
       <c r="AS111" s="13">
-        <v>4893841270</v>
-      </c>
-      <c r="AT111" s="13">
-        <v>4652523810</v>
+        <v>1166333333</v>
+      </c>
+      <c r="AT111" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU111" s="13">
-        <v>1166333333</v>
-      </c>
-      <c r="AV111" s="13" t="s">
-        <v>58</v>
+        <v>5082571429</v>
+      </c>
+      <c r="AV111" s="13">
+        <v>5258292683</v>
       </c>
       <c r="AW111" s="13">
-        <v>5082571429</v>
+        <v>3541000000</v>
       </c>
       <c r="AX111" s="13">
-        <v>5258292683</v>
+        <v>19978000000</v>
       </c>
       <c r="AY111" s="13">
-        <v>3541000000</v>
+        <v>4334048780</v>
       </c>
       <c r="AZ111" s="13">
-        <v>19978000000</v>
+        <v>5562428571</v>
       </c>
       <c r="BA111" s="13">
-        <v>4334048780</v>
+        <v>14583000000</v>
       </c>
       <c r="BB111" s="13">
-        <v>5562428571</v>
+        <v>6390904762</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/fameli/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/fameli/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="94">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3318,107 +3318,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>25133</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>25133</v>
+        <v>4451</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>4451</v>
+        <v>3665</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>3665</v>
+        <v>22494</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>22494</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>0</v>
+        <v>19180</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>19180</v>
+        <v>20466</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>20466</v>
+        <v>20599</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>20599</v>
-      </c>
-      <c r="AD11" s="13" t="n">
         <v>26092</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>58</v>
+      <c r="AD11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>6256</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>6256</v>
+        <v>3912</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>3912</v>
+        <v>2006</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>2006</v>
+        <v>31256</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>31256</v>
+        <v>4534</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>4534</v>
+        <v>44616</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>44616</v>
+        <v>22847</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>22847</v>
+        <v>7833</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>7833</v>
+        <v>6670</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>6670</v>
+        <v>829</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>829</v>
-      </c>
-      <c r="AP11" s="13" t="n">
         <v>9811</v>
       </c>
-      <c r="AQ11" s="13" t="s">
-        <v>58</v>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>4246</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4246</v>
+        <v>9397</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>9397</v>
+        <v>6663</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>6663</v>
+        <v>17129</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>17129</v>
+        <v>11467</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>11467</v>
+        <v>15009</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>15009</v>
+        <v>7119</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>7119</v>
+        <v>24153</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>24153</v>
+        <v>8912</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>8912</v>
+        <v>12140</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>12140</v>
+        <v>15070</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>15070</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,107 +3477,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>571</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>571</v>
+        <v>423</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>423</v>
+        <v>585</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>585</v>
+        <v>488</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>563</v>
+        <v>474</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>580</v>
+        <v>679</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>684</v>
+        <v>509</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>509</v>
+        <v>686</v>
       </c>
       <c r="AI12" s="16" t="n">
+        <v>755</v>
+      </c>
+      <c r="AJ12" s="16" t="n">
+        <v>735</v>
+      </c>
+      <c r="AK12" s="16" t="n">
+        <v>596</v>
+      </c>
+      <c r="AL12" s="16" t="n">
+        <v>645</v>
+      </c>
+      <c r="AM12" s="16" t="n">
+        <v>804</v>
+      </c>
+      <c r="AN12" s="16" t="n">
         <v>686</v>
       </c>
-      <c r="AJ12" s="16" t="n">
-        <v>755</v>
-      </c>
-      <c r="AK12" s="16" t="n">
-        <v>735</v>
-      </c>
-      <c r="AL12" s="16" t="n">
-        <v>596</v>
-      </c>
-      <c r="AM12" s="16" t="n">
-        <v>645</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>804</v>
-      </c>
       <c r="AO12" s="16" t="n">
-        <v>686</v>
+        <v>833</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>833</v>
+        <v>670</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>670</v>
+        <v>589</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>486</v>
+        <v>654</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>851</v>
+        <v>980</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>980</v>
+        <v>1025</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>1253</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,107 +3636,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>4007000</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>4007000</v>
+        <v>4098000</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>4098000</v>
+        <v>4642000</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>4642000</v>
+        <v>4716000</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>4716000</v>
+        <v>4372000</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>4372000</v>
+        <v>4358000</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>4358000</v>
+        <v>4028000</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>4028000</v>
+        <v>4792000</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>4792000</v>
+        <v>4574000</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>4574000</v>
+        <v>4847000</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>4847000</v>
+        <v>4819000</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>4819000</v>
+        <v>4893000</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>4893000</v>
+        <v>3244000</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>3244000</v>
+        <v>4178000</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>4178000</v>
+        <v>5118000</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>5118000</v>
+        <v>4946000</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>4946000</v>
+        <v>4597000</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>4597000</v>
+        <v>4329000</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>4329000</v>
+        <v>4434000</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>4434000</v>
+        <v>4225000</v>
       </c>
       <c r="AO13" s="13" t="n">
+        <v>4291000</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>4817</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>4878000</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>9706183</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>3736000</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>4107000</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>4936000</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>4992000</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>4810000</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>4724000</v>
+      </c>
+      <c r="AY13" s="13" t="n">
+        <v>4163000</v>
+      </c>
+      <c r="AZ13" s="13" t="n">
         <v>4225000</v>
       </c>
-      <c r="AP13" s="13" t="n">
-        <v>4291000</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>4817</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>4878000</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>9706183</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>3736000</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>4107000</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>4936000</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>4992000</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>4810000</v>
-      </c>
-      <c r="AY13" s="13" t="n">
-        <v>4724000</v>
-      </c>
-      <c r="AZ13" s="13" t="n">
-        <v>4163000</v>
-      </c>
       <c r="BA13" s="13" t="n">
-        <v>4225000</v>
+        <v>4218000</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>4218000</v>
+        <v>5082000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,107 +3795,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>50995</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>50995</v>
+        <v>26230</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>26230</v>
+        <v>30150</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>30150</v>
+        <v>28070</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>28070</v>
+        <v>36798</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>36798</v>
+        <v>39658</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>39658</v>
+        <v>55295</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>55295</v>
+        <v>56666</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>56666</v>
+        <v>69285</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>69285</v>
+        <v>64076</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>64076</v>
+        <v>76833</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>76833</v>
+        <v>75162</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>75162</v>
+        <v>53799</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>53799</v>
+        <v>46597</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>46597</v>
+        <v>57281</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>57281</v>
+        <v>82501</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>82501</v>
+        <v>81444</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>81444</v>
+        <v>81204</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>81204</v>
+        <v>74975</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>74975</v>
+        <v>53033</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>53033</v>
+        <v>70913</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>70913</v>
+        <v>85882</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>85882</v>
+        <v>87329</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>87329</v>
+        <v>77336</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>77336</v>
+        <v>66516</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>66516</v>
+        <v>46171</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>46171</v>
+        <v>86903</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>86903</v>
+        <v>88329</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>88329</v>
+        <v>81468</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>81468</v>
+        <v>76334</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>76334</v>
+        <v>69226</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>69226</v>
+        <v>59830</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>59830</v>
+        <v>61404</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>61404</v>
+        <v>67113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,107 +3954,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="13" t="n">
         <v>58</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC15" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF15" s="13" t="n">
         <v>72</v>
       </c>
-      <c r="AD15" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AG15" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AT15" s="13" t="n">
         <v>65</v>
       </c>
-      <c r="AF15" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AG15" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AU15" s="13" t="n">
         <v>66</v>
       </c>
-      <c r="AI15" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AL15" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AV15" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AZ15" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA15" s="13" t="n">
+        <v>157</v>
+      </c>
+      <c r="BB15" s="13" t="n">
         <v>78</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>54</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>88</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AZ15" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="BA15" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="BB15" s="13" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,107 +4113,107 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>93919</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>93919</v>
+        <v>89014</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>89014</v>
+        <v>106617</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>106617</v>
+        <v>107191</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>107191</v>
+        <v>97663</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>97663</v>
+        <v>100965</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>100965</v>
+        <v>68990</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>68990</v>
+        <v>100024</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>100024</v>
+        <v>101913</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>101913</v>
+        <v>108354</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>108354</v>
+        <v>108356</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>108356</v>
+        <v>106108</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>106108</v>
+        <v>79658</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>79658</v>
+        <v>88557</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>88557</v>
+        <v>115257</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>115257</v>
+        <v>111829</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>111829</v>
+        <v>101670</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>101670</v>
+        <v>104391</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>104391</v>
+        <v>105388</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>105388</v>
+        <v>98269</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>98269</v>
+        <v>99334</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>99334</v>
+        <v>111237</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>111237</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>0</v>
+        <v>216371</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>216371</v>
+        <v>90273</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>90273</v>
+        <v>86302</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>86302</v>
+        <v>110966</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>110966</v>
+        <v>100151</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>100151</v>
+        <v>89625</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>89625</v>
+        <v>94606</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>94606</v>
+        <v>85367</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>85367</v>
+        <v>103230</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>103230</v>
+        <v>99135</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>99135</v>
+        <v>118364</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,107 +4272,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>22071</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>22071</v>
+        <v>4818</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>4818</v>
+        <v>11808</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>11808</v>
+        <v>15666</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>15666</v>
+        <v>11000</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>11000</v>
+        <v>13553</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>13553</v>
+        <v>22251</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>22251</v>
+        <v>17616</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>17616</v>
+        <v>7057</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>7057</v>
+        <v>22392</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>22392</v>
+        <v>13754</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>13754</v>
+        <v>16187</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>16187</v>
+        <v>3993</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>3993</v>
+        <v>9079</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>9079</v>
+        <v>10600</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>10600</v>
+        <v>15468</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>15468</v>
+        <v>8099</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>8099</v>
+        <v>11142</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>11142</v>
+        <v>3583</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>3583</v>
+        <v>1781</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>1781</v>
+        <v>8147</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>8147</v>
+        <v>17377</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>17377</v>
+        <v>11987</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>11987</v>
+        <v>11251</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>11251</v>
+        <v>19390</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>19390</v>
+        <v>10966</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>10966</v>
+        <v>23562</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>23562</v>
+        <v>20547</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>20547</v>
+        <v>17417</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>17417</v>
+        <v>19064</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>19064</v>
+        <v>19107</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>19107</v>
+        <v>14636</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>14636</v>
+        <v>13891</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>13891</v>
+        <v>15971</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,14 +4431,14 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>924</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>924</v>
+        <v>32</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="X18" s="16" t="n">
         <v>0</v>
@@ -4458,8 +4458,8 @@
       <c r="AC18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="16" t="n">
-        <v>0</v>
+      <c r="AD18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE18" s="16" t="s">
         <v>58</v>
@@ -4470,11 +4470,11 @@
       <c r="AG18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI18" s="16" t="n">
-        <v>0</v>
+      <c r="AH18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="16" t="s">
         <v>58</v>
@@ -4482,20 +4482,20 @@
       <c r="AK18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM18" s="16" t="n">
-        <v>0</v>
+      <c r="AL18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="16" t="n">
-        <v>0</v>
+      <c r="AO18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="16" t="s">
         <v>58</v>
@@ -4650,47 +4650,47 @@
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AO19" s="13" t="n">
         <v>67</v>
       </c>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="13" t="s">
-        <v>58</v>
+      <c r="AR19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AZ19" s="13" t="n">
+        <v>168</v>
+      </c>
+      <c r="BA19" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB19" s="13" t="n">
         <v>146</v>
-      </c>
-      <c r="BA19" s="13" t="n">
-        <v>168</v>
-      </c>
-      <c r="BB19" s="13" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,17 +4839,17 @@
       <c r="AX20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY20" s="16" t="s">
-        <v>58</v>
+      <c r="AY20" s="16" t="n">
+        <v>1253</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>1253</v>
+        <v>1401</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>1401</v>
+        <v>2161</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>2161</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,17 +4989,17 @@
       <c r="AU21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV21" s="13" t="s">
-        <v>58</v>
+      <c r="AV21" s="13" t="n">
+        <v>513340</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>513340</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>0</v>
+        <v>39203</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>39203</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="13" t="n">
         <v>0</v>
@@ -5066,106 +5066,106 @@
         <v>0</v>
       </c>
       <c r="U22" s="18" t="n">
-        <v>0</v>
+        <v>4200671</v>
       </c>
       <c r="V22" s="18" t="n">
-        <v>4200671</v>
+        <v>4223031</v>
       </c>
       <c r="W22" s="18" t="n">
-        <v>4223031</v>
+        <v>4794892</v>
       </c>
       <c r="X22" s="18" t="n">
-        <v>4794892</v>
+        <v>4889960</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>4889960</v>
+        <v>4518076</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>4518076</v>
+        <v>4531924</v>
       </c>
       <c r="AA22" s="18" t="n">
-        <v>4531924</v>
+        <v>4195535</v>
       </c>
       <c r="AB22" s="18" t="n">
-        <v>4195535</v>
+        <v>4987578</v>
       </c>
       <c r="AC22" s="18" t="n">
-        <v>4987578</v>
+        <v>4778980</v>
       </c>
       <c r="AD22" s="18" t="n">
-        <v>4778980</v>
+        <v>5042566</v>
       </c>
       <c r="AE22" s="18" t="n">
-        <v>5042566</v>
+        <v>5024938</v>
       </c>
       <c r="AF22" s="18" t="n">
-        <v>5024938</v>
+        <v>5095125</v>
       </c>
       <c r="AG22" s="18" t="n">
-        <v>5095125</v>
+        <v>3384031</v>
       </c>
       <c r="AH22" s="18" t="n">
-        <v>3384031</v>
+        <v>4354232</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>4354232</v>
+        <v>5306519</v>
       </c>
       <c r="AJ22" s="18" t="n">
-        <v>5306519</v>
+        <v>5201218</v>
       </c>
       <c r="AK22" s="18" t="n">
-        <v>5201218</v>
+        <v>4811733</v>
       </c>
       <c r="AL22" s="18" t="n">
-        <v>4811733</v>
+        <v>4534296</v>
       </c>
       <c r="AM22" s="18" t="n">
-        <v>4534296</v>
+        <v>4625481</v>
       </c>
       <c r="AN22" s="18" t="n">
-        <v>4625481</v>
+        <v>4379648</v>
       </c>
       <c r="AO22" s="18" t="n">
-        <v>4379648</v>
+        <v>4480183</v>
       </c>
       <c r="AP22" s="18" t="n">
-        <v>4480183</v>
+        <v>220085</v>
       </c>
       <c r="AQ22" s="18" t="n">
-        <v>220085</v>
+        <v>4982205</v>
       </c>
       <c r="AR22" s="18" t="n">
-        <v>4982205</v>
+        <v>10021202</v>
       </c>
       <c r="AS22" s="18" t="n">
-        <v>10021202</v>
+        <v>3919553</v>
       </c>
       <c r="AT22" s="18" t="n">
-        <v>3919553</v>
+        <v>4268239</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>4268239</v>
+        <v>5169618</v>
       </c>
       <c r="AV22" s="18" t="n">
-        <v>5169618</v>
+        <v>5730297</v>
       </c>
       <c r="AW22" s="18" t="n">
-        <v>5730297</v>
+        <v>5006686</v>
       </c>
       <c r="AX22" s="18" t="n">
-        <v>5006686</v>
+        <v>4978539</v>
       </c>
       <c r="AY22" s="18" t="n">
-        <v>4978539</v>
+        <v>4348123</v>
       </c>
       <c r="AZ22" s="18" t="n">
-        <v>4348123</v>
+        <v>4417696</v>
       </c>
       <c r="BA22" s="18" t="n">
-        <v>4417696</v>
+        <v>4411134</v>
       </c>
       <c r="BB22" s="18" t="n">
-        <v>4411134</v>
+        <v>5293907</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,12 +5305,12 @@
       <c r="AB24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD24" s="13" t="n">
+      <c r="AC24" s="13" t="n">
         <v>504</v>
       </c>
+      <c r="AD24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE24" s="13" t="s">
         <v>58</v>
       </c>
@@ -5332,20 +5332,20 @@
       <c r="AK24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM24" s="13" t="n">
+      <c r="AL24" s="13" t="n">
         <v>991</v>
       </c>
+      <c r="AM24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP24" s="13" t="n">
-        <v>0</v>
+      <c r="AO24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ24" s="13" t="s">
         <v>58</v>
@@ -5353,11 +5353,11 @@
       <c r="AR24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
+      <c r="AS24" s="13" t="n">
+        <v>998</v>
       </c>
       <c r="AT24" s="13" t="n">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="13" t="n">
         <v>0</v>
@@ -5440,8 +5440,8 @@
       <c r="T25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="16" t="s">
-        <v>58</v>
+      <c r="U25" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="16" t="n">
         <v>0</v>
@@ -5459,17 +5459,17 @@
         <v>0</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>0</v>
+        <v>23806</v>
       </c>
       <c r="AB25" s="16" t="n">
-        <v>23806</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="16" t="n">
         <v>52</v>
       </c>
+      <c r="AD25" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE25" s="16" t="s">
         <v>58</v>
       </c>
@@ -5500,11 +5500,11 @@
       <c r="AN25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP25" s="16" t="n">
-        <v>0</v>
+      <c r="AO25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>58</v>
@@ -5599,107 +5599,107 @@
       <c r="T26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>58</v>
+      <c r="U26" s="13" t="n">
+        <v>11271</v>
       </c>
       <c r="V26" s="13" t="n">
-        <v>11271</v>
+        <v>8532</v>
       </c>
       <c r="W26" s="13" t="n">
-        <v>8532</v>
+        <v>12391</v>
       </c>
       <c r="X26" s="13" t="n">
-        <v>12391</v>
+        <v>7164</v>
       </c>
       <c r="Y26" s="13" t="n">
-        <v>7164</v>
+        <v>9567</v>
       </c>
       <c r="Z26" s="13" t="n">
-        <v>9567</v>
+        <v>9927</v>
       </c>
       <c r="AA26" s="13" t="n">
-        <v>9927</v>
+        <v>2090</v>
       </c>
       <c r="AB26" s="13" t="n">
-        <v>2090</v>
+        <v>7051</v>
       </c>
       <c r="AC26" s="13" t="n">
-        <v>7051</v>
+        <v>17439</v>
       </c>
       <c r="AD26" s="13" t="n">
-        <v>17439</v>
+        <v>2223</v>
       </c>
       <c r="AE26" s="13" t="n">
-        <v>2223</v>
+        <v>11619</v>
       </c>
       <c r="AF26" s="13" t="n">
-        <v>11619</v>
+        <v>9404</v>
       </c>
       <c r="AG26" s="13" t="n">
-        <v>9404</v>
+        <v>17541</v>
       </c>
       <c r="AH26" s="13" t="n">
-        <v>17541</v>
+        <v>10319</v>
       </c>
       <c r="AI26" s="13" t="n">
-        <v>10319</v>
+        <v>16218</v>
       </c>
       <c r="AJ26" s="13" t="n">
-        <v>16218</v>
+        <v>7994</v>
       </c>
       <c r="AK26" s="13" t="n">
-        <v>7994</v>
+        <v>15896</v>
       </c>
       <c r="AL26" s="13" t="n">
-        <v>15896</v>
+        <v>13418</v>
       </c>
       <c r="AM26" s="13" t="n">
-        <v>13418</v>
+        <v>19115</v>
       </c>
       <c r="AN26" s="13" t="n">
-        <v>19115</v>
+        <v>18673</v>
       </c>
       <c r="AO26" s="13" t="n">
-        <v>18673</v>
+        <v>17368</v>
       </c>
       <c r="AP26" s="13" t="n">
-        <v>17368</v>
+        <v>7768</v>
       </c>
       <c r="AQ26" s="13" t="n">
-        <v>7768</v>
+        <v>12709</v>
       </c>
       <c r="AR26" s="13" t="n">
-        <v>12709</v>
+        <v>14392</v>
       </c>
       <c r="AS26" s="13" t="n">
-        <v>14392</v>
+        <v>4292</v>
       </c>
       <c r="AT26" s="13" t="n">
-        <v>4292</v>
+        <v>5345</v>
       </c>
       <c r="AU26" s="13" t="n">
-        <v>5345</v>
+        <v>4391</v>
       </c>
       <c r="AV26" s="13" t="n">
-        <v>4391</v>
+        <v>4661</v>
       </c>
       <c r="AW26" s="13" t="n">
-        <v>4661</v>
+        <v>8596</v>
       </c>
       <c r="AX26" s="13" t="n">
-        <v>8596</v>
+        <v>6965</v>
       </c>
       <c r="AY26" s="13" t="n">
-        <v>6965</v>
+        <v>6833</v>
       </c>
       <c r="AZ26" s="13" t="n">
-        <v>6833</v>
+        <v>11239</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>11239</v>
+        <v>13624</v>
       </c>
       <c r="BB26" s="13" t="n">
-        <v>13624</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,107 +5758,107 @@
       <c r="T27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="16" t="s">
-        <v>58</v>
+      <c r="U27" s="16" t="n">
+        <v>148</v>
       </c>
       <c r="V27" s="16" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="Y27" s="16" t="n">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="Z27" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA27" s="16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB27" s="16" t="n">
+        <v>381</v>
+      </c>
+      <c r="AC27" s="16" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27" s="16" t="n">
         <v>194</v>
       </c>
-      <c r="AA27" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB27" s="16" t="n">
+      <c r="AF27" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AG27" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="AH27" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI27" s="16" t="n">
         <v>90</v>
       </c>
-      <c r="AC27" s="16" t="n">
-        <v>381</v>
-      </c>
-      <c r="AD27" s="16" t="n">
-        <v>99</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="16" t="n">
-        <v>194</v>
-      </c>
-      <c r="AG27" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AH27" s="16" t="n">
-        <v>87</v>
-      </c>
-      <c r="AI27" s="16" t="n">
+      <c r="AJ27" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="AK27" s="16" t="n">
         <v>92</v>
       </c>
-      <c r="AJ27" s="16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="16" t="n">
+      <c r="AL27" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM27" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="AL27" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="AM27" s="16" t="n">
+      <c r="AN27" s="16" t="n">
+        <v>86</v>
+      </c>
+      <c r="AO27" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP27" s="16" t="n">
         <v>96</v>
-      </c>
-      <c r="AN27" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="AO27" s="16" t="n">
-        <v>86</v>
-      </c>
-      <c r="AP27" s="16" t="n">
-        <v>24</v>
       </c>
       <c r="AQ27" s="16" t="n">
         <v>96</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AT27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="16" t="n">
+        <v>127</v>
+      </c>
+      <c r="AV27" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AU27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="16" t="n">
-        <v>127</v>
-      </c>
       <c r="AW27" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="16" t="n">
         <v>21</v>
-      </c>
-      <c r="AX27" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="AY27" s="16" t="n">
         <v>21</v>
       </c>
       <c r="AZ27" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="16" t="n">
+        <v>103</v>
+      </c>
+      <c r="BB27" s="16" t="n">
         <v>21</v>
-      </c>
-      <c r="BA27" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" s="16" t="n">
-        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,106 +5916,106 @@
         <v>0</v>
       </c>
       <c r="U28" s="20" t="n">
-        <v>0</v>
+        <v>11419</v>
       </c>
       <c r="V28" s="20" t="n">
-        <v>11419</v>
+        <v>8532</v>
       </c>
       <c r="W28" s="20" t="n">
-        <v>8532</v>
+        <v>12551</v>
       </c>
       <c r="X28" s="20" t="n">
-        <v>12551</v>
+        <v>7204</v>
       </c>
       <c r="Y28" s="20" t="n">
-        <v>7204</v>
+        <v>9761</v>
       </c>
       <c r="Z28" s="20" t="n">
-        <v>9761</v>
+        <v>9986</v>
       </c>
       <c r="AA28" s="20" t="n">
-        <v>9986</v>
+        <v>25986</v>
       </c>
       <c r="AB28" s="20" t="n">
-        <v>25986</v>
+        <v>7432</v>
       </c>
       <c r="AC28" s="20" t="n">
-        <v>7432</v>
+        <v>18094</v>
       </c>
       <c r="AD28" s="20" t="n">
-        <v>18094</v>
+        <v>2223</v>
       </c>
       <c r="AE28" s="20" t="n">
-        <v>2223</v>
+        <v>11813</v>
       </c>
       <c r="AF28" s="20" t="n">
-        <v>11813</v>
+        <v>9495</v>
       </c>
       <c r="AG28" s="20" t="n">
-        <v>9495</v>
+        <v>17628</v>
       </c>
       <c r="AH28" s="20" t="n">
-        <v>17628</v>
+        <v>10411</v>
       </c>
       <c r="AI28" s="20" t="n">
-        <v>10411</v>
+        <v>16308</v>
       </c>
       <c r="AJ28" s="20" t="n">
-        <v>16308</v>
+        <v>8083</v>
       </c>
       <c r="AK28" s="20" t="n">
-        <v>8083</v>
+        <v>15988</v>
       </c>
       <c r="AL28" s="20" t="n">
-        <v>15988</v>
+        <v>14505</v>
       </c>
       <c r="AM28" s="20" t="n">
-        <v>14505</v>
+        <v>19204</v>
       </c>
       <c r="AN28" s="20" t="n">
-        <v>19204</v>
+        <v>18759</v>
       </c>
       <c r="AO28" s="20" t="n">
-        <v>18759</v>
+        <v>17392</v>
       </c>
       <c r="AP28" s="20" t="n">
-        <v>17392</v>
+        <v>7864</v>
       </c>
       <c r="AQ28" s="20" t="n">
-        <v>7864</v>
+        <v>12805</v>
       </c>
       <c r="AR28" s="20" t="n">
-        <v>12805</v>
+        <v>14396</v>
       </c>
       <c r="AS28" s="20" t="n">
-        <v>14396</v>
+        <v>5311</v>
       </c>
       <c r="AT28" s="20" t="n">
-        <v>5311</v>
+        <v>5345</v>
       </c>
       <c r="AU28" s="20" t="n">
-        <v>5345</v>
+        <v>4518</v>
       </c>
       <c r="AV28" s="20" t="n">
-        <v>4518</v>
+        <v>4682</v>
       </c>
       <c r="AW28" s="20" t="n">
-        <v>4682</v>
+        <v>8597</v>
       </c>
       <c r="AX28" s="20" t="n">
-        <v>8597</v>
+        <v>6986</v>
       </c>
       <c r="AY28" s="20" t="n">
-        <v>6986</v>
+        <v>6854</v>
       </c>
       <c r="AZ28" s="20" t="n">
-        <v>6854</v>
+        <v>11240</v>
       </c>
       <c r="BA28" s="20" t="n">
-        <v>11240</v>
+        <v>13727</v>
       </c>
       <c r="BB28" s="20" t="n">
-        <v>13727</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,8 +6129,8 @@
       <c r="T30" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="20" t="s">
-        <v>58</v>
+      <c r="U30" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V30" s="20" t="n">
         <v>0</v>
@@ -6287,106 +6287,106 @@
         <v>0</v>
       </c>
       <c r="U31" s="18" t="n">
-        <v>0</v>
+        <v>4212090</v>
       </c>
       <c r="V31" s="18" t="n">
-        <v>4212090</v>
+        <v>4231563</v>
       </c>
       <c r="W31" s="18" t="n">
-        <v>4231563</v>
+        <v>4807443</v>
       </c>
       <c r="X31" s="18" t="n">
-        <v>4807443</v>
+        <v>4897164</v>
       </c>
       <c r="Y31" s="18" t="n">
-        <v>4897164</v>
+        <v>4527837</v>
       </c>
       <c r="Z31" s="18" t="n">
-        <v>4527837</v>
+        <v>4541910</v>
       </c>
       <c r="AA31" s="18" t="n">
-        <v>4541910</v>
+        <v>4221521</v>
       </c>
       <c r="AB31" s="18" t="n">
-        <v>4221521</v>
+        <v>4995010</v>
       </c>
       <c r="AC31" s="18" t="n">
+        <v>4797074</v>
+      </c>
+      <c r="AD31" s="18" t="n">
+        <v>5044789</v>
+      </c>
+      <c r="AE31" s="18" t="n">
+        <v>5036751</v>
+      </c>
+      <c r="AF31" s="18" t="n">
+        <v>5104620</v>
+      </c>
+      <c r="AG31" s="18" t="n">
+        <v>3401659</v>
+      </c>
+      <c r="AH31" s="18" t="n">
+        <v>4364643</v>
+      </c>
+      <c r="AI31" s="18" t="n">
+        <v>5322827</v>
+      </c>
+      <c r="AJ31" s="18" t="n">
+        <v>5209301</v>
+      </c>
+      <c r="AK31" s="18" t="n">
+        <v>4827721</v>
+      </c>
+      <c r="AL31" s="18" t="n">
+        <v>4548801</v>
+      </c>
+      <c r="AM31" s="18" t="n">
+        <v>4644685</v>
+      </c>
+      <c r="AN31" s="18" t="n">
+        <v>4398407</v>
+      </c>
+      <c r="AO31" s="18" t="n">
+        <v>4497575</v>
+      </c>
+      <c r="AP31" s="18" t="n">
+        <v>227949</v>
+      </c>
+      <c r="AQ31" s="18" t="n">
         <v>4995010</v>
       </c>
-      <c r="AD31" s="18" t="n">
-        <v>4797074</v>
-      </c>
-      <c r="AE31" s="18" t="n">
-        <v>5044789</v>
-      </c>
-      <c r="AF31" s="18" t="n">
-        <v>5036751</v>
-      </c>
-      <c r="AG31" s="18" t="n">
-        <v>5104620</v>
-      </c>
-      <c r="AH31" s="18" t="n">
-        <v>3401659</v>
-      </c>
-      <c r="AI31" s="18" t="n">
-        <v>4364643</v>
-      </c>
-      <c r="AJ31" s="18" t="n">
-        <v>5322827</v>
-      </c>
-      <c r="AK31" s="18" t="n">
-        <v>5209301</v>
-      </c>
-      <c r="AL31" s="18" t="n">
-        <v>4827721</v>
-      </c>
-      <c r="AM31" s="18" t="n">
-        <v>4548801</v>
-      </c>
-      <c r="AN31" s="18" t="n">
-        <v>4644685</v>
-      </c>
-      <c r="AO31" s="18" t="n">
-        <v>4398407</v>
-      </c>
-      <c r="AP31" s="18" t="n">
-        <v>4497575</v>
-      </c>
-      <c r="AQ31" s="18" t="n">
-        <v>227949</v>
-      </c>
       <c r="AR31" s="18" t="n">
-        <v>4995010</v>
+        <v>10035598</v>
       </c>
       <c r="AS31" s="18" t="n">
-        <v>10035598</v>
+        <v>3924864</v>
       </c>
       <c r="AT31" s="18" t="n">
-        <v>3924864</v>
+        <v>4273584</v>
       </c>
       <c r="AU31" s="18" t="n">
-        <v>4273584</v>
+        <v>5174136</v>
       </c>
       <c r="AV31" s="18" t="n">
-        <v>5174136</v>
+        <v>5734979</v>
       </c>
       <c r="AW31" s="18" t="n">
-        <v>5734979</v>
+        <v>5015283</v>
       </c>
       <c r="AX31" s="18" t="n">
-        <v>5015283</v>
+        <v>4985525</v>
       </c>
       <c r="AY31" s="18" t="n">
-        <v>4985525</v>
+        <v>4354977</v>
       </c>
       <c r="AZ31" s="18" t="n">
-        <v>4354977</v>
+        <v>4428936</v>
       </c>
       <c r="BA31" s="18" t="n">
-        <v>4428936</v>
+        <v>4424861</v>
       </c>
       <c r="BB31" s="18" t="n">
-        <v>4424861</v>
+        <v>5298799</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,107 +6879,107 @@
       <c r="T38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="13" t="s">
-        <v>58</v>
+      <c r="U38" s="13" t="n">
+        <v>25133</v>
       </c>
       <c r="V38" s="13" t="n">
-        <v>25133</v>
+        <v>4451</v>
       </c>
       <c r="W38" s="13" t="n">
-        <v>4451</v>
+        <v>13665</v>
       </c>
       <c r="X38" s="13" t="n">
-        <v>13665</v>
+        <v>22494</v>
       </c>
       <c r="Y38" s="13" t="n">
-        <v>22494</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="13" t="n">
-        <v>0</v>
+        <v>19180</v>
       </c>
       <c r="AA38" s="13" t="n">
-        <v>19180</v>
+        <v>20466</v>
       </c>
       <c r="AB38" s="13" t="n">
-        <v>20466</v>
+        <v>20599</v>
       </c>
       <c r="AC38" s="13" t="n">
-        <v>20599</v>
-      </c>
-      <c r="AD38" s="13" t="n">
         <v>55208</v>
       </c>
-      <c r="AE38" s="13" t="s">
-        <v>58</v>
+      <c r="AD38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" s="13" t="n">
+        <v>6256</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>6256</v>
+        <v>3912</v>
       </c>
       <c r="AG38" s="13" t="n">
-        <v>3912</v>
+        <v>2006</v>
       </c>
       <c r="AH38" s="13" t="n">
-        <v>2006</v>
+        <v>31256</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>31256</v>
+        <v>4534</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>4534</v>
+        <v>44616</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>44616</v>
+        <v>22847</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>22847</v>
+        <v>7833</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>7833</v>
+        <v>6670</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>6670</v>
+        <v>829</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>829</v>
-      </c>
-      <c r="AP38" s="13" t="n">
         <v>9811</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
+      <c r="AP38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ38" s="13" t="n">
+        <v>4246</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>4246</v>
+        <v>9397</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>9397</v>
+        <v>6663</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>6663</v>
+        <v>17129</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>17129</v>
+        <v>11467</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>11467</v>
+        <v>15009</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>15009</v>
+        <v>7119</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>7119</v>
+        <v>24153</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>24153</v>
+        <v>8912</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>8912</v>
+        <v>12140</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>12140</v>
+        <v>15070</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>15070</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,107 +7038,107 @@
       <c r="T39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>58</v>
+      <c r="U39" s="16" t="n">
+        <v>629</v>
       </c>
       <c r="V39" s="16" t="n">
-        <v>629</v>
+        <v>409</v>
       </c>
       <c r="W39" s="16" t="n">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="X39" s="16" t="n">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="Y39" s="16" t="n">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Z39" s="16" t="n">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="AB39" s="16" t="n">
-        <v>455</v>
+        <v>573</v>
       </c>
       <c r="AC39" s="16" t="n">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="AD39" s="16" t="n">
-        <v>643</v>
+        <v>239</v>
       </c>
       <c r="AE39" s="16" t="n">
-        <v>239</v>
+        <v>533</v>
       </c>
       <c r="AF39" s="16" t="n">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="AG39" s="16" t="n">
-        <v>623</v>
+        <v>372</v>
       </c>
       <c r="AH39" s="16" t="n">
-        <v>372</v>
+        <v>569</v>
       </c>
       <c r="AI39" s="16" t="n">
-        <v>569</v>
+        <v>728</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>728</v>
+        <v>430</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>430</v>
+        <v>598</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="AN39" s="16" t="n">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="AO39" s="16" t="n">
-        <v>532</v>
+        <v>750</v>
       </c>
       <c r="AP39" s="16" t="n">
-        <v>750</v>
+        <v>269</v>
       </c>
       <c r="AQ39" s="16" t="n">
-        <v>269</v>
+        <v>600</v>
       </c>
       <c r="AR39" s="16" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="AS39" s="16" t="n">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="AT39" s="16" t="n">
-        <v>547</v>
+        <v>410</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>410</v>
+        <v>850</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>850</v>
+        <v>745</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>715</v>
+        <v>841</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>795</v>
+        <v>724</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>724</v>
+        <v>1071</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>1071</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,107 +7197,107 @@
       <c r="T40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
+      <c r="U40" s="13" t="n">
+        <v>100645</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>100645</v>
+        <v>72220</v>
       </c>
       <c r="W40" s="13" t="n">
-        <v>72220</v>
+        <v>13288</v>
       </c>
       <c r="X40" s="13" t="n">
-        <v>13288</v>
+        <v>78634</v>
       </c>
       <c r="Y40" s="13" t="n">
-        <v>78634</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>0</v>
+        <v>241685</v>
       </c>
       <c r="AA40" s="13" t="n">
-        <v>241685</v>
+        <v>10570</v>
       </c>
       <c r="AB40" s="13" t="n">
-        <v>10570</v>
+        <v>102529</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>102529</v>
+        <v>686156</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>686156</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>938</v>
+        <v>404758</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>404758</v>
+        <v>42517</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>42517</v>
+        <v>77347</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>77347</v>
+        <v>321397</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>321397</v>
+        <v>82484</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>82484</v>
+        <v>172462</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>172462</v>
+        <v>74441</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>74441</v>
+        <v>211438</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>211438</v>
+        <v>186200</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>186200</v>
+        <v>193595</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>193595</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>0</v>
+        <v>349653</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>349653</v>
+        <v>45935</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>45935</v>
+        <v>26597</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>26597</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>0</v>
+        <v>230828</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>230828</v>
+        <v>11814</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>11814</v>
+        <v>722243</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>722243</v>
+        <v>59002</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>59002</v>
+        <v>381563</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>381563</v>
+        <v>19076</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>19076</v>
+        <v>48744</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>48744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,107 +7356,107 @@
       <c r="T41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="16" t="s">
-        <v>58</v>
+      <c r="U41" s="16" t="n">
+        <v>8945</v>
       </c>
       <c r="V41" s="16" t="n">
-        <v>8945</v>
+        <v>30026</v>
       </c>
       <c r="W41" s="16" t="n">
-        <v>30026</v>
+        <v>24333</v>
       </c>
       <c r="X41" s="16" t="n">
-        <v>24333</v>
+        <v>14417</v>
       </c>
       <c r="Y41" s="16" t="n">
-        <v>14417</v>
+        <v>10633</v>
       </c>
       <c r="Z41" s="16" t="n">
-        <v>10633</v>
+        <v>64784</v>
       </c>
       <c r="AA41" s="16" t="n">
-        <v>64784</v>
+        <v>61745</v>
       </c>
       <c r="AB41" s="16" t="n">
-        <v>61745</v>
+        <v>63149</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>63149</v>
+        <v>86565</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>86565</v>
+        <v>35532</v>
       </c>
       <c r="AE41" s="16" t="n">
-        <v>35532</v>
+        <v>84182</v>
       </c>
       <c r="AF41" s="16" t="n">
-        <v>84182</v>
+        <v>66703</v>
       </c>
       <c r="AG41" s="16" t="n">
-        <v>66703</v>
+        <v>38353</v>
       </c>
       <c r="AH41" s="16" t="n">
-        <v>38353</v>
+        <v>56153</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>56153</v>
+        <v>49476</v>
       </c>
       <c r="AJ41" s="16" t="n">
-        <v>49476</v>
+        <v>42768</v>
       </c>
       <c r="AK41" s="16" t="n">
-        <v>42768</v>
+        <v>66188</v>
       </c>
       <c r="AL41" s="16" t="n">
-        <v>66188</v>
+        <v>78394</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>78394</v>
+        <v>73605</v>
       </c>
       <c r="AN41" s="16" t="n">
-        <v>73605</v>
+        <v>75633</v>
       </c>
       <c r="AO41" s="16" t="n">
-        <v>75633</v>
+        <v>78106</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>78106</v>
+        <v>58540</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>58540</v>
+        <v>85836</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>85836</v>
+        <v>76284</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>76284</v>
+        <v>61327</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>61327</v>
+        <v>38458</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>38458</v>
+        <v>61127</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>61127</v>
+        <v>51110</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>51110</v>
+        <v>74359</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>74359</v>
+        <v>66636</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>66636</v>
+        <v>65910</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>65910</v>
+        <v>58472</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>58472</v>
+        <v>89145</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>89145</v>
+        <v>37151</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7515,107 +7515,107 @@
       <c r="T42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>58</v>
+      <c r="U42" s="13" t="n">
+        <v>83</v>
       </c>
       <c r="V42" s="13" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA42" s="13" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="13" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AC42" s="13" t="n">
+        <v>112</v>
+      </c>
+      <c r="AD42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF42" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG42" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH42" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI42" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AJ42" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AK42" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL42" s="13" t="n">
+        <v>93</v>
+      </c>
+      <c r="AM42" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="AD42" s="13" t="n">
-        <v>112</v>
-      </c>
-      <c r="AE42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG42" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH42" s="13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AI42" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AJ42" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK42" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AL42" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="AM42" s="13" t="n">
-        <v>93</v>
-      </c>
       <c r="AN42" s="13" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AO42" s="13" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AP42" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ42" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="AQ42" s="13" t="n">
-        <v>28</v>
-      </c>
       <c r="AR42" s="13" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="AS42" s="13" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AT42" s="13" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="AV42" s="13" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="AW42" s="13" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AX42" s="13" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AY42" s="13" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="AZ42" s="13" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,95 +7674,95 @@
       <c r="T43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="16" t="s">
-        <v>58</v>
+      <c r="U43" s="16" t="n">
+        <v>1435</v>
       </c>
       <c r="V43" s="16" t="n">
-        <v>1435</v>
+        <v>3869</v>
       </c>
       <c r="W43" s="16" t="n">
-        <v>3869</v>
+        <v>1387</v>
       </c>
       <c r="X43" s="16" t="n">
-        <v>1387</v>
+        <v>1115</v>
       </c>
       <c r="Y43" s="16" t="n">
-        <v>1115</v>
+        <v>466</v>
       </c>
       <c r="Z43" s="16" t="n">
-        <v>466</v>
+        <v>1589</v>
       </c>
       <c r="AA43" s="16" t="n">
-        <v>1589</v>
+        <v>1388</v>
       </c>
       <c r="AB43" s="16" t="n">
-        <v>1388</v>
+        <v>1850</v>
       </c>
       <c r="AC43" s="16" t="n">
-        <v>1850</v>
+        <v>2789</v>
       </c>
       <c r="AD43" s="16" t="n">
-        <v>2789</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="16" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="AF43" s="16" t="n">
-        <v>445</v>
+        <v>2324</v>
       </c>
       <c r="AG43" s="16" t="n">
-        <v>2324</v>
+        <v>3179</v>
       </c>
       <c r="AH43" s="16" t="n">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="16" t="n">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="AJ43" s="16" t="n">
-        <v>1857</v>
+        <v>952</v>
       </c>
       <c r="AK43" s="16" t="n">
-        <v>952</v>
+        <v>1825</v>
       </c>
       <c r="AL43" s="16" t="n">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="AM43" s="16" t="n">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO43" s="16" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="AP43" s="16" t="n">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR43" s="16" t="n">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="AS43" s="16" t="n">
-        <v>902</v>
+        <v>1367</v>
       </c>
       <c r="AT43" s="16" t="n">
-        <v>1367</v>
+        <v>899</v>
       </c>
       <c r="AU43" s="16" t="n">
-        <v>899</v>
+        <v>1134</v>
       </c>
       <c r="AV43" s="16" t="n">
-        <v>1134</v>
+        <v>480</v>
       </c>
       <c r="AW43" s="16" t="n">
-        <v>480</v>
+        <v>1399</v>
       </c>
       <c r="AX43" s="16" t="n">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="16" t="n">
         <v>0</v>
@@ -7833,107 +7833,107 @@
       <c r="T44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="13" t="s">
-        <v>58</v>
+      <c r="U44" s="13" t="n">
+        <v>15424</v>
       </c>
       <c r="V44" s="13" t="n">
-        <v>15424</v>
+        <v>14277</v>
       </c>
       <c r="W44" s="13" t="n">
-        <v>14277</v>
+        <v>14926</v>
       </c>
       <c r="X44" s="13" t="n">
-        <v>14926</v>
+        <v>12676</v>
       </c>
       <c r="Y44" s="13" t="n">
-        <v>12676</v>
+        <v>10568</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>10568</v>
+        <v>12759</v>
       </c>
       <c r="AA44" s="13" t="n">
-        <v>12759</v>
+        <v>6054</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>6054</v>
+        <v>8905</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>8905</v>
+        <v>13554</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>13554</v>
+        <v>3999</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>3999</v>
+        <v>11552</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>11552</v>
+        <v>15541</v>
       </c>
       <c r="AG44" s="13" t="n">
-        <v>15541</v>
+        <v>16033</v>
       </c>
       <c r="AH44" s="13" t="n">
-        <v>16033</v>
+        <v>9024</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>9024</v>
+        <v>19248</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>19248</v>
+        <v>13438</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>13438</v>
+        <v>11982</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>11982</v>
+        <v>14166</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>14166</v>
+        <v>10115</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>10115</v>
+        <v>13159</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>13159</v>
+        <v>16372</v>
       </c>
       <c r="AP44" s="13" t="n">
-        <v>16372</v>
+        <v>7464</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>7464</v>
+        <v>15212</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>15212</v>
+        <v>20085</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>20085</v>
+        <v>16841</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>16841</v>
+        <v>11190</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>11190</v>
+        <v>21950</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>21950</v>
+        <v>15464</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>15464</v>
+        <v>13610</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>13610</v>
+        <v>14460</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>14460</v>
+        <v>15773</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>15773</v>
+        <v>15561</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>15561</v>
+        <v>14821</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>14821</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,23 +7992,23 @@
       <c r="T45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="16" t="s">
-        <v>58</v>
+      <c r="U45" s="16" t="n">
+        <v>987</v>
       </c>
       <c r="V45" s="16" t="n">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="W45" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X45" s="16" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Y45" s="16" t="n">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="Z45" s="16" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="16" t="n">
         <v>0</v>
@@ -8019,8 +8019,8 @@
       <c r="AC45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="16" t="n">
-        <v>0</v>
+      <c r="AD45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="16" t="s">
         <v>58</v>
@@ -8031,11 +8031,11 @@
       <c r="AG45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI45" s="16" t="n">
-        <v>0</v>
+      <c r="AH45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="16" t="s">
         <v>58</v>
@@ -8043,20 +8043,20 @@
       <c r="AK45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM45" s="16" t="n">
-        <v>0</v>
+      <c r="AL45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP45" s="16" t="n">
-        <v>0</v>
+      <c r="AO45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ45" s="16" t="s">
         <v>58</v>
@@ -8211,47 +8211,47 @@
       <c r="AN46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP46" s="13" t="n">
+      <c r="AO46" s="13" t="n">
         <v>41</v>
       </c>
+      <c r="AP46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS46" s="13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AT46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="13" t="n">
+        <v>274</v>
+      </c>
+      <c r="AX46" s="13" t="n">
+        <v>127</v>
+      </c>
+      <c r="AY46" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="AU46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="13" t="n">
-        <v>274</v>
-      </c>
-      <c r="AY46" s="13" t="n">
-        <v>127</v>
-      </c>
       <c r="AZ46" s="13" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,17 +8400,17 @@
       <c r="AX47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY47" s="16" t="s">
-        <v>58</v>
+      <c r="AY47" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AZ47" s="16" t="n">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="BA47" s="16" t="n">
-        <v>2232</v>
+        <v>1380</v>
       </c>
       <c r="BB47" s="16" t="n">
-        <v>1380</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,17 +8550,17 @@
       <c r="AU48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV48" s="13" t="s">
-        <v>58</v>
+      <c r="AV48" s="13" t="n">
+        <v>513340</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>513340</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>0</v>
+        <v>39203</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>39203</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13" t="n">
         <v>0</v>
@@ -8627,106 +8627,106 @@
         <v>0</v>
       </c>
       <c r="U49" s="18" t="n">
-        <v>0</v>
+        <v>153281</v>
       </c>
       <c r="V49" s="18" t="n">
-        <v>153281</v>
+        <v>125302</v>
       </c>
       <c r="W49" s="18" t="n">
-        <v>125302</v>
+        <v>68199</v>
       </c>
       <c r="X49" s="18" t="n">
-        <v>68199</v>
+        <v>129881</v>
       </c>
       <c r="Y49" s="18" t="n">
-        <v>129881</v>
+        <v>22306</v>
       </c>
       <c r="Z49" s="18" t="n">
-        <v>22306</v>
+        <v>340590</v>
       </c>
       <c r="AA49" s="18" t="n">
-        <v>340590</v>
+        <v>100744</v>
       </c>
       <c r="AB49" s="18" t="n">
-        <v>100744</v>
+        <v>197643</v>
       </c>
       <c r="AC49" s="18" t="n">
-        <v>197643</v>
+        <v>845027</v>
       </c>
       <c r="AD49" s="18" t="n">
-        <v>845027</v>
+        <v>39770</v>
       </c>
       <c r="AE49" s="18" t="n">
-        <v>39770</v>
+        <v>103950</v>
       </c>
       <c r="AF49" s="18" t="n">
-        <v>103950</v>
+        <v>493980</v>
       </c>
       <c r="AG49" s="18" t="n">
-        <v>493980</v>
+        <v>102542</v>
       </c>
       <c r="AH49" s="18" t="n">
-        <v>102542</v>
+        <v>174441</v>
       </c>
       <c r="AI49" s="18" t="n">
-        <v>174441</v>
+        <v>397316</v>
       </c>
       <c r="AJ49" s="18" t="n">
-        <v>397316</v>
+        <v>184774</v>
       </c>
       <c r="AK49" s="18" t="n">
-        <v>184774</v>
+        <v>276005</v>
       </c>
       <c r="AL49" s="18" t="n">
-        <v>276005</v>
+        <v>177171</v>
       </c>
       <c r="AM49" s="18" t="n">
-        <v>177171</v>
+        <v>302429</v>
       </c>
       <c r="AN49" s="18" t="n">
-        <v>302429</v>
+        <v>276405</v>
       </c>
       <c r="AO49" s="18" t="n">
-        <v>276405</v>
+        <v>302384</v>
       </c>
       <c r="AP49" s="18" t="n">
-        <v>302384</v>
+        <v>66301</v>
       </c>
       <c r="AQ49" s="18" t="n">
-        <v>66301</v>
+        <v>455581</v>
       </c>
       <c r="AR49" s="18" t="n">
-        <v>455581</v>
+        <v>153263</v>
       </c>
       <c r="AS49" s="18" t="n">
-        <v>153263</v>
+        <v>113444</v>
       </c>
       <c r="AT49" s="18" t="n">
-        <v>113444</v>
+        <v>68175</v>
       </c>
       <c r="AU49" s="18" t="n">
-        <v>68175</v>
+        <v>327419</v>
       </c>
       <c r="AV49" s="18" t="n">
-        <v>327419</v>
+        <v>607997</v>
       </c>
       <c r="AW49" s="18" t="n">
-        <v>607997</v>
+        <v>819799</v>
       </c>
       <c r="AX49" s="18" t="n">
-        <v>819799</v>
+        <v>204509</v>
       </c>
       <c r="AY49" s="18" t="n">
-        <v>204509</v>
+        <v>473051</v>
       </c>
       <c r="AZ49" s="18" t="n">
-        <v>473051</v>
+        <v>108365</v>
       </c>
       <c r="BA49" s="18" t="n">
-        <v>108365</v>
+        <v>170349</v>
       </c>
       <c r="BB49" s="18" t="n">
-        <v>170349</v>
+        <v>54906</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,12 +8866,12 @@
       <c r="AB51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD51" s="13" t="n">
+      <c r="AC51" s="13" t="n">
         <v>504</v>
       </c>
+      <c r="AD51" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE51" s="13" t="s">
         <v>58</v>
       </c>
@@ -8893,20 +8893,20 @@
       <c r="AK51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM51" s="13" t="n">
+      <c r="AL51" s="13" t="n">
         <v>991</v>
       </c>
+      <c r="AM51" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP51" s="13" t="n">
-        <v>0</v>
+      <c r="AO51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="13" t="s">
         <v>58</v>
@@ -8914,11 +8914,11 @@
       <c r="AR51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS51" s="13" t="s">
-        <v>58</v>
+      <c r="AS51" s="13" t="n">
+        <v>998</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="13" t="n">
         <v>0</v>
@@ -9001,11 +9001,11 @@
       <c r="T52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>58</v>
+      <c r="U52" s="16" t="n">
+        <v>-255</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>-255</v>
+        <v>0</v>
       </c>
       <c r="W52" s="16" t="n">
         <v>0</v>
@@ -9020,17 +9020,17 @@
         <v>0</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>0</v>
+        <v>23806</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>23806</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16" t="n">
         <v>52</v>
       </c>
+      <c r="AD52" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE52" s="16" t="s">
         <v>58</v>
       </c>
@@ -9061,11 +9061,11 @@
       <c r="AN52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP52" s="16" t="n">
-        <v>0</v>
+      <c r="AO52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
@@ -9160,107 +9160,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>11271</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>11271</v>
+        <v>8532</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>8532</v>
+        <v>12391</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>12391</v>
+        <v>7164</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>7164</v>
+        <v>9567</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>9567</v>
+        <v>9927</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>9927</v>
+        <v>2126</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>2126</v>
+        <v>7051</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>7051</v>
+        <v>17439</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>17439</v>
+        <v>2223</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>2223</v>
+        <v>11619</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>11619</v>
+        <v>9404</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>9404</v>
+        <v>17541</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>17541</v>
+        <v>10319</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>10319</v>
+        <v>16218</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>16218</v>
+        <v>7994</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>7994</v>
+        <v>15896</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>15896</v>
+        <v>13417</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>13417</v>
+        <v>19115</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>19115</v>
+        <v>18673</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>18673</v>
+        <v>17368</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>17368</v>
+        <v>7768</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>7768</v>
+        <v>12709</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>12709</v>
+        <v>14392</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>14392</v>
+        <v>4292</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>4292</v>
+        <v>5345</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>5345</v>
+        <v>4391</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>4391</v>
+        <v>4661</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>4661</v>
+        <v>8596</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>8596</v>
+        <v>6965</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>6965</v>
+        <v>6833</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>6833</v>
+        <v>11239</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>11239</v>
+        <v>13624</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>13624</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,107 +9319,107 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>148</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="Y54" s="16" t="n">
+        <v>194</v>
+      </c>
+      <c r="Z54" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA54" s="16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="16" t="n">
+        <v>302</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE54" s="16" t="n">
+        <v>294</v>
+      </c>
+      <c r="AF54" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG54" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="Z54" s="16" t="n">
-        <v>194</v>
-      </c>
-      <c r="AA54" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB54" s="16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="16" t="n">
-        <v>302</v>
-      </c>
-      <c r="AE54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF54" s="16" t="n">
-        <v>294</v>
-      </c>
-      <c r="AG54" s="16" t="n">
+      <c r="AH54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ54" s="16" t="n">
+        <v>335</v>
+      </c>
+      <c r="AK54" s="16" t="n">
         <v>42</v>
-      </c>
-      <c r="AH54" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI54" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ54" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK54" s="16" t="n">
-        <v>335</v>
       </c>
       <c r="AL54" s="16" t="n">
         <v>42</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="AO54" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AP54" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ54" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AR54" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS54" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AS54" s="16" t="n">
+      <c r="AT54" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AU54" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="AT54" s="16" t="n">
+      <c r="AV54" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AU54" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AV54" s="16" t="n">
-        <v>41</v>
-      </c>
       <c r="AW54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX54" s="16" t="n">
         <v>21</v>
-      </c>
-      <c r="AX54" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="AY54" s="16" t="n">
         <v>21</v>
       </c>
       <c r="AZ54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB54" s="16" t="n">
         <v>21</v>
-      </c>
-      <c r="BA54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="16" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9477,106 +9477,106 @@
         <v>0</v>
       </c>
       <c r="U55" s="20" t="n">
-        <v>0</v>
+        <v>11164</v>
       </c>
       <c r="V55" s="20" t="n">
-        <v>11164</v>
+        <v>8532</v>
       </c>
       <c r="W55" s="20" t="n">
-        <v>8532</v>
+        <v>12551</v>
       </c>
       <c r="X55" s="20" t="n">
-        <v>12551</v>
+        <v>7204</v>
       </c>
       <c r="Y55" s="20" t="n">
-        <v>7204</v>
+        <v>9761</v>
       </c>
       <c r="Z55" s="20" t="n">
-        <v>9761</v>
+        <v>9986</v>
       </c>
       <c r="AA55" s="20" t="n">
-        <v>9986</v>
+        <v>26022</v>
       </c>
       <c r="AB55" s="20" t="n">
-        <v>26022</v>
+        <v>7051</v>
       </c>
       <c r="AC55" s="20" t="n">
-        <v>7051</v>
+        <v>18297</v>
       </c>
       <c r="AD55" s="20" t="n">
-        <v>18297</v>
+        <v>2223</v>
       </c>
       <c r="AE55" s="20" t="n">
-        <v>2223</v>
+        <v>11913</v>
       </c>
       <c r="AF55" s="20" t="n">
-        <v>11913</v>
+        <v>9446</v>
       </c>
       <c r="AG55" s="20" t="n">
-        <v>9446</v>
+        <v>17581</v>
       </c>
       <c r="AH55" s="20" t="n">
-        <v>17581</v>
+        <v>10320</v>
       </c>
       <c r="AI55" s="20" t="n">
-        <v>10320</v>
+        <v>16259</v>
       </c>
       <c r="AJ55" s="20" t="n">
-        <v>16259</v>
+        <v>8329</v>
       </c>
       <c r="AK55" s="20" t="n">
-        <v>8329</v>
+        <v>15938</v>
       </c>
       <c r="AL55" s="20" t="n">
-        <v>15938</v>
+        <v>14450</v>
       </c>
       <c r="AM55" s="20" t="n">
-        <v>14450</v>
+        <v>19367</v>
       </c>
       <c r="AN55" s="20" t="n">
-        <v>19367</v>
+        <v>18694</v>
       </c>
       <c r="AO55" s="20" t="n">
-        <v>18694</v>
+        <v>17392</v>
       </c>
       <c r="AP55" s="20" t="n">
-        <v>17392</v>
+        <v>7768</v>
       </c>
       <c r="AQ55" s="20" t="n">
-        <v>7768</v>
+        <v>12730</v>
       </c>
       <c r="AR55" s="20" t="n">
-        <v>12730</v>
+        <v>14433</v>
       </c>
       <c r="AS55" s="20" t="n">
-        <v>14433</v>
+        <v>5311</v>
       </c>
       <c r="AT55" s="20" t="n">
-        <v>5311</v>
+        <v>5344</v>
       </c>
       <c r="AU55" s="20" t="n">
-        <v>5344</v>
+        <v>4432</v>
       </c>
       <c r="AV55" s="20" t="n">
-        <v>4432</v>
+        <v>4682</v>
       </c>
       <c r="AW55" s="20" t="n">
-        <v>4682</v>
+        <v>8597</v>
       </c>
       <c r="AX55" s="20" t="n">
-        <v>8597</v>
+        <v>6986</v>
       </c>
       <c r="AY55" s="20" t="n">
-        <v>6986</v>
+        <v>6854</v>
       </c>
       <c r="AZ55" s="20" t="n">
-        <v>6854</v>
+        <v>11239</v>
       </c>
       <c r="BA55" s="20" t="n">
-        <v>11239</v>
+        <v>13644</v>
       </c>
       <c r="BB55" s="20" t="n">
-        <v>13644</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9690,8 +9690,8 @@
       <c r="T57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="20" t="s">
-        <v>58</v>
+      <c r="U57" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="20" t="n">
         <v>0</v>
@@ -9954,11 +9954,11 @@
       <c r="AJ59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL59" s="13" t="n">
+      <c r="AK59" s="13" t="n">
         <v>-326882</v>
+      </c>
+      <c r="AL59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM59" s="13" t="s">
         <v>58</v>
@@ -10063,8 +10063,8 @@
       <c r="T60" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="18" t="s">
-        <v>58</v>
+      <c r="U60" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="18" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="18" t="n">
-        <v>0</v>
+        <v>-326882</v>
       </c>
       <c r="AL60" s="18" t="n">
-        <v>-326882</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="18" t="n">
         <v>0</v>
@@ -10221,106 +10221,106 @@
         <v>0</v>
       </c>
       <c r="U61" s="20" t="n">
-        <v>0</v>
+        <v>164445</v>
       </c>
       <c r="V61" s="20" t="n">
-        <v>164445</v>
+        <v>133834</v>
       </c>
       <c r="W61" s="20" t="n">
-        <v>133834</v>
+        <v>80750</v>
       </c>
       <c r="X61" s="20" t="n">
-        <v>80750</v>
+        <v>137085</v>
       </c>
       <c r="Y61" s="20" t="n">
-        <v>137085</v>
+        <v>32067</v>
       </c>
       <c r="Z61" s="20" t="n">
-        <v>32067</v>
+        <v>350576</v>
       </c>
       <c r="AA61" s="20" t="n">
-        <v>350576</v>
+        <v>126766</v>
       </c>
       <c r="AB61" s="20" t="n">
-        <v>126766</v>
+        <v>204694</v>
       </c>
       <c r="AC61" s="20" t="n">
-        <v>204694</v>
+        <v>863324</v>
       </c>
       <c r="AD61" s="20" t="n">
-        <v>863324</v>
+        <v>41993</v>
       </c>
       <c r="AE61" s="20" t="n">
-        <v>41993</v>
+        <v>115863</v>
       </c>
       <c r="AF61" s="20" t="n">
-        <v>115863</v>
+        <v>503426</v>
       </c>
       <c r="AG61" s="20" t="n">
-        <v>503426</v>
+        <v>120123</v>
       </c>
       <c r="AH61" s="20" t="n">
-        <v>120123</v>
+        <v>184761</v>
       </c>
       <c r="AI61" s="20" t="n">
-        <v>184761</v>
+        <v>413575</v>
       </c>
       <c r="AJ61" s="20" t="n">
-        <v>413575</v>
+        <v>193103</v>
       </c>
       <c r="AK61" s="20" t="n">
-        <v>193103</v>
+        <v>-34939</v>
       </c>
       <c r="AL61" s="20" t="n">
-        <v>-34939</v>
+        <v>191621</v>
       </c>
       <c r="AM61" s="20" t="n">
-        <v>191621</v>
+        <v>321796</v>
       </c>
       <c r="AN61" s="20" t="n">
-        <v>321796</v>
+        <v>295099</v>
       </c>
       <c r="AO61" s="20" t="n">
-        <v>295099</v>
+        <v>319776</v>
       </c>
       <c r="AP61" s="20" t="n">
-        <v>319776</v>
+        <v>74069</v>
       </c>
       <c r="AQ61" s="20" t="n">
-        <v>74069</v>
+        <v>468311</v>
       </c>
       <c r="AR61" s="20" t="n">
-        <v>468311</v>
+        <v>167696</v>
       </c>
       <c r="AS61" s="20" t="n">
-        <v>167696</v>
+        <v>118755</v>
       </c>
       <c r="AT61" s="20" t="n">
-        <v>118755</v>
+        <v>73519</v>
       </c>
       <c r="AU61" s="20" t="n">
-        <v>73519</v>
+        <v>331851</v>
       </c>
       <c r="AV61" s="20" t="n">
-        <v>331851</v>
+        <v>612679</v>
       </c>
       <c r="AW61" s="20" t="n">
-        <v>612679</v>
+        <v>828396</v>
       </c>
       <c r="AX61" s="20" t="n">
-        <v>828396</v>
+        <v>211495</v>
       </c>
       <c r="AY61" s="20" t="n">
-        <v>211495</v>
+        <v>479905</v>
       </c>
       <c r="AZ61" s="20" t="n">
-        <v>479905</v>
+        <v>119604</v>
       </c>
       <c r="BA61" s="20" t="n">
-        <v>119604</v>
+        <v>183993</v>
       </c>
       <c r="BB61" s="20" t="n">
-        <v>183993</v>
+        <v>59798</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10813,107 +10813,107 @@
       <c r="T68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="13" t="s">
-        <v>58</v>
+      <c r="U68" s="13" t="n">
+        <v>8690</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>8690</v>
+        <v>6882</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>6882</v>
+        <v>14512</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>14512</v>
+        <v>12533</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>12533</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>0</v>
+        <v>18626</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>18626</v>
+        <v>43543</v>
       </c>
       <c r="AB68" s="13" t="n">
-        <v>43543</v>
+        <v>18446</v>
       </c>
       <c r="AC68" s="13" t="n">
-        <v>18446</v>
-      </c>
-      <c r="AD68" s="13" t="n">
         <v>53442</v>
       </c>
-      <c r="AE68" s="13" t="s">
-        <v>58</v>
+      <c r="AD68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE68" s="13" t="n">
+        <v>19301</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>19301</v>
+        <v>14310</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>14310</v>
+        <v>7335</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>7335</v>
+        <v>23307</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>23307</v>
+        <v>18082</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>18082</v>
+        <v>24610</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>24610</v>
+        <v>106504</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>106504</v>
+        <v>46875</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>46875</v>
+        <v>26230</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>26230</v>
+        <v>5564</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>5564</v>
-      </c>
-      <c r="AP68" s="13" t="n">
         <v>58197</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>58</v>
+      <c r="AP68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ68" s="13" t="n">
+        <v>758754</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>758754</v>
+        <v>41332</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>41332</v>
+        <v>28752</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>28752</v>
+        <v>77261</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>77261</v>
+        <v>42840</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>42840</v>
+        <v>66207</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>66207</v>
+        <v>22731</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>22731</v>
+        <v>122775</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>122775</v>
+        <v>40704</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>40704</v>
+        <v>1318945</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>1318945</v>
+        <v>48933</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>48933</v>
+        <v>50360</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10972,107 +10972,107 @@
       <c r="T69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>58</v>
+      <c r="U69" s="16" t="n">
+        <v>712383</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>712383</v>
+        <v>571647</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>571647</v>
+        <v>965201</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>965201</v>
+        <v>943988</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>943988</v>
+        <v>1227208</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>1227208</v>
+        <v>1214238</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>1214238</v>
+        <v>1288925</v>
       </c>
       <c r="AB69" s="16" t="n">
-        <v>1288925</v>
+        <v>1493786</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>1493786</v>
+        <v>1560935</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>1560935</v>
+        <v>627567</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>627567</v>
+        <v>1259011</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>1259011</v>
+        <v>1658798</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>1658798</v>
+        <v>1300440</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>1300440</v>
+        <v>1915761</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>1915761</v>
+        <v>3437773</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>3437773</v>
+        <v>1778820</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>1778820</v>
+        <v>2900199</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>2900199</v>
+        <v>1852091</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>1852091</v>
+        <v>2744730</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>2744730</v>
+        <v>2506558</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>2506558</v>
+        <v>3301399</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>3301399</v>
+        <v>1259291</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>1259291</v>
+        <v>2505799</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>2505799</v>
+        <v>2097296</v>
       </c>
       <c r="AS69" s="16" t="n">
-        <v>2097296</v>
+        <v>1882173</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>1882173</v>
+        <v>1279521</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>1279521</v>
+        <v>2778111</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>2778111</v>
+        <v>2832255</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>2832255</v>
+        <v>2927757</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>2927757</v>
+        <v>3895132</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>3895132</v>
+        <v>5307635</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>5307635</v>
+        <v>5355176</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>5355176</v>
+        <v>8390493</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>8390493</v>
+        <v>2640964</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11131,107 +11131,107 @@
       <c r="T70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>58</v>
+      <c r="U70" s="13" t="n">
+        <v>81388</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>81388</v>
+        <v>70178</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>70178</v>
+        <v>19017</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>19017</v>
+        <v>84994</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>84994</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>0</v>
+        <v>377091</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>377091</v>
+        <v>24222</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>24222</v>
+        <v>243060</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>243060</v>
+        <v>1341096</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>1341096</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>0</v>
+        <v>2484</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>2484</v>
+        <v>479952</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>479952</v>
+        <v>72409</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>72409</v>
+        <v>115545</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>115545</v>
+        <v>692234</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>692234</v>
+        <v>189206</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>189206</v>
+        <v>375884</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>375884</v>
+        <v>219398</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>219398</v>
+        <v>675514</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>675514</v>
+        <v>366517</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>366517</v>
+        <v>472657</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>472657</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>0</v>
+        <v>948442</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>948442</v>
+        <v>64667</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>64667</v>
+        <v>75291</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>75291</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>0</v>
+        <v>574898</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>574898</v>
+        <v>31683</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>31683</v>
+        <v>2014136</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>2014136</v>
+        <v>69470</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>69470</v>
+        <v>817414</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>817414</v>
+        <v>49920</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>49920</v>
+        <v>73287</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>73287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11290,107 +11290,107 @@
       <c r="T71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>58</v>
+      <c r="U71" s="16" t="n">
+        <v>10759</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>10759</v>
+        <v>35858</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>35858</v>
+        <v>28090</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>28090</v>
+        <v>15281</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>15281</v>
+        <v>9727</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>9727</v>
+        <v>64072</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>64072</v>
+        <v>59754</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>59754</v>
+        <v>60956</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>60956</v>
+        <v>84003</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>84003</v>
+        <v>69662</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>69662</v>
+        <v>265175</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>265175</v>
+        <v>259503</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>259503</v>
+        <v>151456</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>151456</v>
+        <v>214109</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>214109</v>
+        <v>195750</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>195750</v>
+        <v>216902</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>216902</v>
+        <v>396433</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>396433</v>
+        <v>469288</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>469288</v>
+        <v>487486</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>487486</v>
+        <v>472291</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>472291</v>
+        <v>554459</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>554459</v>
+        <v>560441</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>560441</v>
+        <v>929998</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>929998</v>
+        <v>1064038</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>1064038</v>
+        <v>908785</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>908785</v>
+        <v>565372</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>565372</v>
+        <v>916476</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>916476</v>
+        <v>765012</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>765012</v>
+        <v>838802</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>838802</v>
+        <v>671482</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>671482</v>
+        <v>659100</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>659100</v>
+        <v>578939</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>578939</v>
+        <v>685300</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>685300</v>
+        <v>260211</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11449,107 +11449,107 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>2287734</v>
       </c>
       <c r="V72" s="13" t="n">
-        <v>2287734</v>
+        <v>1757312</v>
       </c>
       <c r="W72" s="13" t="n">
-        <v>1757312</v>
+        <v>2061511</v>
       </c>
       <c r="X72" s="13" t="n">
-        <v>2061511</v>
+        <v>1608740</v>
       </c>
       <c r="Y72" s="13" t="n">
-        <v>1608740</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>0</v>
+        <v>2585740</v>
       </c>
       <c r="AA72" s="13" t="n">
-        <v>2585740</v>
+        <v>2373975</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>2373975</v>
+        <v>1493423</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>1493423</v>
+        <v>3760821</v>
       </c>
       <c r="AD72" s="13" t="n">
-        <v>3760821</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="13" t="n">
-        <v>0</v>
+        <v>1384833</v>
       </c>
       <c r="AF72" s="13" t="n">
-        <v>1384833</v>
+        <v>4038815</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>4038815</v>
+        <v>2887879</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>2887879</v>
+        <v>3365323</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>3365323</v>
+        <v>2577813</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>2577813</v>
+        <v>3130161</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>3130161</v>
+        <v>3637703</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>3637703</v>
+        <v>3467924</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>3467924</v>
+        <v>1292211</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>1292211</v>
+        <v>1891174</v>
       </c>
       <c r="AO72" s="13" t="n">
-        <v>1891174</v>
+        <v>1101271</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>1101271</v>
+        <v>1201201</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>1201201</v>
+        <v>1294398</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>1294398</v>
+        <v>2931514</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>2931514</v>
+        <v>2604493</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>2604493</v>
+        <v>3136088</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>3136088</v>
+        <v>2587501</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>2587501</v>
+        <v>1369500</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>1369500</v>
+        <v>2958887</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>2958887</v>
+        <v>3233344</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>3233344</v>
+        <v>2434480</v>
       </c>
       <c r="AZ72" s="13" t="n">
-        <v>2434480</v>
+        <v>3219234</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>3219234</v>
+        <v>3158498</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>3158498</v>
+        <v>3249482</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11608,98 +11608,98 @@
       <c r="T73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="16" t="s">
-        <v>58</v>
+      <c r="U73" s="16" t="n">
+        <v>238749</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>238749</v>
+        <v>784143</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>784143</v>
+        <v>327946</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>327946</v>
+        <v>233748</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>233748</v>
+        <v>136512</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>136512</v>
+        <v>468331</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>468331</v>
+        <v>560021</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>560021</v>
+        <v>724361</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>724361</v>
+        <v>1127285</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>1127285</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>0</v>
+        <v>212845</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>212845</v>
+        <v>1042584</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>1042584</v>
+        <v>1477444</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>1477444</v>
+        <v>0</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>0</v>
+        <v>847938</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>847938</v>
+        <v>398958</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>398958</v>
+        <v>807112</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>807112</v>
+        <v>873760</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>873760</v>
+        <v>0</v>
       </c>
       <c r="AN73" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>0</v>
+        <v>1822503</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>1822503</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>0</v>
+        <v>524398</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>524398</v>
+        <v>694239</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>694239</v>
+        <v>404208</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>404208</v>
+        <v>501848</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>501848</v>
+        <v>226763</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>226763</v>
+        <v>621871</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>621871</v>
+        <v>-180</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="16" t="n">
         <v>0</v>
@@ -11767,107 +11767,107 @@
       <c r="T74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="13" t="s">
-        <v>58</v>
+      <c r="U74" s="13" t="n">
+        <v>14040626</v>
       </c>
       <c r="V74" s="13" t="n">
-        <v>14040626</v>
+        <v>15272100</v>
       </c>
       <c r="W74" s="13" t="n">
-        <v>15272100</v>
+        <v>19178216</v>
       </c>
       <c r="X74" s="13" t="n">
-        <v>19178216</v>
+        <v>18788537</v>
       </c>
       <c r="Y74" s="13" t="n">
-        <v>18788537</v>
+        <v>17243365</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>17243365</v>
+        <v>24346324</v>
       </c>
       <c r="AA74" s="13" t="n">
-        <v>24346324</v>
+        <v>12712076</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>12712076</v>
+        <v>16743514</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>16743514</v>
+        <v>27513076</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>27513076</v>
+        <v>8731987</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>8731987</v>
+        <v>26530024</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>26530024</v>
+        <v>34672944</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>34672944</v>
+        <v>33840590</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>33840590</v>
+        <v>19878364</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>19878364</v>
+        <v>43055066</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>43055066</v>
+        <v>30339092</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>30339092</v>
+        <v>28416965</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>28416965</v>
+        <v>33446007</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>33446007</v>
+        <v>23996975</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>23996975</v>
+        <v>32739978</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>32739978</v>
+        <v>42011722</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>42011722</v>
+        <v>19153236</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>19153236</v>
+        <v>39436622</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>39436622</v>
+        <v>49207804</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>49207804</v>
+        <v>42764107</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>42764107</v>
+        <v>25894909</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>25894909</v>
+        <v>49620943</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>49620943</v>
+        <v>36009951</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>36009951</v>
+        <v>32440786</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>32440786</v>
+        <v>34265472</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>34265472</v>
+        <v>42254201</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>42254201</v>
+        <v>46845092</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>46845092</v>
+        <v>60733771</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>60733771</v>
+        <v>26596624</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11926,23 +11926,23 @@
       <c r="T75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="16" t="s">
-        <v>58</v>
+      <c r="U75" s="16" t="n">
+        <v>1000713</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>1000713</v>
+        <v>0</v>
       </c>
       <c r="W75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X75" s="16" t="n">
-        <v>0</v>
+        <v>97094</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>97094</v>
+        <v>228397</v>
       </c>
       <c r="Z75" s="16" t="n">
-        <v>228397</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="16" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
       <c r="AC75" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD75" s="16" t="n">
-        <v>0</v>
+      <c r="AD75" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF75" s="16" t="s">
-        <v>58</v>
+      <c r="AF75" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG75" s="16" t="n">
         <v>0</v>
@@ -11989,8 +11989,8 @@
       <c r="AO75" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP75" s="16" t="n">
-        <v>0</v>
+      <c r="AP75" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ75" s="16" t="s">
         <v>58</v>
@@ -12145,23 +12145,23 @@
       <c r="AN76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP76" s="13" t="n">
+      <c r="AO76" s="13" t="n">
         <v>244472</v>
       </c>
+      <c r="AP76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
+      <c r="AR76" s="13" t="n">
+        <v>1846</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>1846</v>
+        <v>217062</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>217062</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="13" t="n">
         <v>0</v>
@@ -12170,22 +12170,22 @@
         <v>0</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>0</v>
+        <v>1825587</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>1825587</v>
+        <v>991069</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>991069</v>
+        <v>440588</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>440588</v>
+        <v>1200990</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>1200990</v>
+        <v>826069</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>826069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12334,17 +12334,17 @@
       <c r="AX77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY77" s="16" t="s">
-        <v>58</v>
+      <c r="AY77" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>0</v>
+        <v>8276741</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>8276741</v>
+        <v>6012716</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>6012716</v>
+        <v>8740789</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12484,17 +12484,17 @@
       <c r="AU78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV78" s="13" t="s">
-        <v>58</v>
+      <c r="AV78" s="13" t="n">
+        <v>743246</v>
       </c>
       <c r="AW78" s="13" t="n">
-        <v>743246</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13" t="n">
-        <v>0</v>
+        <v>44989</v>
       </c>
       <c r="AY78" s="13" t="n">
-        <v>44989</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="13" t="n">
         <v>0</v>
@@ -12561,106 +12561,106 @@
         <v>0</v>
       </c>
       <c r="U79" s="18" t="n">
-        <v>0</v>
+        <v>18381042</v>
       </c>
       <c r="V79" s="18" t="n">
-        <v>18381042</v>
+        <v>18498120</v>
       </c>
       <c r="W79" s="18" t="n">
-        <v>18498120</v>
+        <v>22594493</v>
       </c>
       <c r="X79" s="18" t="n">
-        <v>22594493</v>
+        <v>21784915</v>
       </c>
       <c r="Y79" s="18" t="n">
-        <v>21784915</v>
+        <v>18845209</v>
       </c>
       <c r="Z79" s="18" t="n">
-        <v>18845209</v>
+        <v>29074422</v>
       </c>
       <c r="AA79" s="18" t="n">
-        <v>29074422</v>
+        <v>17062516</v>
       </c>
       <c r="AB79" s="18" t="n">
-        <v>17062516</v>
+        <v>20777546</v>
       </c>
       <c r="AC79" s="18" t="n">
-        <v>20777546</v>
+        <v>35440658</v>
       </c>
       <c r="AD79" s="18" t="n">
-        <v>35440658</v>
+        <v>9429216</v>
       </c>
       <c r="AE79" s="18" t="n">
-        <v>9429216</v>
+        <v>29673673</v>
       </c>
       <c r="AF79" s="18" t="n">
-        <v>29673673</v>
+        <v>42166906</v>
       </c>
       <c r="AG79" s="18" t="n">
-        <v>42166906</v>
+        <v>39737553</v>
       </c>
       <c r="AH79" s="18" t="n">
-        <v>39737553</v>
+        <v>25512409</v>
       </c>
       <c r="AI79" s="18" t="n">
-        <v>25512409</v>
+        <v>50824656</v>
       </c>
       <c r="AJ79" s="18" t="n">
-        <v>50824656</v>
+        <v>36077749</v>
       </c>
       <c r="AK79" s="18" t="n">
-        <v>36077749</v>
+        <v>36640800</v>
       </c>
       <c r="AL79" s="18" t="n">
-        <v>36640800</v>
+        <v>40375343</v>
       </c>
       <c r="AM79" s="18" t="n">
-        <v>40375343</v>
+        <v>29223146</v>
       </c>
       <c r="AN79" s="18" t="n">
-        <v>29223146</v>
+        <v>37982082</v>
       </c>
       <c r="AO79" s="18" t="n">
-        <v>37982082</v>
+        <v>49566680</v>
       </c>
       <c r="AP79" s="18" t="n">
-        <v>49566680</v>
+        <v>22174169</v>
       </c>
       <c r="AQ79" s="18" t="n">
-        <v>22174169</v>
+        <v>45874013</v>
       </c>
       <c r="AR79" s="18" t="n">
-        <v>45874013</v>
+        <v>55932895</v>
       </c>
       <c r="AS79" s="18" t="n">
-        <v>55932895</v>
+        <v>49174902</v>
       </c>
       <c r="AT79" s="18" t="n">
-        <v>49174902</v>
+        <v>31357359</v>
       </c>
       <c r="AU79" s="18" t="n">
-        <v>31357359</v>
+        <v>57022617</v>
       </c>
       <c r="AV79" s="18" t="n">
-        <v>57022617</v>
+        <v>42044617</v>
       </c>
       <c r="AW79" s="18" t="n">
-        <v>42044617</v>
+        <v>43650557</v>
       </c>
       <c r="AX79" s="18" t="n">
-        <v>43650557</v>
+        <v>43293553</v>
       </c>
       <c r="AY79" s="18" t="n">
-        <v>43293553</v>
+        <v>51954122</v>
       </c>
       <c r="AZ79" s="18" t="n">
-        <v>51954122</v>
+        <v>66845037</v>
       </c>
       <c r="BA79" s="18" t="n">
-        <v>66845037</v>
+        <v>79929067</v>
       </c>
       <c r="BB79" s="18" t="n">
-        <v>79929067</v>
+        <v>41538430</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12800,12 +12800,12 @@
       <c r="AB81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD81" s="13" t="n">
+      <c r="AC81" s="13" t="n">
         <v>1293</v>
       </c>
+      <c r="AD81" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE81" s="13" t="s">
         <v>58</v>
       </c>
@@ -12827,11 +12827,11 @@
       <c r="AK81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL81" s="13" t="s">
-        <v>58</v>
+      <c r="AL81" s="13" t="n">
+        <v>5867</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>5867</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="13" t="n">
         <v>0</v>
@@ -12839,8 +12839,8 @@
       <c r="AO81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" s="13" t="n">
-        <v>0</v>
+      <c r="AP81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ81" s="13" t="s">
         <v>58</v>
@@ -12848,11 +12848,11 @@
       <c r="AR81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS81" s="13" t="s">
-        <v>58</v>
+      <c r="AS81" s="13" t="n">
+        <v>13133</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>13133</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="13" t="n">
         <v>0</v>
@@ -12935,11 +12935,11 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>-1722338</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>-1722338</v>
+        <v>0</v>
       </c>
       <c r="W82" s="16" t="n">
         <v>0</v>
@@ -12954,25 +12954,25 @@
         <v>0</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>0</v>
+        <v>11191909</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>11191909</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="16" t="n">
         <v>222346</v>
       </c>
+      <c r="AD82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE82" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AF82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG82" s="16" t="s">
-        <v>58</v>
+      <c r="AG82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH82" s="16" t="n">
         <v>0</v>
@@ -12998,8 +12998,8 @@
       <c r="AO82" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP82" s="16" t="n">
-        <v>0</v>
+      <c r="AP82" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ82" s="16" t="s">
         <v>58</v>
@@ -13094,107 +13094,107 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>10465562</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>10465562</v>
+        <v>10554972</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>10554972</v>
+        <v>20046392</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>20046392</v>
+        <v>11019378</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>11019378</v>
+        <v>16652852</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>16652852</v>
+        <v>19633484</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>19633484</v>
+        <v>3660647</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>3660647</v>
+        <v>13998426</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>13998426</v>
+        <v>39265646</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>39265646</v>
+        <v>4578730</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>4578730</v>
+        <v>24814358</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>24814358</v>
+        <v>23490557</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>23490557</v>
+        <v>37083004</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>37083004</v>
+        <v>22829674</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>22829674</v>
+        <v>35735617</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>35735617</v>
+        <v>16816734</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>16816734</v>
+        <v>38297207</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>38297207</v>
+        <v>32283977</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>32283977</v>
+        <v>46132753</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>46132753</v>
+        <v>46664045</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>46664045</v>
+        <v>46661166</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>46661166</v>
+        <v>20850609</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>20850609</v>
+        <v>35338883</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>35338883</v>
+        <v>40943464</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>40943464</v>
+        <v>11494505</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>11494505</v>
+        <v>15314859</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>15314859</v>
+        <v>11216494</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>11216494</v>
+        <v>10677898</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>10677898</v>
+        <v>19833397</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>19833397</v>
+        <v>17986070</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>17986070</v>
+        <v>18159562</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>18159562</v>
+        <v>35426977</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>35426977</v>
+        <v>56604577</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>56604577</v>
+        <v>21945952</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13253,107 +13253,107 @@
       <c r="T84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>58</v>
+      <c r="U84" s="16" t="n">
+        <v>318244</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>318244</v>
+        <v>-3722</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>-3722</v>
+        <v>222760</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>222760</v>
+        <v>78722</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>78722</v>
+        <v>512304</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>512304</v>
+        <v>157984</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>157984</v>
+        <v>277397</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>277397</v>
+        <v>7818</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>7818</v>
-      </c>
-      <c r="AD84" s="16" t="n">
         <v>777922</v>
       </c>
-      <c r="AE84" s="16" t="s">
-        <v>58</v>
+      <c r="AD84" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE84" s="16" t="n">
+        <v>892834</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>892834</v>
+        <v>143375</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>143375</v>
+        <v>617863</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>617863</v>
+        <v>39403</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>39403</v>
+        <v>180385</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>180385</v>
+        <v>1535800</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>1535800</v>
+        <v>196586</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>196586</v>
+        <v>186293</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>186293</v>
+        <v>1233248</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>1233248</v>
+        <v>97703</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>97703</v>
+        <v>27992</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>27992</v>
+        <v>0</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>0</v>
+        <v>106734</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>106734</v>
+        <v>215590</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>215590</v>
+        <v>74361</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>74361</v>
+        <v>-19978</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>-19978</v>
+        <v>177696</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>177696</v>
+        <v>116811</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>116811</v>
+        <v>14583</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>14583</v>
+        <v>134209</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>134209</v>
+        <v>187096</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>187096</v>
+        <v>56980</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>56980</v>
+        <v>344468</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>344468</v>
+        <v>243192</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13411,106 +13411,106 @@
         <v>0</v>
       </c>
       <c r="U85" s="20" t="n">
-        <v>0</v>
+        <v>9061468</v>
       </c>
       <c r="V85" s="20" t="n">
-        <v>9061468</v>
+        <v>10551250</v>
       </c>
       <c r="W85" s="20" t="n">
-        <v>10551250</v>
+        <v>20269152</v>
       </c>
       <c r="X85" s="20" t="n">
-        <v>20269152</v>
+        <v>11098100</v>
       </c>
       <c r="Y85" s="20" t="n">
-        <v>11098100</v>
+        <v>17165156</v>
       </c>
       <c r="Z85" s="20" t="n">
-        <v>17165156</v>
+        <v>19791468</v>
       </c>
       <c r="AA85" s="20" t="n">
-        <v>19791468</v>
+        <v>15129953</v>
       </c>
       <c r="AB85" s="20" t="n">
-        <v>15129953</v>
+        <v>14006244</v>
       </c>
       <c r="AC85" s="20" t="n">
-        <v>14006244</v>
+        <v>40267207</v>
       </c>
       <c r="AD85" s="20" t="n">
-        <v>40267207</v>
+        <v>4578730</v>
       </c>
       <c r="AE85" s="20" t="n">
-        <v>4578730</v>
+        <v>25707192</v>
       </c>
       <c r="AF85" s="20" t="n">
-        <v>25707192</v>
+        <v>23633932</v>
       </c>
       <c r="AG85" s="20" t="n">
-        <v>23633932</v>
+        <v>37700867</v>
       </c>
       <c r="AH85" s="20" t="n">
-        <v>37700867</v>
+        <v>22869077</v>
       </c>
       <c r="AI85" s="20" t="n">
-        <v>22869077</v>
+        <v>35916002</v>
       </c>
       <c r="AJ85" s="20" t="n">
-        <v>35916002</v>
+        <v>18352534</v>
       </c>
       <c r="AK85" s="20" t="n">
-        <v>18352534</v>
+        <v>38493793</v>
       </c>
       <c r="AL85" s="20" t="n">
-        <v>38493793</v>
+        <v>32476137</v>
       </c>
       <c r="AM85" s="20" t="n">
-        <v>32476137</v>
+        <v>47366001</v>
       </c>
       <c r="AN85" s="20" t="n">
-        <v>47366001</v>
+        <v>46761748</v>
       </c>
       <c r="AO85" s="20" t="n">
-        <v>46761748</v>
+        <v>46689158</v>
       </c>
       <c r="AP85" s="20" t="n">
-        <v>46689158</v>
+        <v>20850609</v>
       </c>
       <c r="AQ85" s="20" t="n">
-        <v>20850609</v>
+        <v>35445617</v>
       </c>
       <c r="AR85" s="20" t="n">
-        <v>35445617</v>
+        <v>41159054</v>
       </c>
       <c r="AS85" s="20" t="n">
-        <v>41159054</v>
+        <v>11581999</v>
       </c>
       <c r="AT85" s="20" t="n">
-        <v>11581999</v>
+        <v>15294881</v>
       </c>
       <c r="AU85" s="20" t="n">
-        <v>15294881</v>
+        <v>11394190</v>
       </c>
       <c r="AV85" s="20" t="n">
-        <v>11394190</v>
+        <v>10794709</v>
       </c>
       <c r="AW85" s="20" t="n">
-        <v>10794709</v>
+        <v>19847980</v>
       </c>
       <c r="AX85" s="20" t="n">
-        <v>19847980</v>
+        <v>18120279</v>
       </c>
       <c r="AY85" s="20" t="n">
-        <v>18120279</v>
+        <v>18346658</v>
       </c>
       <c r="AZ85" s="20" t="n">
-        <v>18346658</v>
+        <v>35483957</v>
       </c>
       <c r="BA85" s="20" t="n">
-        <v>35483957</v>
+        <v>56949045</v>
       </c>
       <c r="BB85" s="20" t="n">
-        <v>56949045</v>
+        <v>22189144</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13626,8 +13626,8 @@
       <c r="T87" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="20" t="s">
-        <v>58</v>
+      <c r="U87" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="23" t="n">
         <v>0</v>
@@ -13890,11 +13890,11 @@
       <c r="AJ89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK89" s="13" t="s">
-        <v>58</v>
+      <c r="AK89" s="13" t="n">
+        <v>-350335</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="13" t="n">
         <v>0</v>
@@ -13905,8 +13905,8 @@
       <c r="AO89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP89" s="13" t="n">
-        <v>0</v>
+      <c r="AP89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ89" s="13" t="s">
         <v>58</v>
@@ -13926,8 +13926,8 @@
       <c r="AV89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW89" s="13" t="s">
-        <v>58</v>
+      <c r="AW89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX89" s="13" t="n">
         <v>0</v>
@@ -13941,8 +13941,8 @@
       <c r="BA89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB89" s="13" t="n">
-        <v>0</v>
+      <c r="BB89" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14001,8 +14001,8 @@
       <c r="T90" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="18" t="s">
-        <v>58</v>
+      <c r="U90" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="24" t="n">
         <v>0</v>
@@ -14050,10 +14050,10 @@
         <v>0</v>
       </c>
       <c r="AK90" s="24" t="n">
-        <v>0</v>
+        <v>-350335</v>
       </c>
       <c r="AL90" s="24" t="n">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="24" t="n">
         <v>0</v>
@@ -14217,8 +14217,8 @@
       <c r="T92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="13" t="s">
-        <v>58</v>
+      <c r="U92" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V92" s="13" t="n">
         <v>0</v>
@@ -14375,106 +14375,106 @@
         <v>0</v>
       </c>
       <c r="U93" s="24" t="n">
-        <v>0</v>
+        <v>27442510</v>
       </c>
       <c r="V93" s="24" t="n">
-        <v>27442510</v>
+        <v>29049370</v>
       </c>
       <c r="W93" s="24" t="n">
-        <v>29049370</v>
+        <v>42863645</v>
       </c>
       <c r="X93" s="24" t="n">
-        <v>42863645</v>
+        <v>32883015</v>
       </c>
       <c r="Y93" s="24" t="n">
-        <v>32883015</v>
+        <v>36010365</v>
       </c>
       <c r="Z93" s="24" t="n">
-        <v>36010365</v>
+        <v>48865890</v>
       </c>
       <c r="AA93" s="24" t="n">
-        <v>48865890</v>
+        <v>32192469</v>
       </c>
       <c r="AB93" s="24" t="n">
-        <v>32192469</v>
+        <v>34783790</v>
       </c>
       <c r="AC93" s="24" t="n">
-        <v>34783790</v>
+        <v>75707865</v>
       </c>
       <c r="AD93" s="24" t="n">
-        <v>75707865</v>
+        <v>14007946</v>
       </c>
       <c r="AE93" s="24" t="n">
-        <v>14007946</v>
+        <v>55380865</v>
       </c>
       <c r="AF93" s="24" t="n">
-        <v>55380865</v>
+        <v>65800838</v>
       </c>
       <c r="AG93" s="24" t="n">
-        <v>65800838</v>
+        <v>77438420</v>
       </c>
       <c r="AH93" s="24" t="n">
-        <v>77438420</v>
+        <v>48381486</v>
       </c>
       <c r="AI93" s="24" t="n">
-        <v>48381486</v>
+        <v>86740658</v>
       </c>
       <c r="AJ93" s="24" t="n">
-        <v>86740658</v>
+        <v>54430283</v>
       </c>
       <c r="AK93" s="24" t="n">
-        <v>54430283</v>
+        <v>74784258</v>
       </c>
       <c r="AL93" s="24" t="n">
-        <v>74784258</v>
+        <v>72851480</v>
       </c>
       <c r="AM93" s="24" t="n">
-        <v>72851480</v>
+        <v>76589147</v>
       </c>
       <c r="AN93" s="24" t="n">
-        <v>76589147</v>
+        <v>84743830</v>
       </c>
       <c r="AO93" s="24" t="n">
-        <v>84743830</v>
+        <v>96255838</v>
       </c>
       <c r="AP93" s="24" t="n">
-        <v>96255838</v>
+        <v>43024778</v>
       </c>
       <c r="AQ93" s="24" t="n">
-        <v>43024778</v>
+        <v>81319630</v>
       </c>
       <c r="AR93" s="24" t="n">
-        <v>81319630</v>
+        <v>97091949</v>
       </c>
       <c r="AS93" s="24" t="n">
-        <v>97091949</v>
+        <v>60756901</v>
       </c>
       <c r="AT93" s="24" t="n">
-        <v>60756901</v>
+        <v>46652240</v>
       </c>
       <c r="AU93" s="24" t="n">
-        <v>46652240</v>
+        <v>68416807</v>
       </c>
       <c r="AV93" s="24" t="n">
-        <v>68416807</v>
+        <v>52839326</v>
       </c>
       <c r="AW93" s="24" t="n">
-        <v>52839326</v>
+        <v>63498537</v>
       </c>
       <c r="AX93" s="24" t="n">
-        <v>63498537</v>
+        <v>61413832</v>
       </c>
       <c r="AY93" s="24" t="n">
-        <v>61413832</v>
+        <v>70300780</v>
       </c>
       <c r="AZ93" s="24" t="n">
-        <v>70300780</v>
+        <v>102328994</v>
       </c>
       <c r="BA93" s="24" t="n">
-        <v>102328994</v>
+        <v>136878112</v>
       </c>
       <c r="BB93" s="24" t="n">
-        <v>136878112</v>
+        <v>63727574</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,107 +14967,107 @@
       <c r="T100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U100" s="13" t="s">
-        <v>58</v>
+      <c r="U100" s="13" t="n">
+        <v>345761</v>
       </c>
       <c r="V100" s="13" t="n">
-        <v>345761</v>
+        <v>1546169</v>
       </c>
       <c r="W100" s="13" t="n">
-        <v>1546169</v>
+        <v>1061983</v>
       </c>
       <c r="X100" s="13" t="n">
-        <v>1061983</v>
-      </c>
-      <c r="Y100" s="13" t="n">
         <v>557171</v>
       </c>
-      <c r="Z100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z100" s="13" t="n">
+        <v>971116</v>
       </c>
       <c r="AA100" s="13" t="n">
-        <v>971116</v>
+        <v>2127577</v>
       </c>
       <c r="AB100" s="13" t="n">
-        <v>2127577</v>
+        <v>895480</v>
       </c>
       <c r="AC100" s="13" t="n">
-        <v>895480</v>
-      </c>
-      <c r="AD100" s="13" t="n">
         <v>968012</v>
       </c>
-      <c r="AE100" s="13" t="s">
-        <v>58</v>
+      <c r="AD100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE100" s="13" t="n">
+        <v>3085198</v>
       </c>
       <c r="AF100" s="13" t="n">
-        <v>3085198</v>
+        <v>3657975</v>
       </c>
       <c r="AG100" s="13" t="n">
-        <v>3657975</v>
+        <v>3656530</v>
       </c>
       <c r="AH100" s="13" t="n">
-        <v>3656530</v>
+        <v>745681</v>
       </c>
       <c r="AI100" s="13" t="n">
-        <v>745681</v>
+        <v>3988090</v>
       </c>
       <c r="AJ100" s="13" t="n">
-        <v>3988090</v>
+        <v>551596</v>
       </c>
       <c r="AK100" s="13" t="n">
-        <v>551596</v>
+        <v>4661619</v>
       </c>
       <c r="AL100" s="13" t="n">
-        <v>4661619</v>
+        <v>5984297</v>
       </c>
       <c r="AM100" s="13" t="n">
-        <v>5984297</v>
+        <v>3932534</v>
       </c>
       <c r="AN100" s="13" t="n">
-        <v>3932534</v>
+        <v>6711701</v>
       </c>
       <c r="AO100" s="13" t="n">
-        <v>6711701</v>
-      </c>
-      <c r="AP100" s="13" t="n">
         <v>5931811</v>
       </c>
-      <c r="AQ100" s="13" t="s">
-        <v>58</v>
+      <c r="AP100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ100" s="13" t="n">
+        <v>178698540</v>
       </c>
       <c r="AR100" s="13" t="n">
-        <v>178698540</v>
+        <v>4398425</v>
       </c>
       <c r="AS100" s="13" t="n">
-        <v>4398425</v>
+        <v>4315173</v>
       </c>
       <c r="AT100" s="13" t="n">
-        <v>4315173</v>
+        <v>4510538</v>
       </c>
       <c r="AU100" s="13" t="n">
-        <v>4510538</v>
+        <v>3735938</v>
       </c>
       <c r="AV100" s="13" t="n">
-        <v>3735938</v>
+        <v>4411153</v>
       </c>
       <c r="AW100" s="13" t="n">
-        <v>4411153</v>
+        <v>3193005</v>
       </c>
       <c r="AX100" s="13" t="n">
-        <v>3193005</v>
+        <v>5083219</v>
       </c>
       <c r="AY100" s="13" t="n">
-        <v>5083219</v>
+        <v>4567325</v>
       </c>
       <c r="AZ100" s="13" t="n">
-        <v>4567325</v>
+        <v>108644563</v>
       </c>
       <c r="BA100" s="13" t="n">
-        <v>108644563</v>
+        <v>3247047</v>
       </c>
       <c r="BB100" s="13" t="n">
-        <v>3247047</v>
+        <v>5918439</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15126,107 +15126,107 @@
       <c r="T101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="16" t="s">
-        <v>58</v>
+      <c r="U101" s="16" t="n">
+        <v>1132564388</v>
       </c>
       <c r="V101" s="16" t="n">
-        <v>1132564388</v>
+        <v>1397669927</v>
       </c>
       <c r="W101" s="16" t="n">
-        <v>1397669927</v>
+        <v>1780813653</v>
       </c>
       <c r="X101" s="16" t="n">
-        <v>1780813653</v>
+        <v>2102423163</v>
       </c>
       <c r="Y101" s="16" t="n">
-        <v>2102423163</v>
+        <v>2444637450</v>
       </c>
       <c r="Z101" s="16" t="n">
-        <v>2444637450</v>
+        <v>2299693182</v>
       </c>
       <c r="AA101" s="16" t="n">
-        <v>2299693182</v>
+        <v>2832802198</v>
       </c>
       <c r="AB101" s="16" t="n">
-        <v>2832802198</v>
+        <v>2606956370</v>
       </c>
       <c r="AC101" s="16" t="n">
-        <v>2606956370</v>
+        <v>2427581649</v>
       </c>
       <c r="AD101" s="16" t="n">
-        <v>2427581649</v>
+        <v>2625803347</v>
       </c>
       <c r="AE101" s="16" t="n">
-        <v>2625803347</v>
+        <v>2362121951</v>
       </c>
       <c r="AF101" s="16" t="n">
-        <v>2362121951</v>
+        <v>2662597111</v>
       </c>
       <c r="AG101" s="16" t="n">
-        <v>2662597111</v>
+        <v>3495806452</v>
       </c>
       <c r="AH101" s="16" t="n">
-        <v>3495806452</v>
+        <v>3366891037</v>
       </c>
       <c r="AI101" s="16" t="n">
-        <v>3366891037</v>
+        <v>4722215659</v>
       </c>
       <c r="AJ101" s="16" t="n">
-        <v>4722215659</v>
+        <v>4136790698</v>
       </c>
       <c r="AK101" s="16" t="n">
-        <v>4136790698</v>
+        <v>4849831104</v>
       </c>
       <c r="AL101" s="16" t="n">
-        <v>4849831104</v>
+        <v>4228518265</v>
       </c>
       <c r="AM101" s="16" t="n">
-        <v>4228518265</v>
+        <v>4875186501</v>
       </c>
       <c r="AN101" s="16" t="n">
-        <v>4875186501</v>
+        <v>4711575188</v>
       </c>
       <c r="AO101" s="16" t="n">
-        <v>4711575188</v>
+        <v>4401865333</v>
       </c>
       <c r="AP101" s="16" t="n">
-        <v>4401865333</v>
+        <v>4681379182</v>
       </c>
       <c r="AQ101" s="16" t="n">
-        <v>4681379182</v>
+        <v>4176331667</v>
       </c>
       <c r="AR101" s="16" t="n">
-        <v>4176331667</v>
+        <v>3603601375</v>
       </c>
       <c r="AS101" s="16" t="n">
-        <v>3603601375</v>
+        <v>3440901280</v>
       </c>
       <c r="AT101" s="16" t="n">
-        <v>3440901280</v>
+        <v>3120782927</v>
       </c>
       <c r="AU101" s="16" t="n">
-        <v>3120782927</v>
+        <v>3268365882</v>
       </c>
       <c r="AV101" s="16" t="n">
-        <v>3268365882</v>
+        <v>3801684564</v>
       </c>
       <c r="AW101" s="16" t="n">
-        <v>3801684564</v>
+        <v>4094765035</v>
       </c>
       <c r="AX101" s="16" t="n">
-        <v>4094765035</v>
+        <v>4631548157</v>
       </c>
       <c r="AY101" s="16" t="n">
-        <v>4631548157</v>
+        <v>6676270440</v>
       </c>
       <c r="AZ101" s="16" t="n">
-        <v>6676270440</v>
+        <v>7396651934</v>
       </c>
       <c r="BA101" s="16" t="n">
-        <v>7396651934</v>
+        <v>7834260504</v>
       </c>
       <c r="BB101" s="16" t="n">
-        <v>7834260504</v>
+        <v>5536612159</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15285,107 +15285,107 @@
       <c r="T102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U102" s="13" t="s">
-        <v>58</v>
+      <c r="U102" s="13" t="n">
+        <v>808664</v>
       </c>
       <c r="V102" s="13" t="n">
-        <v>808664</v>
+        <v>971725</v>
       </c>
       <c r="W102" s="13" t="n">
-        <v>971725</v>
+        <v>1431141</v>
       </c>
       <c r="X102" s="13" t="n">
-        <v>1431141</v>
-      </c>
-      <c r="Y102" s="13" t="n">
         <v>1080881</v>
       </c>
-      <c r="Z102" s="13" t="s">
-        <v>58</v>
+      <c r="Y102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z102" s="13" t="n">
+        <v>1560258</v>
       </c>
       <c r="AA102" s="13" t="n">
-        <v>1560258</v>
+        <v>2291580</v>
       </c>
       <c r="AB102" s="13" t="n">
-        <v>2291580</v>
+        <v>2370646</v>
       </c>
       <c r="AC102" s="13" t="n">
-        <v>2370646</v>
-      </c>
-      <c r="AD102" s="13" t="n">
         <v>1954506</v>
       </c>
-      <c r="AE102" s="13" t="s">
-        <v>58</v>
+      <c r="AD102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE102" s="13" t="n">
+        <v>2648188</v>
       </c>
       <c r="AF102" s="13" t="n">
-        <v>2648188</v>
+        <v>1185775</v>
       </c>
       <c r="AG102" s="13" t="n">
-        <v>1185775</v>
+        <v>1703060</v>
       </c>
       <c r="AH102" s="13" t="n">
-        <v>1703060</v>
+        <v>1493852</v>
       </c>
       <c r="AI102" s="13" t="n">
-        <v>1493852</v>
+        <v>2153828</v>
       </c>
       <c r="AJ102" s="13" t="n">
-        <v>2153828</v>
+        <v>2293851</v>
       </c>
       <c r="AK102" s="13" t="n">
-        <v>2293851</v>
+        <v>2179518</v>
       </c>
       <c r="AL102" s="13" t="n">
-        <v>2179518</v>
+        <v>2947274</v>
       </c>
       <c r="AM102" s="13" t="n">
-        <v>2947274</v>
+        <v>3194856</v>
       </c>
       <c r="AN102" s="13" t="n">
-        <v>3194856</v>
+        <v>1968405</v>
       </c>
       <c r="AO102" s="13" t="n">
-        <v>1968405</v>
-      </c>
-      <c r="AP102" s="13" t="n">
         <v>2441473</v>
       </c>
-      <c r="AQ102" s="13" t="s">
-        <v>58</v>
+      <c r="AP102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="13" t="n">
+        <v>2712524</v>
       </c>
       <c r="AR102" s="13" t="n">
-        <v>2712524</v>
+        <v>1407794</v>
       </c>
       <c r="AS102" s="13" t="n">
-        <v>1407794</v>
-      </c>
-      <c r="AT102" s="13" t="n">
         <v>2830808</v>
       </c>
-      <c r="AU102" s="13" t="s">
-        <v>58</v>
+      <c r="AT102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU102" s="13" t="n">
+        <v>2490590</v>
       </c>
       <c r="AV102" s="13" t="n">
-        <v>2490590</v>
+        <v>2681818</v>
       </c>
       <c r="AW102" s="13" t="n">
-        <v>2681818</v>
+        <v>2788723</v>
       </c>
       <c r="AX102" s="13" t="n">
-        <v>2788723</v>
+        <v>1177418</v>
       </c>
       <c r="AY102" s="13" t="n">
-        <v>1177418</v>
+        <v>2142278</v>
       </c>
       <c r="AZ102" s="13" t="n">
-        <v>2142278</v>
+        <v>2616901</v>
       </c>
       <c r="BA102" s="13" t="n">
-        <v>2616901</v>
-      </c>
-      <c r="BB102" s="13" t="n">
         <v>1503508</v>
+      </c>
+      <c r="BB102" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15444,107 +15444,107 @@
       <c r="T103" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U103" s="16" t="s">
-        <v>58</v>
+      <c r="U103" s="16" t="n">
+        <v>1202795</v>
       </c>
       <c r="V103" s="16" t="n">
-        <v>1202795</v>
+        <v>1194232</v>
       </c>
       <c r="W103" s="16" t="n">
-        <v>1194232</v>
+        <v>1154399</v>
       </c>
       <c r="X103" s="16" t="n">
-        <v>1154399</v>
+        <v>1059929</v>
       </c>
       <c r="Y103" s="16" t="n">
-        <v>1059929</v>
+        <v>914794</v>
       </c>
       <c r="Z103" s="16" t="n">
-        <v>914794</v>
+        <v>989010</v>
       </c>
       <c r="AA103" s="16" t="n">
-        <v>989010</v>
+        <v>967754</v>
       </c>
       <c r="AB103" s="16" t="n">
-        <v>967754</v>
+        <v>965273</v>
       </c>
       <c r="AC103" s="16" t="n">
-        <v>965273</v>
+        <v>970404</v>
       </c>
       <c r="AD103" s="16" t="n">
-        <v>970404</v>
+        <v>1960543</v>
       </c>
       <c r="AE103" s="16" t="n">
-        <v>1960543</v>
+        <v>3150020</v>
       </c>
       <c r="AF103" s="16" t="n">
-        <v>3150020</v>
+        <v>3890425</v>
       </c>
       <c r="AG103" s="16" t="n">
-        <v>3890425</v>
+        <v>3949000</v>
       </c>
       <c r="AH103" s="16" t="n">
-        <v>3949000</v>
+        <v>3812957</v>
       </c>
       <c r="AI103" s="16" t="n">
-        <v>3812957</v>
+        <v>3956464</v>
       </c>
       <c r="AJ103" s="16" t="n">
-        <v>3956464</v>
+        <v>5071596</v>
       </c>
       <c r="AK103" s="16" t="n">
-        <v>5071596</v>
+        <v>5989500</v>
       </c>
       <c r="AL103" s="16" t="n">
-        <v>5989500</v>
+        <v>5986274</v>
       </c>
       <c r="AM103" s="16" t="n">
-        <v>5986274</v>
+        <v>6623001</v>
       </c>
       <c r="AN103" s="16" t="n">
-        <v>6623001</v>
+        <v>6244510</v>
       </c>
       <c r="AO103" s="16" t="n">
-        <v>6244510</v>
+        <v>7098802</v>
       </c>
       <c r="AP103" s="16" t="n">
-        <v>7098802</v>
+        <v>9573642</v>
       </c>
       <c r="AQ103" s="16" t="n">
-        <v>9573642</v>
+        <v>10834592</v>
       </c>
       <c r="AR103" s="16" t="n">
-        <v>10834592</v>
+        <v>13948377</v>
       </c>
       <c r="AS103" s="16" t="n">
-        <v>13948377</v>
+        <v>14818677</v>
       </c>
       <c r="AT103" s="16" t="n">
-        <v>14818677</v>
+        <v>14701024</v>
       </c>
       <c r="AU103" s="16" t="n">
-        <v>14701024</v>
+        <v>14992982</v>
       </c>
       <c r="AV103" s="16" t="n">
-        <v>14992982</v>
+        <v>14967951</v>
       </c>
       <c r="AW103" s="16" t="n">
-        <v>14967951</v>
+        <v>11280437</v>
       </c>
       <c r="AX103" s="16" t="n">
-        <v>11280437</v>
+        <v>10076865</v>
       </c>
       <c r="AY103" s="16" t="n">
-        <v>10076865</v>
+        <v>10000000</v>
       </c>
       <c r="AZ103" s="16" t="n">
-        <v>10000000</v>
+        <v>9901132</v>
       </c>
       <c r="BA103" s="16" t="n">
-        <v>9901132</v>
+        <v>7687475</v>
       </c>
       <c r="BB103" s="16" t="n">
-        <v>7687475</v>
+        <v>7004145</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15603,107 +15603,107 @@
       <c r="T104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U104" s="13" t="s">
-        <v>58</v>
+      <c r="U104" s="13" t="n">
+        <v>27563060241</v>
       </c>
       <c r="V104" s="13" t="n">
-        <v>27563060241</v>
+        <v>35146240000</v>
       </c>
       <c r="W104" s="13" t="n">
-        <v>35146240000</v>
+        <v>35543293103</v>
       </c>
       <c r="X104" s="13" t="n">
-        <v>35543293103</v>
-      </c>
-      <c r="Y104" s="13" t="n">
         <v>43479459459</v>
       </c>
-      <c r="Z104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z104" s="13" t="n">
+        <v>39780615385</v>
       </c>
       <c r="AA104" s="13" t="n">
-        <v>39780615385</v>
+        <v>35969318182</v>
       </c>
       <c r="AB104" s="13" t="n">
-        <v>35969318182</v>
+        <v>39300605263</v>
       </c>
       <c r="AC104" s="13" t="n">
-        <v>39300605263</v>
-      </c>
-      <c r="AD104" s="13" t="n">
         <v>33578758929</v>
       </c>
-      <c r="AE104" s="13" t="s">
-        <v>58</v>
+      <c r="AD104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE104" s="13" t="n">
+        <v>31473477273</v>
       </c>
       <c r="AF104" s="13" t="n">
-        <v>31473477273</v>
+        <v>33939621849</v>
       </c>
       <c r="AG104" s="13" t="n">
-        <v>33939621849</v>
+        <v>35218036585</v>
       </c>
       <c r="AH104" s="13" t="n">
-        <v>35218036585</v>
+        <v>36579597826</v>
       </c>
       <c r="AI104" s="13" t="n">
-        <v>36579597826</v>
+        <v>33918592105</v>
       </c>
       <c r="AJ104" s="13" t="n">
-        <v>33918592105</v>
+        <v>36397220930</v>
       </c>
       <c r="AK104" s="13" t="n">
-        <v>36397220930</v>
+        <v>35317504854</v>
       </c>
       <c r="AL104" s="13" t="n">
-        <v>35317504854</v>
+        <v>37289505376</v>
       </c>
       <c r="AM104" s="13" t="n">
-        <v>37289505376</v>
+        <v>34005552632</v>
       </c>
       <c r="AN104" s="13" t="n">
-        <v>34005552632</v>
+        <v>36368730769</v>
       </c>
       <c r="AO104" s="13" t="n">
-        <v>36368730769</v>
+        <v>32390323529</v>
       </c>
       <c r="AP104" s="13" t="n">
-        <v>32390323529</v>
+        <v>42900035714</v>
       </c>
       <c r="AQ104" s="13" t="n">
-        <v>42900035714</v>
+        <v>38070529412</v>
       </c>
       <c r="AR104" s="13" t="n">
-        <v>38070529412</v>
+        <v>37583512821</v>
       </c>
       <c r="AS104" s="13" t="n">
-        <v>37583512821</v>
+        <v>43408216667</v>
       </c>
       <c r="AT104" s="13" t="n">
-        <v>43408216667</v>
+        <v>35236943820</v>
       </c>
       <c r="AU104" s="13" t="n">
-        <v>35236943820</v>
+        <v>41071444444</v>
       </c>
       <c r="AV104" s="13" t="n">
-        <v>41071444444</v>
+        <v>39128571429</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>39128571429</v>
+        <v>36986087500</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>36986087500</v>
+        <v>37164873563</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>37164873563</v>
+        <v>43472857143</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>43472857143</v>
+        <v>60740264151</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>60740264151</v>
+        <v>57427236364</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>57427236364</v>
+        <v>70640913043</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15762,95 +15762,95 @@
       <c r="T105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="16" t="s">
-        <v>58</v>
+      <c r="U105" s="16" t="n">
+        <v>166375610</v>
       </c>
       <c r="V105" s="16" t="n">
-        <v>166375610</v>
+        <v>202673301</v>
       </c>
       <c r="W105" s="16" t="n">
-        <v>202673301</v>
+        <v>236442682</v>
       </c>
       <c r="X105" s="16" t="n">
-        <v>236442682</v>
+        <v>209639462</v>
       </c>
       <c r="Y105" s="16" t="n">
-        <v>209639462</v>
+        <v>292944206</v>
       </c>
       <c r="Z105" s="16" t="n">
-        <v>292944206</v>
+        <v>294733166</v>
       </c>
       <c r="AA105" s="16" t="n">
-        <v>294733166</v>
+        <v>403473343</v>
       </c>
       <c r="AB105" s="16" t="n">
-        <v>403473343</v>
+        <v>391546486</v>
       </c>
       <c r="AC105" s="16" t="n">
-        <v>391546486</v>
-      </c>
-      <c r="AD105" s="16" t="n">
         <v>404189674</v>
       </c>
-      <c r="AE105" s="16" t="s">
-        <v>58</v>
+      <c r="AD105" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE105" s="16" t="n">
+        <v>478303371</v>
       </c>
       <c r="AF105" s="16" t="n">
-        <v>478303371</v>
+        <v>448616179</v>
       </c>
       <c r="AG105" s="16" t="n">
-        <v>448616179</v>
-      </c>
-      <c r="AH105" s="16" t="n">
         <v>464751180</v>
       </c>
-      <c r="AI105" s="16" t="s">
-        <v>58</v>
+      <c r="AH105" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" s="16" t="n">
+        <v>456617124</v>
       </c>
       <c r="AJ105" s="16" t="n">
-        <v>456617124</v>
+        <v>419073529</v>
       </c>
       <c r="AK105" s="16" t="n">
-        <v>419073529</v>
+        <v>442253151</v>
       </c>
       <c r="AL105" s="16" t="n">
-        <v>442253151</v>
-      </c>
-      <c r="AM105" s="16" t="n">
         <v>483809524</v>
       </c>
+      <c r="AM105" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO105" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP105" s="16" t="n">
+      <c r="AO105" s="16" t="n">
         <v>495919184</v>
       </c>
+      <c r="AP105" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="16" t="s">
-        <v>58</v>
+      <c r="AR105" s="16" t="n">
+        <v>581372506</v>
       </c>
       <c r="AS105" s="16" t="n">
-        <v>581372506</v>
+        <v>507855889</v>
       </c>
       <c r="AT105" s="16" t="n">
-        <v>507855889</v>
+        <v>449619577</v>
       </c>
       <c r="AU105" s="16" t="n">
-        <v>449619577</v>
+        <v>442546737</v>
       </c>
       <c r="AV105" s="16" t="n">
-        <v>442546737</v>
+        <v>472422917</v>
       </c>
       <c r="AW105" s="16" t="n">
-        <v>472422917</v>
-      </c>
-      <c r="AX105" s="16" t="n">
         <v>444511079</v>
+      </c>
+      <c r="AX105" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY105" s="16" t="s">
         <v>58</v>
@@ -15921,107 +15921,107 @@
       <c r="T106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U106" s="13" t="s">
-        <v>58</v>
+      <c r="U106" s="13" t="n">
+        <v>910310296</v>
       </c>
       <c r="V106" s="13" t="n">
-        <v>910310296</v>
+        <v>1069699517</v>
       </c>
       <c r="W106" s="13" t="n">
-        <v>1069699517</v>
+        <v>1284886507</v>
       </c>
       <c r="X106" s="13" t="n">
-        <v>1284886507</v>
+        <v>1482213395</v>
       </c>
       <c r="Y106" s="13" t="n">
-        <v>1482213395</v>
+        <v>1631658308</v>
       </c>
       <c r="Z106" s="13" t="n">
-        <v>1631658308</v>
+        <v>1908168665</v>
       </c>
       <c r="AA106" s="13" t="n">
-        <v>1908168665</v>
+        <v>2099781302</v>
       </c>
       <c r="AB106" s="13" t="n">
-        <v>2099781302</v>
+        <v>1880237395</v>
       </c>
       <c r="AC106" s="13" t="n">
-        <v>1880237395</v>
+        <v>2029886085</v>
       </c>
       <c r="AD106" s="13" t="n">
-        <v>2029886085</v>
+        <v>2183542636</v>
       </c>
       <c r="AE106" s="13" t="n">
-        <v>2183542636</v>
+        <v>2296574100</v>
       </c>
       <c r="AF106" s="13" t="n">
-        <v>2296574100</v>
+        <v>2231062609</v>
       </c>
       <c r="AG106" s="13" t="n">
-        <v>2231062609</v>
+        <v>2110683590</v>
       </c>
       <c r="AH106" s="13" t="n">
-        <v>2110683590</v>
+        <v>2202832890</v>
       </c>
       <c r="AI106" s="13" t="n">
-        <v>2202832890</v>
+        <v>2236859206</v>
       </c>
       <c r="AJ106" s="13" t="n">
-        <v>2236859206</v>
+        <v>2257708885</v>
       </c>
       <c r="AK106" s="13" t="n">
-        <v>2257708885</v>
+        <v>2371637873</v>
       </c>
       <c r="AL106" s="13" t="n">
-        <v>2371637873</v>
+        <v>2361005718</v>
       </c>
       <c r="AM106" s="13" t="n">
-        <v>2361005718</v>
+        <v>2372414731</v>
       </c>
       <c r="AN106" s="13" t="n">
-        <v>2372414731</v>
+        <v>2488029334</v>
       </c>
       <c r="AO106" s="13" t="n">
-        <v>2488029334</v>
+        <v>2566071463</v>
       </c>
       <c r="AP106" s="13" t="n">
-        <v>2566071463</v>
+        <v>2566081994</v>
       </c>
       <c r="AQ106" s="13" t="n">
-        <v>2566081994</v>
+        <v>2592467920</v>
       </c>
       <c r="AR106" s="13" t="n">
-        <v>2592467920</v>
+        <v>2449977794</v>
       </c>
       <c r="AS106" s="13" t="n">
-        <v>2449977794</v>
+        <v>2539285494</v>
       </c>
       <c r="AT106" s="13" t="n">
-        <v>2539285494</v>
+        <v>2314111618</v>
       </c>
       <c r="AU106" s="13" t="n">
-        <v>2314111618</v>
+        <v>2260635216</v>
       </c>
       <c r="AV106" s="13" t="n">
-        <v>2260635216</v>
+        <v>2328631079</v>
       </c>
       <c r="AW106" s="13" t="n">
-        <v>2328631079</v>
+        <v>2383599265</v>
       </c>
       <c r="AX106" s="13" t="n">
-        <v>2383599265</v>
+        <v>2369673029</v>
       </c>
       <c r="AY106" s="13" t="n">
-        <v>2369673029</v>
+        <v>2678894376</v>
       </c>
       <c r="AZ106" s="13" t="n">
-        <v>2678894376</v>
+        <v>3010416554</v>
       </c>
       <c r="BA106" s="13" t="n">
-        <v>3010416554</v>
+        <v>4097818703</v>
       </c>
       <c r="BB106" s="13" t="n">
-        <v>4097818703</v>
+        <v>3885555004</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16080,23 +16080,23 @@
       <c r="T107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U107" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V107" s="16" t="n">
+      <c r="U107" s="16" t="n">
         <v>1013893617</v>
       </c>
+      <c r="V107" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="W107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X107" s="16" t="s">
-        <v>58</v>
+      <c r="X107" s="16" t="n">
+        <v>1645661017</v>
       </c>
       <c r="Y107" s="16" t="n">
-        <v>1645661017</v>
-      </c>
-      <c r="Z107" s="16" t="n">
         <v>1667131387</v>
+      </c>
+      <c r="Z107" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AA107" s="16" t="s">
         <v>58</v>
@@ -16299,47 +16299,47 @@
       <c r="AN108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP108" s="13" t="n">
+      <c r="AO108" s="13" t="n">
         <v>5962731707</v>
       </c>
+      <c r="AP108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ108" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT108" s="13" t="n">
+      <c r="AS108" s="13" t="n">
         <v>5168142857</v>
       </c>
+      <c r="AT108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU108" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW108" s="13" t="s">
-        <v>58</v>
+      <c r="AW108" s="13" t="n">
+        <v>6662726277</v>
       </c>
       <c r="AX108" s="13" t="n">
-        <v>6662726277</v>
+        <v>7803692913</v>
       </c>
       <c r="AY108" s="13" t="n">
-        <v>7803692913</v>
+        <v>10490190476</v>
       </c>
       <c r="AZ108" s="13" t="n">
-        <v>10490190476</v>
+        <v>11224205607</v>
       </c>
       <c r="BA108" s="13" t="n">
-        <v>11224205607</v>
-      </c>
-      <c r="BB108" s="13" t="n">
         <v>13112206349</v>
+      </c>
+      <c r="BB108" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16491,14 +16491,14 @@
       <c r="AY109" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ109" s="16" t="s">
-        <v>58</v>
+      <c r="AZ109" s="16" t="n">
+        <v>3708217294</v>
       </c>
       <c r="BA109" s="16" t="n">
-        <v>3708217294</v>
+        <v>4357040580</v>
       </c>
       <c r="BB109" s="16" t="n">
-        <v>4357040580</v>
+        <v>4654307242</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16638,17 +16638,17 @@
       <c r="AU110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW110" s="13" t="n">
+      <c r="AV110" s="13" t="n">
         <v>1447863</v>
       </c>
-      <c r="AX110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY110" s="13" t="n">
+      <c r="AW110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX110" s="13" t="n">
         <v>1147591</v>
+      </c>
+      <c r="AY110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ110" s="13" t="s">
         <v>58</v>
@@ -16797,12 +16797,12 @@
       <c r="AB112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD112" s="13" t="n">
+      <c r="AC112" s="13" t="n">
         <v>2565476</v>
       </c>
+      <c r="AD112" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE112" s="13" t="s">
         <v>58</v>
       </c>
@@ -16824,12 +16824,12 @@
       <c r="AK112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM112" s="13" t="n">
+      <c r="AL112" s="13" t="n">
         <v>5920283</v>
       </c>
+      <c r="AM112" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN112" s="13" t="s">
         <v>58</v>
       </c>
@@ -16845,11 +16845,11 @@
       <c r="AR112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT112" s="13" t="n">
+      <c r="AS112" s="13" t="n">
         <v>13159319</v>
+      </c>
+      <c r="AT112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU112" s="13" t="s">
         <v>58</v>
@@ -16932,12 +16932,12 @@
       <c r="T113" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U113" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V113" s="16" t="n">
+      <c r="U113" s="16" t="n">
         <v>6754266667</v>
       </c>
+      <c r="V113" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="W113" s="16" t="s">
         <v>58</v>
       </c>
@@ -16950,17 +16950,17 @@
       <c r="Z113" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA113" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB113" s="16" t="n">
+      <c r="AA113" s="16" t="n">
         <v>470129757</v>
       </c>
-      <c r="AC113" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD113" s="16" t="n">
+      <c r="AB113" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC113" s="16" t="n">
         <v>4275884615</v>
+      </c>
+      <c r="AD113" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE113" s="16" t="s">
         <v>58</v>
@@ -17091,107 +17091,107 @@
       <c r="T114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U114" s="13" t="s">
-        <v>58</v>
+      <c r="U114" s="13" t="n">
+        <v>928538905</v>
       </c>
       <c r="V114" s="13" t="n">
-        <v>928538905</v>
+        <v>1237104079</v>
       </c>
       <c r="W114" s="13" t="n">
-        <v>1237104079</v>
+        <v>1617818739</v>
       </c>
       <c r="X114" s="13" t="n">
-        <v>1617818739</v>
+        <v>1538159967</v>
       </c>
       <c r="Y114" s="13" t="n">
-        <v>1538159967</v>
+        <v>1740655587</v>
       </c>
       <c r="Z114" s="13" t="n">
-        <v>1740655587</v>
+        <v>1977786240</v>
       </c>
       <c r="AA114" s="13" t="n">
-        <v>1977786240</v>
+        <v>1721847131</v>
       </c>
       <c r="AB114" s="13" t="n">
-        <v>1721847131</v>
+        <v>1985310736</v>
       </c>
       <c r="AC114" s="13" t="n">
-        <v>1985310736</v>
+        <v>2251599633</v>
       </c>
       <c r="AD114" s="13" t="n">
-        <v>2251599633</v>
+        <v>2059707602</v>
       </c>
       <c r="AE114" s="13" t="n">
-        <v>2059707602</v>
+        <v>2135670712</v>
       </c>
       <c r="AF114" s="13" t="n">
-        <v>2135670712</v>
+        <v>2497932476</v>
       </c>
       <c r="AG114" s="13" t="n">
-        <v>2497932476</v>
+        <v>2114075822</v>
       </c>
       <c r="AH114" s="13" t="n">
-        <v>2114075822</v>
+        <v>2212392092</v>
       </c>
       <c r="AI114" s="13" t="n">
-        <v>2212392092</v>
+        <v>2203454002</v>
       </c>
       <c r="AJ114" s="13" t="n">
-        <v>2203454002</v>
+        <v>2103669502</v>
       </c>
       <c r="AK114" s="13" t="n">
-        <v>2103669502</v>
+        <v>2409235468</v>
       </c>
       <c r="AL114" s="13" t="n">
-        <v>2409235468</v>
+        <v>2406199374</v>
       </c>
       <c r="AM114" s="13" t="n">
-        <v>2406199374</v>
+        <v>2413432017</v>
       </c>
       <c r="AN114" s="13" t="n">
-        <v>2413432017</v>
+        <v>2499011675</v>
       </c>
       <c r="AO114" s="13" t="n">
-        <v>2499011675</v>
+        <v>2686617112</v>
       </c>
       <c r="AP114" s="13" t="n">
-        <v>2686617112</v>
+        <v>2684166967</v>
       </c>
       <c r="AQ114" s="13" t="n">
-        <v>2684166967</v>
+        <v>2780618695</v>
       </c>
       <c r="AR114" s="13" t="n">
-        <v>2780618695</v>
+        <v>2844876598</v>
       </c>
       <c r="AS114" s="13" t="n">
-        <v>2844876598</v>
+        <v>2678123253</v>
       </c>
       <c r="AT114" s="13" t="n">
-        <v>2678123253</v>
+        <v>2865268288</v>
       </c>
       <c r="AU114" s="13" t="n">
-        <v>2865268288</v>
+        <v>2554428148</v>
       </c>
       <c r="AV114" s="13" t="n">
-        <v>2554428148</v>
+        <v>2290902811</v>
       </c>
       <c r="AW114" s="13" t="n">
-        <v>2290902811</v>
+        <v>2307282108</v>
       </c>
       <c r="AX114" s="13" t="n">
-        <v>2307282108</v>
+        <v>2582350323</v>
       </c>
       <c r="AY114" s="13" t="n">
-        <v>2582350323</v>
+        <v>2657626518</v>
       </c>
       <c r="AZ114" s="13" t="n">
-        <v>2657626518</v>
+        <v>3152146721</v>
       </c>
       <c r="BA114" s="13" t="n">
-        <v>3152146721</v>
+        <v>4154769304</v>
       </c>
       <c r="BB114" s="13" t="n">
-        <v>4154769304</v>
+        <v>4505430507</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17250,107 +17250,107 @@
       <c r="T115" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V115" s="16" t="n">
+      <c r="U115" s="16" t="n">
         <v>2150297297</v>
       </c>
-      <c r="W115" s="16" t="s">
-        <v>58</v>
+      <c r="V115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W115" s="16" t="n">
+        <v>1392250000</v>
       </c>
       <c r="X115" s="16" t="n">
-        <v>1392250000</v>
+        <v>1968050000</v>
       </c>
       <c r="Y115" s="16" t="n">
-        <v>1968050000</v>
+        <v>2640742268</v>
       </c>
       <c r="Z115" s="16" t="n">
-        <v>2640742268</v>
+        <v>2677694915</v>
       </c>
       <c r="AA115" s="16" t="n">
-        <v>2677694915</v>
-      </c>
-      <c r="AB115" s="16" t="n">
         <v>3082188889</v>
       </c>
-      <c r="AC115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD115" s="16" t="n">
+      <c r="AB115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC115" s="16" t="n">
         <v>2575900662</v>
       </c>
-      <c r="AE115" s="16" t="s">
-        <v>58</v>
+      <c r="AD115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE115" s="16" t="n">
+        <v>3036850340</v>
       </c>
       <c r="AF115" s="16" t="n">
-        <v>3036850340</v>
+        <v>3413690476</v>
       </c>
       <c r="AG115" s="16" t="n">
-        <v>3413690476</v>
+        <v>15446575000</v>
       </c>
       <c r="AH115" s="16" t="n">
-        <v>15446575000</v>
+        <v>39403000000</v>
       </c>
       <c r="AI115" s="16" t="n">
-        <v>39403000000</v>
+        <v>4399634146</v>
       </c>
       <c r="AJ115" s="16" t="n">
-        <v>4399634146</v>
+        <v>4584477612</v>
       </c>
       <c r="AK115" s="16" t="n">
-        <v>4584477612</v>
+        <v>4680619048</v>
       </c>
       <c r="AL115" s="16" t="n">
-        <v>4680619048</v>
+        <v>4435547619</v>
       </c>
       <c r="AM115" s="16" t="n">
-        <v>4435547619</v>
+        <v>4893841270</v>
       </c>
       <c r="AN115" s="16" t="n">
-        <v>4893841270</v>
+        <v>4652523810</v>
       </c>
       <c r="AO115" s="16" t="n">
-        <v>4652523810</v>
-      </c>
-      <c r="AP115" s="16" t="n">
         <v>1166333333</v>
       </c>
-      <c r="AQ115" s="16" t="s">
-        <v>58</v>
+      <c r="AP115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ115" s="16" t="n">
+        <v>5082571429</v>
       </c>
       <c r="AR115" s="16" t="n">
-        <v>5082571429</v>
+        <v>5258292683</v>
       </c>
       <c r="AS115" s="16" t="n">
-        <v>5258292683</v>
+        <v>3541000000</v>
       </c>
       <c r="AT115" s="16" t="n">
-        <v>3541000000</v>
+        <v>19978000000</v>
       </c>
       <c r="AU115" s="16" t="n">
-        <v>19978000000</v>
+        <v>4334048780</v>
       </c>
       <c r="AV115" s="16" t="n">
-        <v>4334048780</v>
+        <v>5562428571</v>
       </c>
       <c r="AW115" s="16" t="n">
-        <v>5562428571</v>
+        <v>14583000000</v>
       </c>
       <c r="AX115" s="16" t="n">
-        <v>14583000000</v>
+        <v>6390904762</v>
       </c>
       <c r="AY115" s="16" t="n">
-        <v>6390904762</v>
+        <v>8909333333</v>
       </c>
       <c r="AZ115" s="16" t="n">
-        <v>8909333333</v>
+        <v>712250000000</v>
       </c>
       <c r="BA115" s="16" t="n">
-        <v>712250000000</v>
+        <v>17214792604</v>
       </c>
       <c r="BB115" s="16" t="n">
-        <v>17214792604</v>
+        <v>11580571429</v>
       </c>
     </row>
   </sheetData>
